--- a/tests/tests8/N 0.3.xlsx
+++ b/tests/tests8/N 0.3.xlsx
@@ -85,10 +85,10 @@
     <t>[0, 1, 1, 1]</t>
   </si>
   <si>
-    <t>[0, 0, 0, 0]</t>
+    <t>[1, 1, 1, 1]</t>
   </si>
   <si>
-    <t>[1, 1, 1, 1]</t>
+    <t>[0, 0, 0, 0]</t>
   </si>
   <si>
     <t>[0, 0, 0, 1]</t>
@@ -528,37 +528,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>29.69660767672961</v>
+        <v>10</v>
       </c>
       <c r="C2">
-        <v>128.7340859470355</v>
+        <v>98.78643070691845</v>
       </c>
       <c r="D2">
-        <v>11.02763376071644</v>
+        <v>11.58227239646903</v>
       </c>
       <c r="E2">
         <v>359.4707842962097</v>
       </c>
       <c r="F2">
-        <v>28.87707293467836</v>
+        <v>9.8241416882835</v>
       </c>
       <c r="G2">
-        <v>120.4681019538125</v>
+        <v>97.75016317187904</v>
       </c>
       <c r="H2">
-        <v>10.67624698831527</v>
+        <v>11.65573349906952</v>
       </c>
       <c r="Q2">
-        <v>0.119800169722951</v>
+        <v>0.113218699992072</v>
       </c>
       <c r="R2">
-        <v>0.4646088933640276</v>
+        <v>0.2033766994844113</v>
       </c>
       <c r="S2" t="s">
         <v>22</v>
       </c>
       <c r="T2">
-        <v>0.0003114000000437045</v>
+        <v>0.0002860999999967362</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -566,37 +566,37 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>23.76599021161583</v>
+        <v>10</v>
       </c>
       <c r="C3">
-        <v>129.6584088195885</v>
+        <v>75.06396084646332</v>
       </c>
       <c r="D3">
-        <v>5.001143748173449</v>
+        <v>11.6438939213059</v>
       </c>
       <c r="E3">
         <v>359.512696390901</v>
       </c>
       <c r="F3">
-        <v>23.24044505257249</v>
+        <v>9.956165069699598</v>
       </c>
       <c r="G3">
-        <v>110.8028286188381</v>
+        <v>74.54707283185463</v>
       </c>
       <c r="H3">
-        <v>4.680737796892046</v>
+        <v>11.94138518634005</v>
       </c>
       <c r="Q3">
-        <v>0.1083773840495728</v>
+        <v>0.1036881903469531</v>
       </c>
       <c r="R3">
-        <v>0.7902372931699397</v>
+        <v>0.205926729074075</v>
       </c>
       <c r="S3" t="s">
         <v>23</v>
       </c>
       <c r="T3">
-        <v>0.0002812999999832755</v>
+        <v>0.0002776000000039858</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -604,37 +604,37 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>24.61977059639017</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>4.666721729020439</v>
+        <v>78.47908238556067</v>
       </c>
       <c r="D4">
-        <v>10.49662477878709</v>
+        <v>3.311114781934696</v>
       </c>
       <c r="E4">
         <v>0.1250273542216417</v>
       </c>
       <c r="F4">
-        <v>24.1274382180967</v>
+        <v>9.908147279843073</v>
       </c>
       <c r="G4">
-        <v>3.784761630115988</v>
+        <v>79.84802095942418</v>
       </c>
       <c r="H4">
-        <v>7.660180132783733</v>
+        <v>3.14574593125363</v>
       </c>
       <c r="Q4">
-        <v>0.09524120802494394</v>
+        <v>0.09047060899527208</v>
       </c>
       <c r="R4">
-        <v>0.7621960294325586</v>
+        <v>0.2056479827259988</v>
       </c>
       <c r="S4" t="s">
         <v>23</v>
       </c>
       <c r="T4">
-        <v>0.0002726000000166096</v>
+        <v>0.000366499999998382</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -642,37 +642,37 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>29.7859056158559</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>127.4666080712589</v>
+        <v>99.1436224634236</v>
       </c>
       <c r="D5">
-        <v>7.909047389129443</v>
+        <v>11.49777387141726</v>
       </c>
       <c r="E5">
         <v>359.4634114579709</v>
       </c>
       <c r="F5">
-        <v>28.21634589086287</v>
+        <v>9.940623187296273</v>
       </c>
       <c r="G5">
-        <v>114.7225983207017</v>
+        <v>98.5420100291897</v>
       </c>
       <c r="H5">
-        <v>7.308610786430618</v>
+        <v>11.68496129065065</v>
       </c>
       <c r="Q5">
-        <v>0.1294925545717871</v>
+        <v>0.1225318323378674</v>
       </c>
       <c r="R5">
-        <v>0.7303661230188878</v>
+        <v>0.1997843777518899</v>
       </c>
       <c r="S5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T5">
-        <v>0.0002850999999850501</v>
+        <v>0.0002791999999942618</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -680,37 +680,37 @@
         <v>0</v>
       </c>
       <c r="B6">
-        <v>48.51634275561545</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>98.50180485163001</v>
+        <v>174.0653710224618</v>
       </c>
       <c r="D6">
-        <v>14.72684359964884</v>
+        <v>9.566786990108668</v>
       </c>
       <c r="E6">
         <v>359.9848314878572</v>
       </c>
       <c r="F6">
-        <v>38.48241715128766</v>
+        <v>9.888589875878838</v>
       </c>
       <c r="G6">
-        <v>101.5780020104468</v>
+        <v>174.1619199095053</v>
       </c>
       <c r="H6">
-        <v>10.97339716904236</v>
+        <v>9.426702862651181</v>
       </c>
       <c r="Q6">
-        <v>0.1029908448706712</v>
+        <v>0.08462267855341102</v>
       </c>
       <c r="R6">
-        <v>1.06256703069096</v>
+        <v>0.06138109419471783</v>
       </c>
       <c r="S6" t="s">
         <v>23</v>
       </c>
       <c r="T6">
-        <v>0.0002769000000171218</v>
+        <v>0.0003756999999922073</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -718,37 +718,37 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>14.98969269903828</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>156.7318151119277</v>
+        <v>39.9587707961531</v>
       </c>
       <c r="D7">
-        <v>7.067191553394264</v>
+        <v>13.44878767412852</v>
       </c>
       <c r="E7">
         <v>359.8676317539345</v>
       </c>
       <c r="F7">
-        <v>14.93029916865969</v>
+        <v>9.609695073223071</v>
       </c>
       <c r="G7">
-        <v>155.8258630824502</v>
+        <v>39.3504530691787</v>
       </c>
       <c r="H7">
-        <v>6.993373127201271</v>
+        <v>13.06811143011775</v>
       </c>
       <c r="Q7">
-        <v>0.09256543549735417</v>
+        <v>0.09540821684049361</v>
       </c>
       <c r="R7">
-        <v>0.08845775092411404</v>
+        <v>0.1841148703636448</v>
       </c>
       <c r="S7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T7">
-        <v>0.0003464999999778229</v>
+        <v>0.0007103999999884536</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -756,37 +756,37 @@
         <v>0</v>
       </c>
       <c r="B8">
-        <v>45.17870681462007</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>59.7563649542119</v>
+        <v>160.7148272584803</v>
       </c>
       <c r="D8">
-        <v>13.21229123057832</v>
+        <v>6.983757663614126</v>
       </c>
       <c r="E8">
         <v>0.09353510204625504</v>
       </c>
       <c r="F8">
-        <v>35.8999152053654</v>
+        <v>9.542413354422287</v>
       </c>
       <c r="G8">
-        <v>64.10531701292507</v>
+        <v>161.6458951866583</v>
       </c>
       <c r="H8">
-        <v>8.974663259607691</v>
+        <v>6.509106064835738</v>
       </c>
       <c r="Q8">
-        <v>0.1029453906008074</v>
+        <v>0.08606834792307802</v>
       </c>
       <c r="R8">
-        <v>1.276241587852579</v>
+        <v>0.2928375969152908</v>
       </c>
       <c r="S8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T8">
-        <v>0.0002703000000110478</v>
+        <v>0.0003573999999986199</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -794,37 +794,37 @@
         <v>0</v>
       </c>
       <c r="B9">
-        <v>8.433873021828074</v>
+        <v>10</v>
       </c>
       <c r="C9">
-        <v>140.3853826032206</v>
+        <v>13.73549208731229</v>
       </c>
       <c r="D9">
-        <v>9.384092314408935</v>
+        <v>12.35902550688138</v>
       </c>
       <c r="E9">
         <v>359.4928422888599</v>
       </c>
       <c r="F9">
-        <v>8.6652025521042</v>
+        <v>9.250291859404404</v>
       </c>
       <c r="G9">
-        <v>139.5991517762606</v>
+        <v>13.20781333238678</v>
       </c>
       <c r="H9">
-        <v>9.853420600335726</v>
+        <v>13.09315121318101</v>
       </c>
       <c r="Q9">
-        <v>0.1244686254749112</v>
+        <v>0.1064593771691707</v>
       </c>
       <c r="R9">
-        <v>0.3171925182241255</v>
+        <v>0.4134326707296498</v>
       </c>
       <c r="S9" t="s">
         <v>22</v>
       </c>
       <c r="T9">
-        <v>0.0002536000000077365</v>
+        <v>0.0003972999999888316</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -832,37 +832,37 @@
         <v>0</v>
       </c>
       <c r="B10">
-        <v>44.30432312563173</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>174.3373193077678</v>
+        <v>157.2172925025269</v>
       </c>
       <c r="D10">
-        <v>13.6919454021392</v>
+        <v>14.62248795385118</v>
       </c>
       <c r="E10">
         <v>359.9726385850141</v>
       </c>
       <c r="F10">
-        <v>39.97900399330392</v>
+        <v>9.825475255125275</v>
       </c>
       <c r="G10">
-        <v>176.04387520679</v>
+        <v>157.2622809818639</v>
       </c>
       <c r="H10">
-        <v>13.16674659008389</v>
+        <v>14.31715487311048</v>
       </c>
       <c r="Q10">
-        <v>0.1156311772608954</v>
+        <v>0.1018867730266889</v>
       </c>
       <c r="R10">
-        <v>0.3081122859379919</v>
+        <v>0.08925517875306904</v>
       </c>
       <c r="S10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T10">
-        <v>0.0002987000000302942</v>
+        <v>0.0003242000000085454</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -870,37 +870,37 @@
         <v>0</v>
       </c>
       <c r="B11">
-        <v>5.466836924856498</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>90.33742658677298</v>
+        <v>1.867347699425992</v>
       </c>
       <c r="D11">
-        <v>9.957732931341461</v>
+        <v>9.022495105784865</v>
       </c>
       <c r="E11">
         <v>359.9996674335863</v>
       </c>
       <c r="F11">
-        <v>5.224953703510328</v>
+        <v>9.98623137291513</v>
       </c>
       <c r="G11">
-        <v>89.79765145211753</v>
+        <v>1.63812057882759</v>
       </c>
       <c r="H11">
-        <v>9.349717213303212</v>
+        <v>8.711317147127385</v>
       </c>
       <c r="Q11">
-        <v>0.0974176091303969</v>
+        <v>0.08956825293840666</v>
       </c>
       <c r="R11">
-        <v>0.2399692404756833</v>
+        <v>0.09433140250733733</v>
       </c>
       <c r="S11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T11">
-        <v>0.0002513999999678163</v>
+        <v>0.0002825000000115097</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -908,37 +908,37 @@
         <v>0</v>
       </c>
       <c r="B12">
-        <v>39.70942894700357</v>
+        <v>10</v>
       </c>
       <c r="C12">
-        <v>3.73535088469227</v>
+        <v>138.8377157880143</v>
       </c>
       <c r="D12">
-        <v>11.33648234926275</v>
+        <v>3.249023392312818</v>
       </c>
       <c r="E12">
         <v>359.6005240487611</v>
       </c>
       <c r="F12">
-        <v>28.31993659568455</v>
+        <v>9.963702930271413</v>
       </c>
       <c r="G12">
-        <v>1.969656072828538</v>
+        <v>133.942964061068</v>
       </c>
       <c r="H12">
-        <v>17.15774509887643</v>
+        <v>3.245785493587007</v>
       </c>
       <c r="Q12">
-        <v>0.1207718357443636</v>
+        <v>0.100857351433155</v>
       </c>
       <c r="R12">
-        <v>1.905791498871366</v>
+        <v>0.2307787325967929</v>
       </c>
       <c r="S12" t="s">
         <v>23</v>
       </c>
       <c r="T12">
-        <v>0.0002972000000340813</v>
+        <v>0.0002853000000015982</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -946,37 +946,37 @@
         <v>0</v>
       </c>
       <c r="B13">
-        <v>13.11213599945461</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>3.505543467772425</v>
+        <v>32.44854399781845</v>
       </c>
       <c r="D13">
-        <v>9.632185264983447</v>
+        <v>3.233702897851495</v>
       </c>
       <c r="E13">
         <v>359.4751635776084</v>
       </c>
       <c r="F13">
-        <v>11.52515269838718</v>
+        <v>9.641758932438766</v>
       </c>
       <c r="G13">
-        <v>3.64350302294377</v>
+        <v>29.62751396593949</v>
       </c>
       <c r="H13">
-        <v>11.57009667274628</v>
+        <v>3.929496643851583</v>
       </c>
       <c r="Q13">
-        <v>0.1284450807536475</v>
+        <v>0.1233923986859733</v>
       </c>
       <c r="R13">
-        <v>0.8393556202244103</v>
+        <v>0.7993650724137592</v>
       </c>
       <c r="S13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T13">
-        <v>0.0002738000000022112</v>
+        <v>0.0002791000000001986</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -984,37 +984,37 @@
         <v>0</v>
       </c>
       <c r="B14">
-        <v>11.93732790708526</v>
+        <v>10</v>
       </c>
       <c r="C14">
-        <v>133.2089453727729</v>
+        <v>27.74931162834103</v>
       </c>
       <c r="D14">
-        <v>7.633150151851346</v>
+        <v>11.88059635818486</v>
       </c>
       <c r="E14">
         <v>359.858104250553</v>
       </c>
       <c r="F14">
-        <v>11.9316335249251</v>
+        <v>9.781486740534845</v>
       </c>
       <c r="G14">
-        <v>132.7128577123692</v>
+        <v>27.49092658123463</v>
       </c>
       <c r="H14">
-        <v>7.664785476994028</v>
+        <v>11.76055081983523</v>
       </c>
       <c r="Q14">
-        <v>0.09929498501626785</v>
+        <v>0.1005611984850861</v>
       </c>
       <c r="R14">
-        <v>0.05903233050175228</v>
+        <v>0.1036132802992044</v>
       </c>
       <c r="S14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T14">
-        <v>0.0002534999999852516</v>
+        <v>0.000290200000009122</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1022,37 +1022,37 @@
         <v>0</v>
       </c>
       <c r="B15">
-        <v>39.99660847582191</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>42.75741960628422</v>
+        <v>139.9864339032876</v>
       </c>
       <c r="D15">
-        <v>13.24278532661369</v>
+        <v>5.850494640418948</v>
       </c>
       <c r="E15">
         <v>0.213717198615172</v>
       </c>
       <c r="F15">
-        <v>33.57235579156878</v>
+        <v>9.632141122413312</v>
       </c>
       <c r="G15">
-        <v>48.07441250673096</v>
+        <v>141.2815898203959</v>
       </c>
       <c r="H15">
-        <v>8.647980237576203</v>
+        <v>5.47052200048245</v>
       </c>
       <c r="Q15">
-        <v>0.1044039565708716</v>
+        <v>0.08919039031169131</v>
       </c>
       <c r="R15">
-        <v>1.321470683074163</v>
+        <v>0.3094857517423051</v>
       </c>
       <c r="S15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T15">
-        <v>0.0002656999999999243</v>
+        <v>0.0002867000000037478</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1060,37 +1060,37 @@
         <v>0</v>
       </c>
       <c r="B16">
-        <v>28.12745046977106</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>139.1697093742734</v>
+        <v>92.50980187908425</v>
       </c>
       <c r="D16">
-        <v>13.70427685724813</v>
+        <v>12.27798062495156</v>
       </c>
       <c r="E16">
         <v>359.5345982666241</v>
       </c>
       <c r="F16">
-        <v>27.5852014415945</v>
+        <v>9.811954580409376</v>
       </c>
       <c r="G16">
-        <v>135.4049698785185</v>
+        <v>91.76328361184032</v>
       </c>
       <c r="H16">
-        <v>13.39308525243466</v>
+        <v>12.28967465805761</v>
       </c>
       <c r="Q16">
-        <v>0.142008879462915</v>
+        <v>0.1311842117777102</v>
       </c>
       <c r="R16">
-        <v>0.2993684640919186</v>
+        <v>0.1687353919136441</v>
       </c>
       <c r="S16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T16">
-        <v>0.000271999999995387</v>
+        <v>0.0002731999999951995</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1098,37 +1098,37 @@
         <v>0</v>
       </c>
       <c r="B17">
-        <v>43.19679637708604</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>32.20126648577973</v>
+        <v>152.7871855083442</v>
       </c>
       <c r="D17">
-        <v>5.543632143064315</v>
+        <v>5.146751099051982</v>
       </c>
       <c r="E17">
         <v>0.09369854446306079</v>
       </c>
       <c r="F17">
-        <v>38.08318943958988</v>
+        <v>9.826891884962423</v>
       </c>
       <c r="G17">
-        <v>73.78193638345198</v>
+        <v>153.653513395385</v>
       </c>
       <c r="H17">
-        <v>1.963508506905886</v>
+        <v>5.002943947044884</v>
       </c>
       <c r="Q17">
-        <v>0.1075231193351753</v>
+        <v>0.09060167213644034</v>
       </c>
       <c r="R17">
-        <v>2.874760976796773</v>
+        <v>0.1437875502018479</v>
       </c>
       <c r="S17" t="s">
         <v>23</v>
       </c>
       <c r="T17">
-        <v>0.0002546999999708532</v>
+        <v>0.0002817000000021608</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1136,37 +1136,37 @@
         <v>0</v>
       </c>
       <c r="B18">
-        <v>15.04809856190925</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>94.1694014521217</v>
+        <v>40.19239424763699</v>
       </c>
       <c r="D18">
-        <v>10.50701456581181</v>
+        <v>9.277960096808114</v>
       </c>
       <c r="E18">
         <v>359.9616153836598</v>
       </c>
       <c r="F18">
-        <v>14.36080357830845</v>
+        <v>9.767220300536493</v>
       </c>
       <c r="G18">
-        <v>93.9375134547082</v>
+        <v>39.93495524265382</v>
       </c>
       <c r="H18">
-        <v>9.885417579886115</v>
+        <v>8.981831802863045</v>
       </c>
       <c r="Q18">
-        <v>0.08769301955406524</v>
+        <v>0.08588406132709796</v>
       </c>
       <c r="R18">
-        <v>0.2394158495424094</v>
+        <v>0.1346222270196048</v>
       </c>
       <c r="S18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T18">
-        <v>0.0002609000000006745</v>
+        <v>0.0002806999999904747</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1174,37 +1174,37 @@
         <v>0</v>
       </c>
       <c r="B19">
-        <v>18.25992512091994</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>95.50561600895294</v>
+        <v>53.03970048367974</v>
       </c>
       <c r="D19">
-        <v>6.915207869474949</v>
+        <v>9.367041067263528</v>
       </c>
       <c r="E19">
         <v>359.9171202329936</v>
       </c>
       <c r="F19">
-        <v>17.61624602403233</v>
+        <v>9.764951997824136</v>
       </c>
       <c r="G19">
-        <v>94.98833232311461</v>
+        <v>52.64550150689539</v>
       </c>
       <c r="H19">
-        <v>6.604204779453613</v>
+        <v>9.134252183085689</v>
       </c>
       <c r="Q19">
-        <v>0.09893140776778583</v>
+        <v>0.09753049866876722</v>
       </c>
       <c r="R19">
-        <v>0.2048380305353012</v>
+        <v>0.13187936423441</v>
       </c>
       <c r="S19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T19">
-        <v>0.0002706999999873005</v>
+        <v>0.0002798000000012735</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1212,37 +1212,37 @@
         <v>0</v>
       </c>
       <c r="B20">
-        <v>34.26684087828163</v>
+        <v>10</v>
       </c>
       <c r="C20">
-        <v>90.98160727227172</v>
+        <v>117.0673635131265</v>
       </c>
       <c r="D20">
-        <v>13.78601470921552</v>
+        <v>9.065440484818115</v>
       </c>
       <c r="E20">
         <v>359.9761714668581</v>
       </c>
       <c r="F20">
-        <v>29.3014863362448</v>
+        <v>9.492137160232286</v>
       </c>
       <c r="G20">
-        <v>91.40148481238916</v>
+        <v>116.8099851075699</v>
       </c>
       <c r="H20">
-        <v>11.29743200938766</v>
+        <v>8.43239677911091</v>
       </c>
       <c r="Q20">
-        <v>0.1129848468173489</v>
+        <v>0.1020579035107856</v>
       </c>
       <c r="R20">
-        <v>0.7092459612607509</v>
+        <v>0.2716115022195</v>
       </c>
       <c r="S20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T20">
-        <v>0.0002794999999764514</v>
+        <v>0.0002931000000074846</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1250,37 +1250,37 @@
         <v>0</v>
       </c>
       <c r="B21">
-        <v>9.389012078725322</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>137.0249490014741</v>
+        <v>17.55604831490129</v>
       </c>
       <c r="D21">
-        <v>7.46937973166327</v>
+        <v>12.13499660009828</v>
       </c>
       <c r="E21">
         <v>359.9336990211954</v>
       </c>
       <c r="F21">
-        <v>9.198355089765823</v>
+        <v>9.623999539370475</v>
       </c>
       <c r="G21">
-        <v>136.831686127538</v>
+        <v>17.04897065698646</v>
       </c>
       <c r="H21">
-        <v>7.26163140979053</v>
+        <v>11.8821753362544</v>
       </c>
       <c r="Q21">
-        <v>0.09453223786239998</v>
+        <v>0.09496168317940976</v>
       </c>
       <c r="R21">
-        <v>0.124784132897089</v>
+        <v>0.1440040830025359</v>
       </c>
       <c r="S21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T21">
-        <v>0.0004142999999885433</v>
+        <v>0.0002765000000124473</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1288,37 +1288,37 @@
         <v>0</v>
       </c>
       <c r="B22">
-        <v>31.46588604847734</v>
+        <v>10</v>
       </c>
       <c r="C22">
-        <v>161.5884710236952</v>
+        <v>105.8635441939094</v>
       </c>
       <c r="D22">
-        <v>13.91530729474708</v>
+        <v>13.77256473491301</v>
       </c>
       <c r="E22">
         <v>359.7348320662148</v>
       </c>
       <c r="F22">
-        <v>30.58002346710635</v>
+        <v>9.344483646377247</v>
       </c>
       <c r="G22">
-        <v>159.0845397935176</v>
+        <v>105.0957533935102</v>
       </c>
       <c r="H22">
-        <v>12.96046025590313</v>
+        <v>12.79741125902827</v>
       </c>
       <c r="Q22">
-        <v>0.09457158139178277</v>
+        <v>0.09992745768288495</v>
       </c>
       <c r="R22">
-        <v>0.3473582805057116</v>
+        <v>0.3717496247108495</v>
       </c>
       <c r="S22" t="s">
         <v>22</v>
       </c>
       <c r="T22">
-        <v>0.0002673000000186221</v>
+        <v>0.000277699999998049</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1326,37 +1326,37 @@
         <v>0</v>
       </c>
       <c r="B23">
-        <v>7.192619636410728</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>52.03973876216703</v>
+        <v>8.770478545642913</v>
       </c>
       <c r="D23">
-        <v>12.2096634683123</v>
+        <v>6.469315917477802</v>
       </c>
       <c r="E23">
         <v>0.01558927485166555</v>
       </c>
       <c r="F23">
-        <v>6.937368391917865</v>
+        <v>9.864382062336936</v>
       </c>
       <c r="G23">
-        <v>51.5432706031072</v>
+        <v>8.332842712049956</v>
       </c>
       <c r="H23">
-        <v>11.66432296614216</v>
+        <v>6.234347036508614</v>
       </c>
       <c r="Q23">
-        <v>0.09772697797597561</v>
+        <v>0.09495157480019301</v>
       </c>
       <c r="R23">
-        <v>0.1871172442234447</v>
+        <v>0.128242489788515</v>
       </c>
       <c r="S23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T23">
-        <v>0.0002547999999933381</v>
+        <v>0.000499599999997713</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="B24">
-        <v>14.38072418114792</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>86.70259111740586</v>
+        <v>37.52289672459167</v>
       </c>
       <c r="D24">
-        <v>9.205380353143747</v>
+        <v>8.78017274116039</v>
       </c>
       <c r="E24">
         <v>0.02758497595955204</v>
       </c>
       <c r="F24">
-        <v>13.65195539800003</v>
+        <v>9.70917502724379</v>
       </c>
       <c r="G24">
-        <v>86.40684088570745</v>
+        <v>37.02559591422143</v>
       </c>
       <c r="H24">
-        <v>8.542277366079244</v>
+        <v>8.404967544054125</v>
       </c>
       <c r="Q24">
-        <v>0.09453665937419706</v>
+        <v>0.09291406463602613</v>
       </c>
       <c r="R24">
-        <v>0.2788370095318359</v>
+        <v>0.1746326839636617</v>
       </c>
       <c r="S24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T24">
-        <v>0.0003967999999758831</v>
+        <v>0.0002953999999988355</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1402,37 +1402,37 @@
         <v>0</v>
       </c>
       <c r="B25">
-        <v>28.27840477309651</v>
+        <v>10</v>
       </c>
       <c r="C25">
-        <v>170.4532686866665</v>
+        <v>93.11361909238606</v>
       </c>
       <c r="D25">
-        <v>12.65459759396907</v>
+        <v>14.36355124577777</v>
       </c>
       <c r="E25">
         <v>359.799903583094</v>
       </c>
       <c r="F25">
-        <v>27.82016373891841</v>
+        <v>9.42775858284001</v>
       </c>
       <c r="G25">
-        <v>168.6519848586008</v>
+        <v>92.53077898581115</v>
       </c>
       <c r="H25">
-        <v>11.85520795026207</v>
+        <v>13.47415734529328</v>
       </c>
       <c r="Q25">
-        <v>0.09227651713209548</v>
+        <v>0.0991766954549157</v>
       </c>
       <c r="R25">
-        <v>0.2799886594026901</v>
+        <v>0.3147691650407772</v>
       </c>
       <c r="S25" t="s">
         <v>22</v>
       </c>
       <c r="T25">
-        <v>0.0002824000000032356</v>
+        <v>0.0003196000000116328</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -1440,37 +1440,37 @@
         <v>0</v>
       </c>
       <c r="B26">
-        <v>48.20077865011633</v>
+        <v>10</v>
       </c>
       <c r="C26">
-        <v>125.9121689909237</v>
+        <v>172.8031146004653</v>
       </c>
       <c r="D26">
-        <v>14.99867292623879</v>
+        <v>11.39414459939491</v>
       </c>
       <c r="E26">
         <v>359.6012363482052</v>
       </c>
       <c r="F26">
-        <v>40.33407680585403</v>
+        <v>9.817640228062261</v>
       </c>
       <c r="G26">
-        <v>120.405017656663</v>
+        <v>172.4786484250583</v>
       </c>
       <c r="H26">
-        <v>12.12984434380271</v>
+        <v>11.17614444028567</v>
       </c>
       <c r="Q26">
-        <v>0.1535562342139053</v>
+        <v>0.1897564699299329</v>
       </c>
       <c r="R26">
-        <v>0.9875616742450466</v>
+        <v>0.1860274829262547</v>
       </c>
       <c r="S26" t="s">
         <v>23</v>
       </c>
       <c r="T26">
-        <v>0.0002574000000095111</v>
+        <v>0.0002800000000036107</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -1478,37 +1478,37 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>44.15558614822454</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>104.8098471610608</v>
+        <v>156.6223445928981</v>
       </c>
       <c r="D27">
-        <v>7.78838940701069</v>
+        <v>9.987323144070718</v>
       </c>
       <c r="E27">
         <v>359.9315180731002</v>
       </c>
       <c r="F27">
-        <v>37.92681396598197</v>
+        <v>9.768924679246453</v>
       </c>
       <c r="G27">
-        <v>110.4965577167964</v>
+        <v>156.6670837642601</v>
       </c>
       <c r="H27">
-        <v>6.408622874979795</v>
+        <v>9.685839035650705</v>
       </c>
       <c r="Q27">
-        <v>0.1134867156244972</v>
+        <v>0.09625050481764146</v>
       </c>
       <c r="R27">
-        <v>0.8372873604517335</v>
+        <v>0.1322182096151201</v>
       </c>
       <c r="S27" t="s">
         <v>23</v>
       </c>
       <c r="T27">
-        <v>0.0003956000000471249</v>
+        <v>0.0002888000000069724</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -1516,37 +1516,37 @@
         <v>0</v>
       </c>
       <c r="B28">
-        <v>18.85707286812369</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>93.49046627495413</v>
+        <v>55.42829147249475</v>
       </c>
       <c r="D28">
-        <v>12.68297661537973</v>
+        <v>9.232697751663608</v>
       </c>
       <c r="E28">
         <v>359.941202036502</v>
       </c>
       <c r="F28">
-        <v>18.06183459449321</v>
+        <v>9.898357451863701</v>
       </c>
       <c r="G28">
-        <v>93.57619770352214</v>
+        <v>55.51128024141185</v>
       </c>
       <c r="H28">
-        <v>11.98918760758742</v>
+        <v>9.050577582610638</v>
       </c>
       <c r="Q28">
-        <v>0.08417099832166641</v>
+        <v>0.08128687318291597</v>
       </c>
       <c r="R28">
-        <v>0.223885198798044</v>
+        <v>0.08302854442394175</v>
       </c>
       <c r="S28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T28">
-        <v>0.0002638999999931002</v>
+        <v>0.0003940000000000055</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -1554,37 +1554,37 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>24.15746347335031</v>
+        <v>10</v>
       </c>
       <c r="C29">
-        <v>146.6250732890195</v>
+        <v>76.62985389340125</v>
       </c>
       <c r="D29">
-        <v>12.3539729019968</v>
+        <v>12.77500488593463</v>
       </c>
       <c r="E29">
         <v>359.6143183754303</v>
       </c>
       <c r="F29">
-        <v>24.33271439781077</v>
+        <v>9.670888229399635</v>
       </c>
       <c r="G29">
-        <v>143.937001538877</v>
+        <v>75.95288785821198</v>
       </c>
       <c r="H29">
-        <v>12.42784634986683</v>
+        <v>12.53413743924261</v>
       </c>
       <c r="Q29">
-        <v>0.1119954848148102</v>
+        <v>0.111831468778164</v>
       </c>
       <c r="R29">
-        <v>0.190662405175167</v>
+        <v>0.2153329873935184</v>
       </c>
       <c r="S29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T29">
-        <v>0.0002574000000095111</v>
+        <v>0.0002862000000050102</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -1592,37 +1592,37 @@
         <v>0</v>
       </c>
       <c r="B30">
-        <v>37.80561840301036</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>101.0231284189754</v>
+        <v>131.2224736120414</v>
       </c>
       <c r="D30">
-        <v>6.249670920092409</v>
+        <v>9.734875227931694</v>
       </c>
       <c r="E30">
         <v>359.866100286639</v>
       </c>
       <c r="F30">
-        <v>33.30370833883759</v>
+        <v>9.729146544489819</v>
       </c>
       <c r="G30">
-        <v>96.34281391683811</v>
+        <v>130.9050966572272</v>
       </c>
       <c r="H30">
-        <v>5.296462533833657</v>
+        <v>9.414928778642647</v>
       </c>
       <c r="Q30">
-        <v>0.111541657578541</v>
+        <v>0.1012000413503907</v>
       </c>
       <c r="R30">
-        <v>0.7302536392899748</v>
+        <v>0.1687166050802715</v>
       </c>
       <c r="S30" t="s">
         <v>23</v>
       </c>
       <c r="T30">
-        <v>0.0002789000000120723</v>
+        <v>0.0002771000000052481</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -1630,37 +1630,37 @@
         <v>0</v>
       </c>
       <c r="B31">
-        <v>43.86919935065373</v>
+        <v>10</v>
       </c>
       <c r="C31">
-        <v>51.28307374097282</v>
+        <v>155.4767974026149</v>
       </c>
       <c r="D31">
-        <v>5.73256388083736</v>
+        <v>6.418871582731521</v>
       </c>
       <c r="E31">
         <v>0.1252446378913628</v>
       </c>
       <c r="F31">
-        <v>36.94062044468311</v>
+        <v>9.585479870712444</v>
       </c>
       <c r="G31">
-        <v>101.8486836608117</v>
+        <v>156.5903346359706</v>
       </c>
       <c r="H31">
-        <v>2.835847113161654</v>
+        <v>6.004844554993051</v>
       </c>
       <c r="Q31">
-        <v>0.1295103524164449</v>
+        <v>0.1071717191034983</v>
       </c>
       <c r="R31">
-        <v>2.821952870670478</v>
+        <v>0.2894900995403962</v>
       </c>
       <c r="S31" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T31">
-        <v>0.000264800000024934</v>
+        <v>0.0002881999999999607</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -1668,37 +1668,37 @@
         <v>0</v>
       </c>
       <c r="B32">
-        <v>33.98645912307507</v>
+        <v>10</v>
       </c>
       <c r="C32">
-        <v>68.53472813432097</v>
+        <v>115.9458364923003</v>
       </c>
       <c r="D32">
-        <v>11.63047905335669</v>
+        <v>7.568981875621398</v>
       </c>
       <c r="E32">
         <v>0.3792157994329175</v>
       </c>
       <c r="F32">
-        <v>29.05325132776965</v>
+        <v>9.375378050530198</v>
       </c>
       <c r="G32">
-        <v>77.15057847746678</v>
+        <v>116.7716439284169</v>
       </c>
       <c r="H32">
-        <v>8.170836935553906</v>
+        <v>6.729881689656721</v>
       </c>
       <c r="Q32">
-        <v>0.1149776573870377</v>
+        <v>0.1039031128933451</v>
       </c>
       <c r="R32">
-        <v>1.29577902650039</v>
+        <v>0.4967037370765738</v>
       </c>
       <c r="S32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="T32">
-        <v>0.000258900000005724</v>
+        <v>0.0002767999999946369</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -1706,37 +1706,37 @@
         <v>0</v>
       </c>
       <c r="B33">
-        <v>17.8724219747232</v>
+        <v>10</v>
       </c>
       <c r="C33">
-        <v>172.45900197342</v>
+        <v>51.48968789889281</v>
       </c>
       <c r="D33">
-        <v>12.70312932218878</v>
+        <v>14.497266798228</v>
       </c>
       <c r="E33">
         <v>0.124427164275475</v>
       </c>
       <c r="F33">
-        <v>16.69820654561095</v>
+        <v>9.546185932719839</v>
       </c>
       <c r="G33">
-        <v>173.6695700181745</v>
+        <v>51.03038850803891</v>
       </c>
       <c r="H33">
-        <v>11.71911312654016</v>
+        <v>13.56324231178805</v>
       </c>
       <c r="Q33">
-        <v>0.09838824213930034</v>
+        <v>0.09604266863191223</v>
       </c>
       <c r="R33">
-        <v>0.364526998880315</v>
+        <v>0.2792940192619874</v>
       </c>
       <c r="S33" t="s">
         <v>22</v>
       </c>
       <c r="T33">
-        <v>0.0002706999999873005</v>
+        <v>0.0002869000000060851</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -1744,37 +1744,37 @@
         <v>0</v>
       </c>
       <c r="B34">
-        <v>43.65001702818679</v>
+        <v>10</v>
       </c>
       <c r="C34">
-        <v>67.08800789555039</v>
+        <v>154.6000681127472</v>
       </c>
       <c r="D34">
-        <v>10.55128777998597</v>
+        <v>7.472533859703359</v>
       </c>
       <c r="E34">
         <v>0.1046683352968264</v>
       </c>
       <c r="F34">
-        <v>35.89235598075071</v>
+        <v>9.395386894139751</v>
       </c>
       <c r="G34">
-        <v>73.54490004393088</v>
+        <v>155.4876782421394</v>
       </c>
       <c r="H34">
-        <v>7.413499846450486</v>
+        <v>6.803475432128237</v>
       </c>
       <c r="Q34">
-        <v>0.1053061660409725</v>
+        <v>0.08946552512267612</v>
       </c>
       <c r="R34">
-        <v>1.227257154062423</v>
+        <v>0.3729653971101382</v>
       </c>
       <c r="S34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T34">
-        <v>0.0002636999999481304</v>
+        <v>0.0002735999999998739</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -1782,37 +1782,37 @@
         <v>0</v>
       </c>
       <c r="B35">
-        <v>16.18295573469785</v>
+        <v>10</v>
       </c>
       <c r="C35">
-        <v>80.99557578914319</v>
+        <v>44.73182293879139</v>
       </c>
       <c r="D35">
-        <v>9.109408029965408</v>
+        <v>8.399705052609546</v>
       </c>
       <c r="E35">
         <v>0.09565605153243364</v>
       </c>
       <c r="F35">
-        <v>15.48605005984919</v>
+        <v>9.841002624732468</v>
       </c>
       <c r="G35">
-        <v>81.53836480669277</v>
+        <v>44.70168882732322</v>
       </c>
       <c r="H35">
-        <v>8.417401571814951</v>
+        <v>8.029502077003571</v>
       </c>
       <c r="Q35">
-        <v>0.08827556573860509</v>
+        <v>0.08654444374799729</v>
       </c>
       <c r="R35">
-        <v>0.2991726876179419</v>
+        <v>0.1613502540833769</v>
       </c>
       <c r="S35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T35">
-        <v>0.000258900000005724</v>
+        <v>0.0002956000000011727</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -1820,37 +1820,37 @@
         <v>0</v>
       </c>
       <c r="B36">
-        <v>6.735275639663435</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>140.4180828944415</v>
+        <v>6.941102558653737</v>
       </c>
       <c r="D36">
-        <v>5.927037553341333</v>
+        <v>12.3612055262961</v>
       </c>
       <c r="E36">
         <v>359.9268494698117</v>
       </c>
       <c r="F36">
-        <v>6.558746058344624</v>
+        <v>9.644518844482104</v>
       </c>
       <c r="G36">
-        <v>140.3067747965705</v>
+        <v>6.594154882060658</v>
       </c>
       <c r="H36">
-        <v>5.691631973946103</v>
+        <v>12.11474970077299</v>
       </c>
       <c r="Q36">
-        <v>0.09237126513564616</v>
+        <v>0.09177714472960488</v>
       </c>
       <c r="R36">
-        <v>0.1640462778034948</v>
+        <v>0.1360528014180042</v>
       </c>
       <c r="S36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T36">
-        <v>0.0002548999999589796</v>
+        <v>0.0002870000000001482</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -1858,37 +1858,37 @@
         <v>0</v>
       </c>
       <c r="B37">
-        <v>25.61247267008407</v>
+        <v>10</v>
       </c>
       <c r="C37">
-        <v>55.50292925368409</v>
+        <v>82.4498906803363</v>
       </c>
       <c r="D37">
-        <v>7.314870450355623</v>
+        <v>6.70019528357894</v>
       </c>
       <c r="E37">
         <v>0.5669210130263596</v>
       </c>
       <c r="F37">
-        <v>23.1045355437999</v>
+        <v>9.495122852140707</v>
       </c>
       <c r="G37">
-        <v>75.20569676027797</v>
+        <v>83.63097202977724</v>
       </c>
       <c r="H37">
-        <v>4.295524500837171</v>
+        <v>5.818786748816356</v>
       </c>
       <c r="Q37">
-        <v>0.1254450532742678</v>
+        <v>0.1148230900119566</v>
       </c>
       <c r="R37">
-        <v>1.829417599295315</v>
+        <v>0.5842776742989799</v>
       </c>
       <c r="S37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="T37">
-        <v>0.0002602000000138105</v>
+        <v>0.0003069999999922857</v>
       </c>
     </row>
     <row r="38" spans="1:20">
@@ -1896,37 +1896,37 @@
         <v>0</v>
       </c>
       <c r="B38">
-        <v>37.78282362180765</v>
+        <v>10</v>
       </c>
       <c r="C38">
-        <v>108.2905582266384</v>
+        <v>131.1312944872306</v>
       </c>
       <c r="D38">
-        <v>14.52180667406014</v>
+        <v>10.21937054844256</v>
       </c>
       <c r="E38">
         <v>359.7970760202737</v>
       </c>
       <c r="F38">
-        <v>32.79137242027891</v>
+        <v>9.641235491981618</v>
       </c>
       <c r="G38">
-        <v>106.2563785863811</v>
+        <v>130.726562997603</v>
       </c>
       <c r="H38">
-        <v>12.39145363902584</v>
+        <v>9.788453805131885</v>
       </c>
       <c r="Q38">
-        <v>0.1183657796090556</v>
+        <v>0.1082101776726358</v>
       </c>
       <c r="R38">
-        <v>0.6885178473940656</v>
+        <v>0.2260600217298984</v>
       </c>
       <c r="S38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T38">
-        <v>0.0002587000000175976</v>
+        <v>0.0002828000000079101</v>
       </c>
     </row>
     <row r="39" spans="1:20">
@@ -1934,37 +1934,37 @@
         <v>0</v>
       </c>
       <c r="B39">
-        <v>47.50234712857881</v>
+        <v>10</v>
       </c>
       <c r="C39">
-        <v>83.53767137479336</v>
+        <v>170.0093885143152</v>
       </c>
       <c r="D39">
-        <v>6.927950289571577</v>
+        <v>8.569178091652891</v>
       </c>
       <c r="E39">
         <v>0.01633908370124642</v>
       </c>
       <c r="F39">
-        <v>39.58402624110822</v>
+        <v>9.823740486024539</v>
       </c>
       <c r="G39">
-        <v>99.85049564804463</v>
+        <v>170.2548455717726</v>
       </c>
       <c r="H39">
-        <v>5.075165983514592</v>
+        <v>8.360503481329124</v>
       </c>
       <c r="Q39">
-        <v>0.1023747521139378</v>
+        <v>0.0858909347134232</v>
       </c>
       <c r="R39">
-        <v>1.358317828401773</v>
+        <v>0.1004771952887931</v>
       </c>
       <c r="S39" t="s">
         <v>23</v>
       </c>
       <c r="T39">
-        <v>0.000277399999959016</v>
+        <v>0.0002807999999987487</v>
       </c>
     </row>
     <row r="40" spans="1:20">
@@ -1972,37 +1972,37 @@
         <v>0</v>
       </c>
       <c r="B40">
-        <v>22.31479037825347</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>154.7474123863114</v>
+        <v>69.25916151301388</v>
       </c>
       <c r="D40">
-        <v>14.4419963580742</v>
+        <v>13.31649415908743</v>
       </c>
       <c r="E40">
         <v>359.697388305565</v>
       </c>
       <c r="F40">
-        <v>22.70303753106404</v>
+        <v>9.682257579481856</v>
       </c>
       <c r="G40">
-        <v>153.4256327932851</v>
+        <v>68.76093114718469</v>
       </c>
       <c r="H40">
-        <v>14.76037396295434</v>
+        <v>13.02346994968372</v>
       </c>
       <c r="Q40">
-        <v>0.09637682020746026</v>
+        <v>0.09599245497896396</v>
       </c>
       <c r="R40">
-        <v>0.1928083148144532</v>
+        <v>0.1960772682410414</v>
       </c>
       <c r="S40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T40">
-        <v>0.0003078000000300563</v>
+        <v>0.0002846999999945865</v>
       </c>
     </row>
     <row r="41" spans="1:20">
@@ -2010,37 +2010,37 @@
         <v>0</v>
       </c>
       <c r="B41">
-        <v>29.61001202654096</v>
+        <v>10</v>
       </c>
       <c r="C41">
-        <v>143.6218238308689</v>
+        <v>98.44004810616384</v>
       </c>
       <c r="D41">
-        <v>13.20401879898381</v>
+        <v>12.57478825539126</v>
       </c>
       <c r="E41">
         <v>359.5785481301934</v>
       </c>
       <c r="F41">
-        <v>28.99653864009818</v>
+        <v>9.650840845070094</v>
       </c>
       <c r="G41">
-        <v>140.1078045612383</v>
+        <v>97.75790902355521</v>
       </c>
       <c r="H41">
-        <v>12.76478079365455</v>
+        <v>12.2242932869199</v>
       </c>
       <c r="Q41">
-        <v>0.1293397249284783</v>
+        <v>0.1295025343775375</v>
       </c>
       <c r="R41">
-        <v>0.3109078863813717</v>
+        <v>0.2502917185943196</v>
       </c>
       <c r="S41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T41">
-        <v>0.0004815000000348846</v>
+        <v>0.0002726000000023987</v>
       </c>
     </row>
     <row r="42" spans="1:20">
@@ -2048,37 +2048,37 @@
         <v>0</v>
       </c>
       <c r="B42">
-        <v>23.34591626361287</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>9.965887220134814</v>
+        <v>73.3836650544515</v>
       </c>
       <c r="D42">
-        <v>12.88534877486753</v>
+        <v>3.664392481342321</v>
       </c>
       <c r="E42">
         <v>0.1822643091633721</v>
       </c>
       <c r="F42">
-        <v>22.94033217662247</v>
+        <v>9.930836428881681</v>
       </c>
       <c r="G42">
-        <v>10.16246222759475</v>
+        <v>75.22967407794363</v>
       </c>
       <c r="H42">
-        <v>9.428926753108161</v>
+        <v>3.435222465440207</v>
       </c>
       <c r="Q42">
-        <v>0.1033156154944745</v>
+        <v>0.09760404835913537</v>
       </c>
       <c r="R42">
-        <v>0.7500460079952995</v>
+        <v>0.2595928211693121</v>
       </c>
       <c r="S42" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T42">
-        <v>0.0002627000000074986</v>
+        <v>0.0002764999999982365</v>
       </c>
     </row>
     <row r="43" spans="1:20">
@@ -2086,37 +2086,37 @@
         <v>0</v>
       </c>
       <c r="B43">
-        <v>16.29156306852231</v>
+        <v>10</v>
       </c>
       <c r="C43">
-        <v>8.297247721070116</v>
+        <v>45.16625227408922</v>
       </c>
       <c r="D43">
-        <v>11.76816241110558</v>
+        <v>3.553149848071341</v>
       </c>
       <c r="E43">
         <v>0.08121369692019792</v>
       </c>
       <c r="F43">
-        <v>16.05732481902797</v>
+        <v>9.955346957220874</v>
       </c>
       <c r="G43">
-        <v>7.980767865970875</v>
+        <v>45.55743542707167</v>
       </c>
       <c r="H43">
-        <v>10.70429252173004</v>
+        <v>3.403938438912613</v>
       </c>
       <c r="Q43">
-        <v>0.09878472597045829</v>
+        <v>0.09618625120399554</v>
       </c>
       <c r="R43">
-        <v>0.2781845150908495</v>
+        <v>0.1425104825227474</v>
       </c>
       <c r="S43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T43">
-        <v>0.000286599999981263</v>
+        <v>0.0003100999999929854</v>
       </c>
     </row>
     <row r="44" spans="1:20">
@@ -2124,37 +2124,37 @@
         <v>0</v>
       </c>
       <c r="B44">
-        <v>21.85430534813131</v>
+        <v>10</v>
       </c>
       <c r="C44">
-        <v>171.1285751537849</v>
+        <v>67.41722139252525</v>
       </c>
       <c r="D44">
-        <v>12.31993941811405</v>
+        <v>14.40857167691899</v>
       </c>
       <c r="E44">
         <v>359.8509857540967</v>
       </c>
       <c r="F44">
-        <v>21.74075896680148</v>
+        <v>9.584425487918597</v>
       </c>
       <c r="G44">
-        <v>170.4023178866478</v>
+        <v>66.75889180648623</v>
       </c>
       <c r="H44">
-        <v>12.11010623388902</v>
+        <v>13.86584561142428</v>
       </c>
       <c r="Q44">
-        <v>0.09055881418593492</v>
+        <v>0.09030493764645239</v>
       </c>
       <c r="R44">
-        <v>0.1066493332559833</v>
+        <v>0.2171414415248132</v>
       </c>
       <c r="S44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T44">
-        <v>0.0002760999999509295</v>
+        <v>0.0002722999999917874</v>
       </c>
     </row>
     <row r="45" spans="1:20">
@@ -2162,37 +2162,37 @@
         <v>0</v>
       </c>
       <c r="B45">
-        <v>10.17745548754005</v>
+        <v>10</v>
       </c>
       <c r="C45">
-        <v>109.6319770703066</v>
+        <v>20.70982195016021</v>
       </c>
       <c r="D45">
-        <v>6.333909641859883</v>
+        <v>10.30879847135378</v>
       </c>
       <c r="E45">
         <v>359.9227800223966</v>
       </c>
       <c r="F45">
-        <v>10.03423053928506</v>
+        <v>9.763674670817876</v>
       </c>
       <c r="G45">
-        <v>109.2453748397011</v>
+        <v>20.34075978348935</v>
       </c>
       <c r="H45">
-        <v>6.223428760084017</v>
+        <v>10.17523231475271</v>
       </c>
       <c r="Q45">
-        <v>0.09457610306735276</v>
+        <v>0.09477943837983435</v>
       </c>
       <c r="R45">
-        <v>0.09603156628120085</v>
+        <v>0.1003104041663672</v>
       </c>
       <c r="S45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T45">
-        <v>0.0002552999999920758</v>
+        <v>0.0002910000000042601</v>
       </c>
     </row>
     <row r="46" spans="1:20">
@@ -2200,37 +2200,37 @@
         <v>0</v>
       </c>
       <c r="B46">
-        <v>42.56789668995422</v>
+        <v>10</v>
       </c>
       <c r="C46">
-        <v>18.86329878657655</v>
+        <v>150.2715867598169</v>
       </c>
       <c r="D46">
-        <v>12.44640481679518</v>
+        <v>4.257553252438437</v>
       </c>
       <c r="E46">
         <v>0.2251844151767598</v>
       </c>
       <c r="F46">
-        <v>36.37068992667523</v>
+        <v>9.704347643868909</v>
       </c>
       <c r="G46">
-        <v>37.69598326786046</v>
+        <v>153.1276901821447</v>
       </c>
       <c r="H46">
-        <v>3.441554972609117</v>
+        <v>4.059905198158329</v>
       </c>
       <c r="Q46">
-        <v>0.1149482701234023</v>
+        <v>0.09880710945022064</v>
       </c>
       <c r="R46">
-        <v>2.578478382738883</v>
+        <v>0.2930313821855938</v>
       </c>
       <c r="S46" t="s">
         <v>23</v>
       </c>
       <c r="T46">
-        <v>0.0002574999999751526</v>
+        <v>0.0002717999999930498</v>
       </c>
     </row>
     <row r="47" spans="1:20">
@@ -2238,37 +2238,37 @@
         <v>0</v>
       </c>
       <c r="B47">
-        <v>49.50551810640201</v>
+        <v>10</v>
       </c>
       <c r="C47">
-        <v>98.91805083205058</v>
+        <v>178.022072425608</v>
       </c>
       <c r="D47">
-        <v>7.814473019550628</v>
+        <v>9.594536722136706</v>
       </c>
       <c r="E47">
         <v>359.9920875681452</v>
       </c>
       <c r="F47">
-        <v>40.38333636395685</v>
+        <v>9.923913792561251</v>
       </c>
       <c r="G47">
-        <v>107.2903780561254</v>
+        <v>178.0822420383675</v>
       </c>
       <c r="H47">
-        <v>5.909350191309225</v>
+        <v>9.499839728119785</v>
       </c>
       <c r="Q47">
-        <v>0.09861926689331324</v>
+        <v>0.08174486819797569</v>
       </c>
       <c r="R47">
-        <v>1.127881600951558</v>
+        <v>0.040838100551786</v>
       </c>
       <c r="S47" t="s">
         <v>23</v>
       </c>
       <c r="T47">
-        <v>0.0002669999999511674</v>
+        <v>0.0002805000000023483</v>
       </c>
     </row>
     <row r="48" spans="1:20">
@@ -2276,37 +2276,37 @@
         <v>0</v>
       </c>
       <c r="B48">
-        <v>40.27245578625878</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>114.2700670894914</v>
+        <v>141.0898231450351</v>
       </c>
       <c r="D48">
-        <v>7.490430915157489</v>
+        <v>10.61800447263276</v>
       </c>
       <c r="E48">
         <v>359.8245372480388</v>
       </c>
       <c r="F48">
-        <v>34.40357641017085</v>
+        <v>9.557174014215983</v>
       </c>
       <c r="G48">
-        <v>111.0719524978773</v>
+        <v>140.8655679963547</v>
       </c>
       <c r="H48">
-        <v>6.075241839382123</v>
+        <v>10.03815706099021</v>
       </c>
       <c r="Q48">
-        <v>0.1123042062982366</v>
+        <v>0.1047419506201493</v>
       </c>
       <c r="R48">
-        <v>0.8390331567742658</v>
+        <v>0.2598009708943299</v>
       </c>
       <c r="S48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T48">
-        <v>0.0002604000000019369</v>
+        <v>0.0002807000000046855</v>
       </c>
     </row>
     <row r="49" spans="1:20">
@@ -2314,37 +2314,37 @@
         <v>0</v>
       </c>
       <c r="B49">
-        <v>10.10698123521423</v>
+        <v>10</v>
       </c>
       <c r="C49">
-        <v>175.4069569985622</v>
+        <v>20.42792494085692</v>
       </c>
       <c r="D49">
-        <v>12.28734633501106</v>
+        <v>14.69379713323748</v>
       </c>
       <c r="E49">
         <v>0.2544028427298431</v>
       </c>
       <c r="F49">
-        <v>10.034761228964</v>
+        <v>9.904339842131112</v>
       </c>
       <c r="G49">
-        <v>175.7490335914887</v>
+        <v>20.2647061246379</v>
       </c>
       <c r="H49">
-        <v>12.16115302208591</v>
+        <v>13.6729225624321</v>
       </c>
       <c r="Q49">
-        <v>0.1276980748077416</v>
+        <v>0.08940784132491189</v>
       </c>
       <c r="R49">
-        <v>0.1097373475257031</v>
+        <v>0.2573159564962318</v>
       </c>
       <c r="S49" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T49">
-        <v>0.0002944999999954234</v>
+        <v>0.0002865000000014106</v>
       </c>
     </row>
     <row r="50" spans="1:20">
@@ -2352,37 +2352,37 @@
         <v>0</v>
       </c>
       <c r="B50">
-        <v>5.787062191901868</v>
+        <v>10</v>
       </c>
       <c r="C50">
-        <v>160.4831880924465</v>
+        <v>3.148248767607473</v>
       </c>
       <c r="D50">
-        <v>7.848611674739184</v>
+        <v>13.6988792061631</v>
       </c>
       <c r="E50">
         <v>0.2980893959785312</v>
       </c>
       <c r="F50">
-        <v>5.734326061876461</v>
+        <v>10.36865023938863</v>
       </c>
       <c r="G50">
-        <v>160.8237307978261</v>
+        <v>2.61747499210335</v>
       </c>
       <c r="H50">
-        <v>7.722975795249647</v>
+        <v>12.43483548495826</v>
       </c>
       <c r="Q50">
-        <v>0.1251017281391637</v>
+        <v>0.102616888931205</v>
       </c>
       <c r="R50">
-        <v>0.1382423601885536</v>
+        <v>0.3799171847628035</v>
       </c>
       <c r="S50" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T50">
-        <v>0.0002592999999819767</v>
+        <v>0.0002877999999952863</v>
       </c>
     </row>
     <row r="51" spans="1:20">
@@ -2390,37 +2390,37 @@
         <v>0</v>
       </c>
       <c r="B51">
-        <v>18.54340051351615</v>
+        <v>10</v>
       </c>
       <c r="C51">
-        <v>44.4711297531266</v>
+        <v>54.17360205406462</v>
       </c>
       <c r="D51">
-        <v>14.26335135059176</v>
+        <v>5.964741983541773</v>
       </c>
       <c r="E51">
         <v>0.312947723461975</v>
       </c>
       <c r="F51">
-        <v>17.21635191323868</v>
+        <v>9.851869549634168</v>
       </c>
       <c r="G51">
-        <v>45.28829095554048</v>
+        <v>55.25321492322136</v>
       </c>
       <c r="H51">
-        <v>11.95288516478407</v>
+        <v>5.409424993269806</v>
       </c>
       <c r="Q51">
-        <v>0.1082235377076886</v>
+        <v>0.1039237448224832</v>
       </c>
       <c r="R51">
-        <v>0.6229055926921271</v>
+        <v>0.3626654562875858</v>
       </c>
       <c r="S51" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T51">
-        <v>0.0002613999999994121</v>
+        <v>0.0003597999999982449</v>
       </c>
     </row>
     <row r="52" spans="1:20">
@@ -2428,37 +2428,37 @@
         <v>0</v>
       </c>
       <c r="B52">
-        <v>27.25707404921096</v>
+        <v>10</v>
       </c>
       <c r="C52">
-        <v>41.05495880088052</v>
+        <v>89.02829619684385</v>
       </c>
       <c r="D52">
-        <v>7.554739237572114</v>
+        <v>5.736997253392035</v>
       </c>
       <c r="E52">
         <v>0.4681056326050967</v>
       </c>
       <c r="F52">
-        <v>24.82777857950929</v>
+        <v>9.556326300685457</v>
       </c>
       <c r="G52">
-        <v>58.18144471734231</v>
+        <v>90.4626897262051</v>
       </c>
       <c r="H52">
-        <v>3.955216365852893</v>
+        <v>5.060094269077107</v>
       </c>
       <c r="Q52">
-        <v>0.1205885942795063</v>
+        <v>0.1118810086869384</v>
       </c>
       <c r="R52">
-        <v>1.884878048755252</v>
+        <v>0.5218045439489969</v>
       </c>
       <c r="S52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="T52">
-        <v>0.0002579999999738902</v>
+        <v>0.0002808000000129596</v>
       </c>
     </row>
     <row r="53" spans="1:20">
@@ -2466,37 +2466,37 @@
         <v>0</v>
       </c>
       <c r="B53">
-        <v>35.40791369765985</v>
+        <v>10</v>
       </c>
       <c r="C53">
-        <v>8.048192796530287</v>
+        <v>121.6316547906394</v>
       </c>
       <c r="D53">
-        <v>8.433036725425923</v>
+        <v>3.536546186435352</v>
       </c>
       <c r="E53">
         <v>0.08715095200459153</v>
       </c>
       <c r="F53">
-        <v>33.43878340847301</v>
+        <v>9.926278215259458</v>
       </c>
       <c r="G53">
-        <v>8.753008750754196</v>
+        <v>122.8234028923864</v>
       </c>
       <c r="H53">
-        <v>4.154389571629382</v>
+        <v>3.461520656222142</v>
       </c>
       <c r="Q53">
-        <v>0.1028021976209557</v>
+        <v>0.09100606846580861</v>
       </c>
       <c r="R53">
-        <v>1.400514272368734</v>
+        <v>0.1169042808155516</v>
       </c>
       <c r="S53" t="s">
         <v>23</v>
       </c>
       <c r="T53">
-        <v>0.0002749000000221713</v>
+        <v>0.000277699999998049</v>
       </c>
     </row>
     <row r="54" spans="1:20">
@@ -2504,37 +2504,37 @@
         <v>0</v>
       </c>
       <c r="B54">
-        <v>42.03996533194064</v>
+        <v>10</v>
       </c>
       <c r="C54">
-        <v>4.70123668257612</v>
+        <v>148.1598613277625</v>
       </c>
       <c r="D54">
-        <v>7.107706399312939</v>
+        <v>3.313415778838408</v>
       </c>
       <c r="E54">
         <v>359.8441572478157</v>
       </c>
       <c r="F54">
-        <v>35.01312059594935</v>
+        <v>9.97931361545441</v>
       </c>
       <c r="G54">
-        <v>2.340581700382379</v>
+        <v>146.4551122779693</v>
       </c>
       <c r="H54">
-        <v>8.337155723951916</v>
+        <v>3.289485493255763</v>
       </c>
       <c r="Q54">
-        <v>0.09830508108259418</v>
+        <v>0.08386012082956999</v>
       </c>
       <c r="R54">
-        <v>0.8089903481434476</v>
+        <v>0.1030827462618181</v>
       </c>
       <c r="S54" t="s">
         <v>23</v>
       </c>
       <c r="T54">
-        <v>0.0002775000000383443</v>
+        <v>0.0003262999999975591</v>
       </c>
     </row>
     <row r="55" spans="1:20">
@@ -2542,37 +2542,37 @@
         <v>0</v>
       </c>
       <c r="B55">
-        <v>43.09980832445602</v>
+        <v>10</v>
       </c>
       <c r="C55">
-        <v>101.0097972477061</v>
+        <v>152.3992332978241</v>
       </c>
       <c r="D55">
-        <v>9.548754024057528</v>
+        <v>9.733986483180409</v>
       </c>
       <c r="E55">
         <v>359.9382405399448</v>
       </c>
       <c r="F55">
-        <v>36.37185156139928</v>
+        <v>9.610450178957667</v>
       </c>
       <c r="G55">
-        <v>104.0286695320765</v>
+        <v>152.4998454191764</v>
       </c>
       <c r="H55">
-        <v>7.659430240725286</v>
+        <v>9.23363086420504</v>
       </c>
       <c r="Q55">
-        <v>0.1126917496283244</v>
+        <v>0.09750596450942783</v>
       </c>
       <c r="R55">
-        <v>0.845733218560194</v>
+        <v>0.2113875128308761</v>
       </c>
       <c r="S55" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T55">
-        <v>0.0002547999999933381</v>
+        <v>0.000316299999994385</v>
       </c>
     </row>
     <row r="56" spans="1:20">
@@ -2580,37 +2580,37 @@
         <v>0</v>
       </c>
       <c r="B56">
-        <v>23.90823352133483</v>
+        <v>10</v>
       </c>
       <c r="C56">
-        <v>65.38310945371541</v>
+        <v>75.6329340853393</v>
       </c>
       <c r="D56">
-        <v>6.848766877614517</v>
+        <v>7.358873963581027</v>
       </c>
       <c r="E56">
         <v>0.5556632233838706</v>
       </c>
       <c r="F56">
-        <v>22.02954773000237</v>
+        <v>9.619239617687123</v>
       </c>
       <c r="G56">
-        <v>81.58275010537051</v>
+        <v>76.49468951366103</v>
       </c>
       <c r="H56">
-        <v>4.687769407182324</v>
+        <v>6.556999267456859</v>
       </c>
       <c r="Q56">
-        <v>0.1156050718473378</v>
+        <v>0.1067637375576564</v>
       </c>
       <c r="R56">
-        <v>1.463699082772991</v>
+        <v>0.4963373493546893</v>
       </c>
       <c r="S56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="T56">
-        <v>0.0002761999999734144</v>
+        <v>0.0002848999999969237</v>
       </c>
     </row>
     <row r="57" spans="1:20">
@@ -2618,37 +2618,37 @@
         <v>0</v>
       </c>
       <c r="B57">
-        <v>9.18987290023361</v>
+        <v>10</v>
       </c>
       <c r="C57">
-        <v>174.8980655981618</v>
+        <v>16.75949160093444</v>
       </c>
       <c r="D57">
-        <v>9.838599804636461</v>
+        <v>14.65987103987745</v>
       </c>
       <c r="E57">
         <v>0.4871193343902016</v>
       </c>
       <c r="F57">
-        <v>8.91709083114478</v>
+        <v>10.1538480808382</v>
       </c>
       <c r="G57">
-        <v>175.8462606374136</v>
+        <v>16.679587170193</v>
       </c>
       <c r="H57">
-        <v>9.433797697001276</v>
+        <v>13.15995212011237</v>
       </c>
       <c r="Q57">
-        <v>0.2359240525529175</v>
+        <v>0.1083227693786311</v>
       </c>
       <c r="R57">
-        <v>0.2978169085328698</v>
+        <v>0.4052053045198475</v>
       </c>
       <c r="S57" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="T57">
-        <v>0.0002696999999898253</v>
+        <v>0.0002837000000113221</v>
       </c>
     </row>
     <row r="58" spans="1:20">
@@ -2656,37 +2656,37 @@
         <v>0</v>
       </c>
       <c r="B58">
-        <v>49.28863327441595</v>
+        <v>10</v>
       </c>
       <c r="C58">
-        <v>60.0142078826376</v>
+        <v>177.1545330976638</v>
       </c>
       <c r="D58">
-        <v>11.73701624669138</v>
+        <v>7.00094719217584</v>
       </c>
       <c r="E58">
         <v>0.3112929526507688</v>
       </c>
       <c r="F58">
-        <v>37.35431611242347</v>
+        <v>9.203337400593124</v>
       </c>
       <c r="G58">
-        <v>84.12511003654545</v>
+        <v>179.6973744038031</v>
       </c>
       <c r="H58">
-        <v>5.997499657370494</v>
+        <v>6.219235988017077</v>
       </c>
       <c r="Q58">
-        <v>0.1270288587187828</v>
+        <v>0.2462040339506414</v>
       </c>
       <c r="R58">
-        <v>2.306672466442471</v>
+        <v>0.5533161716638249</v>
       </c>
       <c r="S58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="T58">
-        <v>0.0002561999999670661</v>
+        <v>0.0003332000000000335</v>
       </c>
     </row>
     <row r="59" spans="1:20">
@@ -2694,37 +2694,37 @@
         <v>0</v>
       </c>
       <c r="B59">
-        <v>8.930733930597878</v>
+        <v>10</v>
       </c>
       <c r="C59">
-        <v>41.48587791931104</v>
+        <v>15.72293572239151</v>
       </c>
       <c r="D59">
-        <v>9.110610706389128</v>
+        <v>5.765725194620736</v>
       </c>
       <c r="E59">
         <v>0.03931564720407376</v>
       </c>
       <c r="F59">
-        <v>8.733837125214881</v>
+        <v>9.900086454104233</v>
       </c>
       <c r="G59">
-        <v>41.10421631334562</v>
+        <v>15.35516204346322</v>
       </c>
       <c r="H59">
-        <v>8.802424102490768</v>
+        <v>5.538426340889788</v>
       </c>
       <c r="Q59">
-        <v>0.0930105725415878</v>
+        <v>0.09166902749125605</v>
       </c>
       <c r="R59">
-        <v>0.140683664696486</v>
+        <v>0.1342315672788211</v>
       </c>
       <c r="S59" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T59">
-        <v>0.0003059999999663887</v>
+        <v>0.0002861999999907994</v>
       </c>
     </row>
     <row r="60" spans="1:20">
@@ -2732,37 +2732,37 @@
         <v>0</v>
       </c>
       <c r="B60">
-        <v>21.42975123602123</v>
+        <v>10</v>
       </c>
       <c r="C60">
-        <v>81.21706486080083</v>
+        <v>65.7190049440849</v>
       </c>
       <c r="D60">
-        <v>9.960603487677895</v>
+        <v>8.414470990720055</v>
       </c>
       <c r="E60">
         <v>0.228055843852356</v>
       </c>
       <c r="F60">
-        <v>19.85673657434371</v>
+        <v>9.726386058227884</v>
       </c>
       <c r="G60">
-        <v>83.32358051399193</v>
+        <v>65.78612756052136</v>
       </c>
       <c r="H60">
-        <v>8.613098467031939</v>
+        <v>7.88992192588973</v>
       </c>
       <c r="Q60">
-        <v>0.09821336513599468</v>
+        <v>0.09413850952791161</v>
       </c>
       <c r="R60">
-        <v>0.57022438079872</v>
+        <v>0.260141659182559</v>
       </c>
       <c r="S60" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T60">
-        <v>0.0002613000000337706</v>
+        <v>0.0002734000000117476</v>
       </c>
     </row>
     <row r="61" spans="1:20">
@@ -2770,37 +2770,37 @@
         <v>0</v>
       </c>
       <c r="B61">
-        <v>46.58158020084914</v>
+        <v>10</v>
       </c>
       <c r="C61">
-        <v>28.41670449626255</v>
+        <v>166.3263208033966</v>
       </c>
       <c r="D61">
-        <v>13.66915076815797</v>
+        <v>4.894446966417504</v>
       </c>
       <c r="E61">
         <v>0.5007850564184159</v>
       </c>
       <c r="F61">
-        <v>36.8225027163035</v>
+        <v>9.443674210719735</v>
       </c>
       <c r="G61">
-        <v>72.90382246274079</v>
+        <v>171.1168408531994</v>
       </c>
       <c r="H61">
-        <v>3.121295278501028</v>
+        <v>4.563479528882469</v>
       </c>
       <c r="Q61">
-        <v>0.142846611499302</v>
+        <v>0.1491691368215728</v>
       </c>
       <c r="R61">
-        <v>3.515684453280869</v>
+        <v>0.5067327502620711</v>
       </c>
       <c r="S61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T61">
-        <v>0.0002711999999860382</v>
+        <v>0.0002776000000039858</v>
       </c>
     </row>
     <row r="62" spans="1:20">
@@ -2808,37 +2808,37 @@
         <v>0</v>
       </c>
       <c r="B62">
-        <v>18.53929985209784</v>
+        <v>10</v>
       </c>
       <c r="C62">
-        <v>33.65024694153804</v>
+        <v>54.15719940839138</v>
       </c>
       <c r="D62">
-        <v>8.231826769682193</v>
+        <v>5.243349796102536</v>
       </c>
       <c r="E62">
         <v>0.2765312979639231</v>
       </c>
       <c r="F62">
-        <v>17.87915543903366</v>
+        <v>9.869249970133238</v>
       </c>
       <c r="G62">
-        <v>36.02492357586826</v>
+        <v>55.21749644154405</v>
       </c>
       <c r="H62">
-        <v>6.544821269687163</v>
+        <v>4.789209247363464</v>
       </c>
       <c r="Q62">
-        <v>0.1100917654107014</v>
+        <v>0.1069472001242456</v>
       </c>
       <c r="R62">
-        <v>0.7001885232431684</v>
+        <v>0.3339636080042762</v>
       </c>
       <c r="S62" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T62">
-        <v>0.0002676999999948748</v>
+        <v>0.0002818999999902871</v>
       </c>
     </row>
     <row r="63" spans="1:20">
@@ -2846,37 +2846,37 @@
         <v>0</v>
       </c>
       <c r="B63">
-        <v>42.10112641609768</v>
+        <v>10</v>
       </c>
       <c r="C63">
-        <v>32.64295184949596</v>
+        <v>148.4045056643907</v>
       </c>
       <c r="D63">
-        <v>13.77326768207053</v>
+        <v>5.176196789966397</v>
       </c>
       <c r="E63">
         <v>0.129448665467937</v>
       </c>
       <c r="F63">
-        <v>34.68838950259541</v>
+        <v>9.774823629275069</v>
       </c>
       <c r="G63">
-        <v>36.94011991768241</v>
+        <v>149.5108333433987</v>
       </c>
       <c r="H63">
-        <v>8.506776051645877</v>
+        <v>4.981005870490598</v>
       </c>
       <c r="Q63">
-        <v>0.1142530159715654</v>
+        <v>0.0929141719294633</v>
       </c>
       <c r="R63">
-        <v>1.389167353971834</v>
+        <v>0.1918230816400581</v>
       </c>
       <c r="S63" t="s">
         <v>23</v>
       </c>
       <c r="T63">
-        <v>0.0002633999999943626</v>
+        <v>0.0006177000000064936</v>
       </c>
     </row>
     <row r="64" spans="1:20">
@@ -2884,37 +2884,37 @@
         <v>0</v>
       </c>
       <c r="B64">
-        <v>6.518961969044375</v>
+        <v>10</v>
       </c>
       <c r="C64">
-        <v>88.03935143380524</v>
+        <v>6.075847876177498</v>
       </c>
       <c r="D64">
-        <v>13.46085097280883</v>
+        <v>8.869290095587015</v>
       </c>
       <c r="E64">
         <v>0.003697627891110895</v>
       </c>
       <c r="F64">
-        <v>5.94415870172195</v>
+        <v>9.74243447834375</v>
       </c>
       <c r="G64">
-        <v>87.09531358234993</v>
+        <v>5.672578170074011</v>
       </c>
       <c r="H64">
-        <v>11.99134497302935</v>
+        <v>8.740713573247127</v>
       </c>
       <c r="Q64">
-        <v>0.09691736757968432</v>
+        <v>0.08717880934316528</v>
       </c>
       <c r="R64">
-        <v>0.4444042957740072</v>
+        <v>0.09017579228904485</v>
       </c>
       <c r="S64" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T64">
-        <v>0.0003313999999932093</v>
+        <v>0.0003071999999946229</v>
       </c>
     </row>
     <row r="65" spans="1:20">
@@ -2922,37 +2922,37 @@
         <v>0</v>
       </c>
       <c r="B65">
-        <v>29.92734601252639</v>
+        <v>10</v>
       </c>
       <c r="C65">
-        <v>71.32462086696601</v>
+        <v>99.70938405010556</v>
       </c>
       <c r="D65">
-        <v>5.481267725800767</v>
+        <v>7.7549747244644</v>
       </c>
       <c r="E65">
         <v>0.6416935960554256</v>
       </c>
       <c r="F65">
-        <v>26.41182647981373</v>
+        <v>9.205213601950719</v>
       </c>
       <c r="G65">
-        <v>132.6191213365242</v>
+        <v>100.9499093827853</v>
       </c>
       <c r="H65">
-        <v>3.976641963843392</v>
+        <v>6.528835684084098</v>
       </c>
       <c r="Q65">
-        <v>0.1537539140851509</v>
+        <v>0.1279484114324825</v>
       </c>
       <c r="R65">
-        <v>2.574824798712059</v>
+        <v>0.7191759277166271</v>
       </c>
       <c r="S65" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T65">
-        <v>0.0002676999999948748</v>
+        <v>0.0003944999999987431</v>
       </c>
     </row>
     <row r="66" spans="1:20">
@@ -2960,37 +2960,37 @@
         <v>0</v>
       </c>
       <c r="B66">
-        <v>22.05943364451965</v>
+        <v>10</v>
       </c>
       <c r="C66">
-        <v>102.0776700923305</v>
+        <v>68.23773457807862</v>
       </c>
       <c r="D66">
-        <v>10.95592512657122</v>
+        <v>9.805178006155369</v>
       </c>
       <c r="E66">
         <v>359.6699031182305</v>
       </c>
       <c r="F66">
-        <v>21.06998184570595</v>
+        <v>9.710749321683819</v>
       </c>
       <c r="G66">
-        <v>99.27818146650233</v>
+        <v>67.28200931738539</v>
       </c>
       <c r="H66">
-        <v>10.66372345776996</v>
+        <v>9.758968260436703</v>
       </c>
       <c r="Q66">
-        <v>0.1226155114604221</v>
+        <v>0.1170582236321854</v>
       </c>
       <c r="R66">
-        <v>0.2939445793365204</v>
+        <v>0.1664077735657871</v>
       </c>
       <c r="S66" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T66">
-        <v>0.0002594000000044616</v>
+        <v>0.0002870000000001482</v>
       </c>
     </row>
     <row r="67" spans="1:20">
@@ -2998,37 +2998,37 @@
         <v>0</v>
       </c>
       <c r="B67">
-        <v>14.83902725662427</v>
+        <v>10</v>
       </c>
       <c r="C67">
-        <v>5.6524895104645</v>
+        <v>39.35610902649709</v>
       </c>
       <c r="D67">
-        <v>7.871252773397034</v>
+        <v>3.376832634030967</v>
       </c>
       <c r="E67">
         <v>0.2500994469398075</v>
       </c>
       <c r="F67">
-        <v>15.32411776722086</v>
+        <v>10.02844660865423</v>
       </c>
       <c r="G67">
-        <v>4.922282744244161</v>
+        <v>41.20980201021448</v>
       </c>
       <c r="H67">
-        <v>6.053579538211894</v>
+        <v>2.955564994091688</v>
       </c>
       <c r="Q67">
-        <v>0.09357748702044767</v>
+        <v>0.09186961813420161</v>
       </c>
       <c r="R67">
-        <v>0.7125774988657659</v>
+        <v>0.4254890393463316</v>
       </c>
       <c r="S67" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="T67">
-        <v>0.0002774000000158594</v>
+        <v>0.0002774000000016486</v>
       </c>
     </row>
     <row r="68" spans="1:20">
@@ -3036,37 +3036,37 @@
         <v>0</v>
       </c>
       <c r="B68">
-        <v>11.94294101590741</v>
+        <v>10</v>
       </c>
       <c r="C68">
-        <v>24.06592092601187</v>
+        <v>27.77176406362965</v>
       </c>
       <c r="D68">
-        <v>8.626854661768876</v>
+        <v>4.604394728400791</v>
       </c>
       <c r="E68">
         <v>359.5753156907807</v>
       </c>
       <c r="F68">
-        <v>11.48764942769984</v>
+        <v>9.712885494045347</v>
       </c>
       <c r="G68">
-        <v>23.23289573663411</v>
+        <v>26.50423929036998</v>
       </c>
       <c r="H68">
-        <v>9.27653038020585</v>
+        <v>5.179977507626742</v>
       </c>
       <c r="Q68">
-        <v>0.1144068428437379</v>
+        <v>0.1146144170221632</v>
       </c>
       <c r="R68">
-        <v>0.3788050810211986</v>
+        <v>0.4982297698716838</v>
       </c>
       <c r="S68" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T68">
-        <v>0.0005152999999609165</v>
+        <v>0.0002807999999987487</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -3074,37 +3074,37 @@
         <v>0</v>
       </c>
       <c r="B69">
-        <v>29.56331434707404</v>
+        <v>10</v>
       </c>
       <c r="C69">
-        <v>154.5941899064446</v>
+        <v>98.25325738829615</v>
       </c>
       <c r="D69">
-        <v>11.85892586566579</v>
+        <v>13.30627932709631</v>
       </c>
       <c r="E69">
         <v>359.6614433543339</v>
       </c>
       <c r="F69">
-        <v>28.8142690956802</v>
+        <v>9.551507042803387</v>
       </c>
       <c r="G69">
-        <v>150.9028066682668</v>
+        <v>97.63549015075917</v>
       </c>
       <c r="H69">
-        <v>11.09537151589664</v>
+        <v>12.73915365827763</v>
       </c>
       <c r="Q69">
-        <v>0.1142470424414596</v>
+        <v>0.1178906333948744</v>
       </c>
       <c r="R69">
-        <v>0.380118220451247</v>
+        <v>0.2813844313766021</v>
       </c>
       <c r="S69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T69">
-        <v>0.0002584999999726278</v>
+        <v>0.0002728999999987991</v>
       </c>
     </row>
     <row r="70" spans="1:20">
@@ -3112,37 +3112,37 @@
         <v>0</v>
       </c>
       <c r="B70">
-        <v>16.67171614767995</v>
+        <v>10</v>
       </c>
       <c r="C70">
-        <v>7.804989209142046</v>
+        <v>46.68686459071981</v>
       </c>
       <c r="D70">
-        <v>10.82030342126604</v>
+        <v>3.520332613942803</v>
       </c>
       <c r="E70">
         <v>0.2833429093115037</v>
       </c>
       <c r="F70">
-        <v>16.87805506212582</v>
+        <v>9.923456173202824</v>
       </c>
       <c r="G70">
-        <v>7.357112710762008</v>
+        <v>48.80312448534312</v>
       </c>
       <c r="H70">
-        <v>8.042780875080252</v>
+        <v>3.042272640608009</v>
       </c>
       <c r="Q70">
-        <v>0.1032859578792382</v>
+        <v>0.1015447098621275</v>
       </c>
       <c r="R70">
-        <v>0.7443988813592446</v>
+        <v>0.4759986800647178</v>
       </c>
       <c r="S70" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="T70">
-        <v>0.0002781000000027234</v>
+        <v>0.0002843999999981861</v>
       </c>
     </row>
     <row r="71" spans="1:20">
@@ -3150,37 +3150,37 @@
         <v>0</v>
       </c>
       <c r="B71">
-        <v>18.33121227525951</v>
+        <v>10</v>
       </c>
       <c r="C71">
-        <v>145.6321888211988</v>
+        <v>53.32484910103803</v>
       </c>
       <c r="D71">
-        <v>8.502525252234115</v>
+        <v>12.70881258807992</v>
       </c>
       <c r="E71">
         <v>359.7253478704356</v>
       </c>
       <c r="F71">
-        <v>18.34805098774676</v>
+        <v>9.626989496494273</v>
       </c>
       <c r="G71">
-        <v>143.3638875182362</v>
+        <v>52.68979649938017</v>
       </c>
       <c r="H71">
-        <v>8.488413447750471</v>
+        <v>12.44417638001991</v>
       </c>
       <c r="Q71">
-        <v>0.1069873897714001</v>
+        <v>0.1082144805779752</v>
       </c>
       <c r="R71">
-        <v>0.1310508321552912</v>
+        <v>0.1987653834078942</v>
       </c>
       <c r="S71" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T71">
-        <v>0.0002575999999976375</v>
+        <v>0.0002848000000028605</v>
       </c>
     </row>
     <row r="72" spans="1:20">
@@ -3188,37 +3188,37 @@
         <v>0</v>
       </c>
       <c r="B72">
-        <v>46.73662423785314</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>157.0367329936588</v>
+        <v>166.9464969514126</v>
       </c>
       <c r="D72">
-        <v>10.84631272595553</v>
+        <v>13.46911553291059</v>
       </c>
       <c r="E72">
         <v>359.7447007775094</v>
       </c>
       <c r="F72">
-        <v>39.89025346373063</v>
+        <v>9.855766952253452</v>
       </c>
       <c r="G72">
-        <v>153.0208598987312</v>
+        <v>166.7557177782114</v>
       </c>
       <c r="H72">
-        <v>8.05443323407868</v>
+        <v>13.26547759374055</v>
       </c>
       <c r="Q72">
-        <v>0.1215927353585693</v>
+        <v>0.1188872108027842</v>
       </c>
       <c r="R72">
-        <v>1.051877772200751</v>
+        <v>0.1304303258209144</v>
       </c>
       <c r="S72" t="s">
         <v>23</v>
       </c>
       <c r="T72">
-        <v>0.0002701000000229214</v>
+        <v>0.0002963999999963107</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -3226,37 +3226,37 @@
         <v>0</v>
       </c>
       <c r="B73">
-        <v>13.35088736683427</v>
+        <v>10</v>
       </c>
       <c r="C73">
-        <v>69.5878745475726</v>
+        <v>33.40354946733707</v>
       </c>
       <c r="D73">
-        <v>13.3189619863717</v>
+        <v>7.63919163650484</v>
       </c>
       <c r="E73">
         <v>0.1291809449189355</v>
       </c>
       <c r="F73">
-        <v>12.54888223287964</v>
+        <v>9.858934755752543</v>
       </c>
       <c r="G73">
-        <v>69.4283440624402</v>
+        <v>33.44596923419068</v>
       </c>
       <c r="H73">
-        <v>12.12971987726911</v>
+        <v>7.160669186920813</v>
       </c>
       <c r="Q73">
-        <v>0.08803130178826887</v>
+        <v>0.0857605024203737</v>
       </c>
       <c r="R73">
-        <v>0.3596258255364005</v>
+        <v>0.2134677450974855</v>
       </c>
       <c r="S73" t="s">
         <v>22</v>
       </c>
       <c r="T73">
-        <v>0.0002713000000085231</v>
+        <v>0.0003468999999967082</v>
       </c>
     </row>
     <row r="74" spans="1:20">
@@ -3264,37 +3264,37 @@
         <v>0</v>
       </c>
       <c r="B74">
-        <v>9.803219101488983</v>
+        <v>10</v>
       </c>
       <c r="C74">
-        <v>123.1816739901637</v>
+        <v>19.21287640595593</v>
       </c>
       <c r="D74">
-        <v>10.34962617391087</v>
+        <v>11.21211159934425</v>
       </c>
       <c r="E74">
         <v>359.9044363502803</v>
       </c>
       <c r="F74">
-        <v>9.31804550480668</v>
+        <v>9.691008814529754</v>
       </c>
       <c r="G74">
-        <v>122.8231912695488</v>
+        <v>18.79737956139844</v>
       </c>
       <c r="H74">
-        <v>9.696504736514971</v>
+        <v>11.0794131878268</v>
       </c>
       <c r="Q74">
-        <v>0.1094990784462124</v>
+        <v>0.1031865250280324</v>
       </c>
       <c r="R74">
-        <v>0.2731029016122578</v>
+        <v>0.1153650491480162</v>
       </c>
       <c r="S74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T74">
-        <v>0.0002658999999880507</v>
+        <v>0.0002848999999969237</v>
       </c>
     </row>
     <row r="75" spans="1:20">
@@ -3302,37 +3302,37 @@
         <v>0</v>
       </c>
       <c r="B75">
-        <v>33.92104621037356</v>
+        <v>10</v>
       </c>
       <c r="C75">
-        <v>96.95176757441044</v>
+        <v>115.6841848414942</v>
       </c>
       <c r="D75">
-        <v>10.1189798245863</v>
+        <v>9.463451171627362</v>
       </c>
       <c r="E75">
         <v>359.826956084607</v>
       </c>
       <c r="F75">
-        <v>30.96250748603974</v>
+        <v>9.792187363474078</v>
       </c>
       <c r="G75">
-        <v>93.66997723104187</v>
+        <v>115.200395476826</v>
       </c>
       <c r="H75">
-        <v>9.219813008958944</v>
+        <v>9.266710727608359</v>
       </c>
       <c r="Q75">
-        <v>0.09427138706875714</v>
+        <v>0.08763398972607182</v>
       </c>
       <c r="R75">
-        <v>0.4928182893264109</v>
+        <v>0.1419649092244809</v>
       </c>
       <c r="S75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T75">
-        <v>0.0003448999999591251</v>
+        <v>0.0002771999999993113</v>
       </c>
     </row>
     <row r="76" spans="1:20">
@@ -3340,37 +3340,37 @@
         <v>0</v>
       </c>
       <c r="B76">
-        <v>14.09910320436086</v>
+        <v>10</v>
       </c>
       <c r="C76">
-        <v>141.218568739901</v>
+        <v>36.39641281744344</v>
       </c>
       <c r="D76">
-        <v>13.60537239237031</v>
+        <v>12.41457124932673</v>
       </c>
       <c r="E76">
         <v>359.8174963518577</v>
       </c>
       <c r="F76">
-        <v>13.71604564823214</v>
+        <v>9.764712437509694</v>
       </c>
       <c r="G76">
-        <v>140.9443853062177</v>
+        <v>36.10414953638104</v>
       </c>
       <c r="H76">
-        <v>13.19512321758625</v>
+        <v>12.2792265725467</v>
       </c>
       <c r="Q76">
-        <v>0.09168599654458383</v>
+        <v>0.08729566370534797</v>
       </c>
       <c r="R76">
-        <v>0.1731457213575014</v>
+        <v>0.1194022934196873</v>
       </c>
       <c r="S76" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T76">
-        <v>0.0002554000000145606</v>
+        <v>0.0002831000000043105</v>
       </c>
     </row>
     <row r="77" spans="1:20">
@@ -3378,37 +3378,37 @@
         <v>0</v>
       </c>
       <c r="B77">
-        <v>30.60230990536605</v>
+        <v>10</v>
       </c>
       <c r="C77">
-        <v>11.87356096609964</v>
+        <v>102.4092396214642</v>
       </c>
       <c r="D77">
-        <v>13.88110669900257</v>
+        <v>3.791570731073309</v>
       </c>
       <c r="E77">
         <v>0.2128506401928187</v>
       </c>
       <c r="F77">
-        <v>28.45509785248781</v>
+        <v>9.775830631086567</v>
       </c>
       <c r="G77">
-        <v>12.70714606912121</v>
+        <v>104.4290375733473</v>
       </c>
       <c r="H77">
-        <v>8.433359035491911</v>
+        <v>3.528164717101962</v>
       </c>
       <c r="Q77">
-        <v>0.09363746291357407</v>
+        <v>0.08657184334646023</v>
       </c>
       <c r="R77">
-        <v>1.172138339514122</v>
+        <v>0.3147478596222327</v>
       </c>
       <c r="S77" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T77">
-        <v>0.0002584999999726278</v>
+        <v>0.0003673000000077309</v>
       </c>
     </row>
     <row r="78" spans="1:20">
@@ -3416,37 +3416,37 @@
         <v>0</v>
       </c>
       <c r="B78">
-        <v>18.98734098903599</v>
+        <v>10</v>
       </c>
       <c r="C78">
-        <v>147.417699729393</v>
+        <v>55.94936395614395</v>
       </c>
       <c r="D78">
-        <v>8.347526245715251</v>
+        <v>12.8278466486262</v>
       </c>
       <c r="E78">
         <v>359.7179096067844</v>
       </c>
       <c r="F78">
-        <v>19.19681850507216</v>
+        <v>9.771483774875326</v>
       </c>
       <c r="G78">
-        <v>144.6937907268877</v>
+        <v>55.48586887774029</v>
       </c>
       <c r="H78">
-        <v>8.404459735541193</v>
+        <v>12.77002875430412</v>
       </c>
       <c r="Q78">
-        <v>0.09638335595362292</v>
+        <v>0.09668095333303259</v>
       </c>
       <c r="R78">
-        <v>0.1740588015117524</v>
+        <v>0.1314640564217598</v>
       </c>
       <c r="S78" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T78">
-        <v>0.0003386000000205058</v>
+        <v>0.0002803000000000111</v>
       </c>
     </row>
     <row r="79" spans="1:20">
@@ -3454,37 +3454,37 @@
         <v>0</v>
       </c>
       <c r="B79">
-        <v>46.35990643096318</v>
+        <v>10</v>
       </c>
       <c r="C79">
-        <v>115.595207986294</v>
+        <v>165.4396257238527</v>
       </c>
       <c r="D79">
-        <v>12.53712229729177</v>
+        <v>10.70634719908626</v>
       </c>
       <c r="E79">
         <v>359.9326665443774</v>
       </c>
       <c r="F79">
-        <v>38.58016012539815</v>
+        <v>9.914468450156454</v>
       </c>
       <c r="G79">
-        <v>117.0290565964576</v>
+        <v>165.3991442298658</v>
       </c>
       <c r="H79">
-        <v>10.04451355423742</v>
+        <v>10.59789398483238</v>
       </c>
       <c r="Q79">
-        <v>0.1159052928903126</v>
+        <v>0.0951934890260912</v>
       </c>
       <c r="R79">
-        <v>0.8294117932509011</v>
+        <v>0.05742517319856293</v>
       </c>
       <c r="S79" t="s">
         <v>23</v>
       </c>
       <c r="T79">
-        <v>0.0002683000000160973</v>
+        <v>0.0002747999999996864</v>
       </c>
     </row>
     <row r="80" spans="1:20">
@@ -3492,37 +3492,37 @@
         <v>0</v>
       </c>
       <c r="B80">
-        <v>7.168155237510696</v>
+        <v>10</v>
       </c>
       <c r="C80">
-        <v>122.5733424961892</v>
+        <v>8.672620950042782</v>
       </c>
       <c r="D80">
-        <v>12.98696067903802</v>
+        <v>11.17155616641261</v>
       </c>
       <c r="E80">
         <v>359.9633861588326</v>
       </c>
       <c r="F80">
-        <v>6.487226373530626</v>
+        <v>9.769473454907169</v>
       </c>
       <c r="G80">
-        <v>122.2016444005132</v>
+        <v>8.432961268815317</v>
       </c>
       <c r="H80">
-        <v>11.42699112130058</v>
+        <v>10.92085394967099</v>
       </c>
       <c r="Q80">
-        <v>0.1194985369157707</v>
+        <v>0.09989407911966711</v>
       </c>
       <c r="R80">
-        <v>0.4770639270004381</v>
+        <v>0.1096688396410333</v>
       </c>
       <c r="S80" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T80">
-        <v>0.0002473999999779153</v>
+        <v>0.0002978999999925236</v>
       </c>
     </row>
     <row r="81" spans="1:20">
@@ -3530,37 +3530,37 @@
         <v>0</v>
       </c>
       <c r="B81">
-        <v>27.53006568531715</v>
+        <v>10</v>
       </c>
       <c r="C81">
-        <v>84.25213667066072</v>
+        <v>90.1202627412686</v>
       </c>
       <c r="D81">
-        <v>10.00782525642232</v>
+        <v>8.616809111377382</v>
       </c>
       <c r="E81">
         <v>0.9949076462310189</v>
       </c>
       <c r="F81">
-        <v>22.40871406820886</v>
+        <v>9.099680645690663</v>
       </c>
       <c r="G81">
-        <v>105.0435070251524</v>
+        <v>91.32002754145523</v>
       </c>
       <c r="H81">
-        <v>6.214772114422702</v>
+        <v>6.9803253288308</v>
       </c>
       <c r="Q81">
-        <v>0.1755499656244006</v>
+        <v>0.1510394785791412</v>
       </c>
       <c r="R81">
-        <v>2.026078969752363</v>
+        <v>0.9035682794627677</v>
       </c>
       <c r="S81" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="T81">
-        <v>0.0002779999999802385</v>
+        <v>0.0003118000000057464</v>
       </c>
     </row>
     <row r="82" spans="1:20">
@@ -3568,37 +3568,37 @@
         <v>0</v>
       </c>
       <c r="B82">
-        <v>28.48620724251147</v>
+        <v>10</v>
       </c>
       <c r="C82">
-        <v>125.8931460626395</v>
+        <v>93.94482897004586</v>
       </c>
       <c r="D82">
-        <v>7.698689710729503</v>
+        <v>11.39287640417597</v>
       </c>
       <c r="E82">
         <v>359.4300441191555</v>
       </c>
       <c r="F82">
-        <v>27.59514879264501</v>
+        <v>9.971590098850267</v>
       </c>
       <c r="G82">
-        <v>111.7580533717538</v>
+        <v>93.1858097661315</v>
       </c>
       <c r="H82">
-        <v>7.375195789022539</v>
+        <v>11.68279292940981</v>
       </c>
       <c r="Q82">
-        <v>0.1237557443680201</v>
+        <v>0.1167249410168531</v>
       </c>
       <c r="R82">
-        <v>0.6530485691750869</v>
+        <v>0.2298173725679072</v>
       </c>
       <c r="S82" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T82">
-        <v>0.0002575999999976375</v>
+        <v>0.0002697999999980993</v>
       </c>
     </row>
     <row r="83" spans="1:20">
@@ -3606,37 +3606,37 @@
         <v>0</v>
       </c>
       <c r="B83">
-        <v>20.99386030123564</v>
+        <v>10</v>
       </c>
       <c r="C83">
-        <v>61.35279780407429</v>
+        <v>63.97544120494257</v>
       </c>
       <c r="D83">
-        <v>14.3310644228157</v>
+        <v>7.09018652027162</v>
       </c>
       <c r="E83">
         <v>0.4079701026656091</v>
       </c>
       <c r="F83">
-        <v>18.75331838738894</v>
+        <v>9.683583892093626</v>
       </c>
       <c r="G83">
-        <v>62.56876324330283</v>
+        <v>64.56563445647589</v>
       </c>
       <c r="H83">
-        <v>11.57375490471185</v>
+        <v>6.383403869085626</v>
       </c>
       <c r="Q83">
-        <v>0.1037457132780569</v>
+        <v>0.09905026514452561</v>
       </c>
       <c r="R83">
-        <v>0.7912666720309663</v>
+        <v>0.4186949609690714</v>
       </c>
       <c r="S83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T83">
-        <v>0.0002670000000080108</v>
+        <v>0.0003231000000027962</v>
       </c>
     </row>
     <row r="84" spans="1:20">
@@ -3644,37 +3644,37 @@
         <v>0</v>
       </c>
       <c r="B84">
-        <v>17.3851551410602</v>
+        <v>10</v>
       </c>
       <c r="C84">
-        <v>115.0615369665485</v>
+        <v>49.54062056424078</v>
       </c>
       <c r="D84">
-        <v>11.2389921233538</v>
+        <v>10.67076913110323</v>
       </c>
       <c r="E84">
         <v>359.7478048791732</v>
       </c>
       <c r="F84">
-        <v>17.23035329197499</v>
+        <v>9.729304839484511</v>
       </c>
       <c r="G84">
-        <v>113.6701947756267</v>
+        <v>48.71879604928498</v>
       </c>
       <c r="H84">
-        <v>11.27968905343429</v>
+        <v>10.72448032662497</v>
       </c>
       <c r="Q84">
-        <v>0.08975167282444876</v>
+        <v>0.0875959528982555</v>
       </c>
       <c r="R84">
-        <v>0.1217253794809258</v>
+        <v>0.1412939748415422</v>
       </c>
       <c r="S84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T84">
-        <v>0.0002749000000221713</v>
+        <v>0.0002816999999879499</v>
       </c>
     </row>
     <row r="85" spans="1:20">
@@ -3682,37 +3682,37 @@
         <v>0</v>
       </c>
       <c r="B85">
-        <v>16.5669092197313</v>
+        <v>10</v>
       </c>
       <c r="C85">
-        <v>123.081764952793</v>
+        <v>46.26763687892519</v>
       </c>
       <c r="D85">
-        <v>11.63641757569115</v>
+        <v>11.20545099685287</v>
       </c>
       <c r="E85">
         <v>359.7452061341889</v>
       </c>
       <c r="F85">
-        <v>16.33199396646222</v>
+        <v>9.746115436815201</v>
       </c>
       <c r="G85">
-        <v>122.2283851096924</v>
+        <v>45.78810742462695</v>
       </c>
       <c r="H85">
-        <v>11.54156325409323</v>
+        <v>11.1365890865492</v>
       </c>
       <c r="Q85">
-        <v>0.09757660913710063</v>
+        <v>0.09525781666749238</v>
       </c>
       <c r="R85">
-        <v>0.1290447054895737</v>
+        <v>0.1333642814468696</v>
       </c>
       <c r="S85" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T85">
-        <v>0.0002653999999893131</v>
+        <v>0.0002796999999929994</v>
       </c>
     </row>
     <row r="86" spans="1:20">
@@ -3720,37 +3720,37 @@
         <v>0</v>
       </c>
       <c r="B86">
-        <v>7.071844713416848</v>
+        <v>10</v>
       </c>
       <c r="C86">
-        <v>66.64361690080786</v>
+        <v>8.287378853667391</v>
       </c>
       <c r="D86">
-        <v>7.423182674914047</v>
+        <v>7.442907793387191</v>
       </c>
       <c r="E86">
         <v>0.0394836605926723</v>
       </c>
       <c r="F86">
-        <v>6.928354728008231</v>
+        <v>9.982147294734467</v>
       </c>
       <c r="G86">
-        <v>66.34459927395129</v>
+        <v>7.99920067978498</v>
       </c>
       <c r="H86">
-        <v>7.166344744084748</v>
+        <v>7.008725332028908</v>
       </c>
       <c r="Q86">
-        <v>0.09354504452366608</v>
+        <v>0.09245003707719704</v>
       </c>
       <c r="R86">
-        <v>0.137662143186585</v>
+        <v>0.165888466562673</v>
       </c>
       <c r="S86" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="T86">
-        <v>0.0002553999999577172</v>
+        <v>0.0002819999999985612</v>
       </c>
     </row>
     <row r="87" spans="1:20">
@@ -3758,37 +3758,37 @@
         <v>0</v>
       </c>
       <c r="B87">
-        <v>32.91682165489652</v>
+        <v>10</v>
       </c>
       <c r="C87">
-        <v>91.61155235617326</v>
+        <v>111.6672866195861</v>
       </c>
       <c r="D87">
-        <v>7.982448417587287</v>
+        <v>9.107436823744884</v>
       </c>
       <c r="E87">
         <v>359.9469447836763</v>
       </c>
       <c r="F87">
-        <v>29.51848006817945</v>
+        <v>9.620443771404618</v>
       </c>
       <c r="G87">
-        <v>90.44850785132502</v>
+        <v>111.2217543003779</v>
       </c>
       <c r="H87">
-        <v>6.924271760030432</v>
+        <v>8.661146416603348</v>
       </c>
       <c r="Q87">
-        <v>0.09858801191671052</v>
+        <v>0.09230844995078387</v>
       </c>
       <c r="R87">
-        <v>0.54581433075948</v>
+        <v>0.210168621280792</v>
       </c>
       <c r="S87" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T87">
-        <v>0.0002676999999948748</v>
+        <v>0.0002823000000091724</v>
       </c>
     </row>
     <row r="88" spans="1:20">
@@ -3796,37 +3796,37 @@
         <v>0</v>
       </c>
       <c r="B88">
-        <v>14.11731291330007</v>
+        <v>10</v>
       </c>
       <c r="C88">
-        <v>37.27675873097517</v>
+        <v>36.46925165320029</v>
       </c>
       <c r="D88">
-        <v>6.526377433002459</v>
+        <v>5.485117248731678</v>
       </c>
       <c r="E88">
         <v>0.1788857156901902</v>
       </c>
       <c r="F88">
-        <v>13.84153662473184</v>
+        <v>9.925386475824094</v>
       </c>
       <c r="G88">
-        <v>38.16336586952814</v>
+        <v>36.76536600574773</v>
       </c>
       <c r="H88">
-        <v>5.808391385401824</v>
+        <v>5.099637583493576</v>
       </c>
       <c r="Q88">
-        <v>0.09751273390047084</v>
+        <v>0.09635759999587198</v>
       </c>
       <c r="R88">
-        <v>0.3744766810650683</v>
+        <v>0.2402533232777918</v>
       </c>
       <c r="S88" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T88">
-        <v>0.0002574999999751526</v>
+        <v>0.0002938000000085594</v>
       </c>
     </row>
     <row r="89" spans="1:20">
@@ -3834,37 +3834,37 @@
         <v>0</v>
       </c>
       <c r="B89">
-        <v>34.53188833548306</v>
+        <v>10</v>
       </c>
       <c r="C89">
-        <v>171.8822478443809</v>
+        <v>118.1275533419322</v>
       </c>
       <c r="D89">
-        <v>14.70876034993816</v>
+        <v>14.45881652295873</v>
       </c>
       <c r="E89">
         <v>359.888287343744</v>
       </c>
       <c r="F89">
-        <v>32.96043564316815</v>
+        <v>8.901188136485469</v>
       </c>
       <c r="G89">
-        <v>171.8012423320694</v>
+        <v>117.6017826267239</v>
       </c>
       <c r="H89">
-        <v>13.84131609673106</v>
+        <v>12.50708740837545</v>
       </c>
       <c r="Q89">
-        <v>0.09604375963176771</v>
+        <v>0.1118760806197936</v>
       </c>
       <c r="R89">
-        <v>0.2532354560520054</v>
+        <v>0.5616712395395819</v>
       </c>
       <c r="S89" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="T89">
-        <v>0.0002592000000163353</v>
+        <v>0.0002800999999976739</v>
       </c>
     </row>
     <row r="90" spans="1:20">
@@ -3872,37 +3872,37 @@
         <v>0</v>
       </c>
       <c r="B90">
-        <v>34.13979722088605</v>
+        <v>10</v>
       </c>
       <c r="C90">
-        <v>91.28694387835442</v>
+        <v>116.5591888835442</v>
       </c>
       <c r="D90">
-        <v>10.28341380152239</v>
+        <v>9.085796258556961</v>
       </c>
       <c r="E90">
         <v>359.9679347087545</v>
       </c>
       <c r="F90">
-        <v>31.05718518331916</v>
+        <v>9.773582765188941</v>
       </c>
       <c r="G90">
-        <v>93.78816503808881</v>
+        <v>116.5320109810507</v>
       </c>
       <c r="H90">
-        <v>8.955716764103329</v>
+        <v>8.784510032693376</v>
       </c>
       <c r="Q90">
-        <v>0.1040997855951377</v>
+        <v>0.09495813608985838</v>
       </c>
       <c r="R90">
-        <v>0.5438128518247387</v>
+        <v>0.1293323123953654</v>
       </c>
       <c r="S90" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T90">
-        <v>0.0002721000000178719</v>
+        <v>0.0002747000000056232</v>
       </c>
     </row>
     <row r="91" spans="1:20">
@@ -3910,37 +3910,37 @@
         <v>0</v>
       </c>
       <c r="B91">
-        <v>27.48624442109753</v>
+        <v>10</v>
       </c>
       <c r="C91">
-        <v>46.06868417610064</v>
+        <v>89.94497768439012</v>
       </c>
       <c r="D91">
-        <v>7.581006309885745</v>
+        <v>6.071245611740043</v>
       </c>
       <c r="E91">
         <v>0.5081190079641331</v>
       </c>
       <c r="F91">
-        <v>24.87176890576081</v>
+        <v>9.523582546621164</v>
       </c>
       <c r="G91">
-        <v>68.16136801516407</v>
+        <v>91.55622103886201</v>
       </c>
       <c r="H91">
-        <v>3.941413482819121</v>
+        <v>5.318668988717107</v>
       </c>
       <c r="Q91">
-        <v>0.1276806963111329</v>
+        <v>0.1167903841090112</v>
       </c>
       <c r="R91">
-        <v>2.038113279118248</v>
+        <v>0.5566075750893504</v>
       </c>
       <c r="S91" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="T91">
-        <v>0.0002604000000019369</v>
+        <v>0.0002781000000027234</v>
       </c>
     </row>
     <row r="92" spans="1:20">
@@ -3948,37 +3948,37 @@
         <v>0</v>
       </c>
       <c r="B92">
-        <v>11.88743894447661</v>
+        <v>10</v>
       </c>
       <c r="C92">
-        <v>28.38341898169331</v>
+        <v>27.54975577790644</v>
       </c>
       <c r="D92">
-        <v>14.85491114183153</v>
+        <v>4.892227932112887</v>
       </c>
       <c r="E92">
         <v>0.06734600045980398</v>
       </c>
       <c r="F92">
-        <v>11.68636373087701</v>
+        <v>10.03437499783482</v>
       </c>
       <c r="G92">
-        <v>28.24320950125387</v>
+        <v>27.72887111574697</v>
       </c>
       <c r="H92">
-        <v>14.29313211502051</v>
+        <v>4.754354116973404</v>
       </c>
       <c r="Q92">
-        <v>0.09876862967411745</v>
+        <v>0.09531460321949511</v>
       </c>
       <c r="R92">
-        <v>0.1430776157246418</v>
+        <v>0.09749908518354256</v>
       </c>
       <c r="S92" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T92">
-        <v>0.0002585999999951127</v>
+        <v>0.0002756000000090353</v>
       </c>
     </row>
     <row r="93" spans="1:20">
@@ -3986,37 +3986,37 @@
         <v>0</v>
       </c>
       <c r="B93">
-        <v>14.04516182530883</v>
+        <v>10</v>
       </c>
       <c r="C93">
-        <v>59.22368396859275</v>
+        <v>36.1806473012353</v>
       </c>
       <c r="D93">
-        <v>7.964996887010721</v>
+        <v>6.948245597906183</v>
       </c>
       <c r="E93">
         <v>0.1818363053204348</v>
       </c>
       <c r="F93">
-        <v>13.47076081921254</v>
+        <v>9.833174173805402</v>
       </c>
       <c r="G93">
-        <v>59.72531929834762</v>
+        <v>36.14909160690159</v>
       </c>
       <c r="H93">
-        <v>7.20711100506765</v>
+        <v>6.458672555425833</v>
       </c>
       <c r="Q93">
-        <v>0.08679420327662657</v>
+        <v>0.08567346640916972</v>
       </c>
       <c r="R93">
-        <v>0.3640413106579993</v>
+        <v>0.2502021498763209</v>
       </c>
       <c r="S93" t="s">
         <v>22</v>
       </c>
       <c r="T93">
-        <v>0.0002699000000347951</v>
+        <v>0.0002877000000012231</v>
       </c>
     </row>
     <row r="94" spans="1:20">
@@ -4024,37 +4024,37 @@
         <v>0</v>
       </c>
       <c r="B94">
-        <v>44.86462247469316</v>
+        <v>10</v>
       </c>
       <c r="C94">
-        <v>141.9446820246704</v>
+        <v>159.4584898987726</v>
       </c>
       <c r="D94">
-        <v>9.247281314751076</v>
+        <v>12.4629788016447</v>
       </c>
       <c r="E94">
         <v>359.9309102274653</v>
       </c>
       <c r="F94">
-        <v>38.93429709022982</v>
+        <v>9.758135103136755</v>
       </c>
       <c r="G94">
-        <v>145.4851104928607</v>
+        <v>159.4966939883726</v>
       </c>
       <c r="H94">
-        <v>8.085898657920035</v>
+        <v>12.09839923028027</v>
       </c>
       <c r="Q94">
-        <v>0.1066822093596106</v>
+        <v>0.09202445643184076</v>
       </c>
       <c r="R94">
-        <v>0.6400670841676322</v>
+        <v>0.1316708720446957</v>
       </c>
       <c r="S94" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="T94">
-        <v>0.0002661000000330205</v>
+        <v>0.0002818000000104348</v>
       </c>
     </row>
     <row r="95" spans="1:20">
@@ -4062,37 +4062,37 @@
         <v>0</v>
       </c>
       <c r="B95">
-        <v>32.28594519994139</v>
+        <v>10</v>
       </c>
       <c r="C95">
-        <v>118.3520823512068</v>
+        <v>109.1437807997656</v>
       </c>
       <c r="D95">
-        <v>8.0724100934357</v>
+        <v>10.89013882341379</v>
       </c>
       <c r="E95">
         <v>359.5109405758969</v>
       </c>
       <c r="F95">
-        <v>30.54102640954316</v>
+        <v>10.05388892031989</v>
       </c>
       <c r="G95">
-        <v>105.3554078815622</v>
+        <v>108.5073191851436</v>
       </c>
       <c r="H95">
-        <v>7.663132202879196</v>
+        <v>11.18460595993713</v>
       </c>
       <c r="Q95">
-        <v>0.1258397632942641</v>
+        <v>0.1182438296359629</v>
       </c>
       <c r="R95">
-        <v>0.6640100768334722</v>
+        <v>0.214757374104538</v>
       </c>
       <c r="S95" t="s">
         <v>23</v>
       </c>
       <c r="T95">
-        <v>0.0002686000000267086</v>
+        <v>0.0002859999999884622</v>
       </c>
     </row>
     <row r="96" spans="1:20">
@@ -4100,37 +4100,37 @@
         <v>0</v>
       </c>
       <c r="B96">
-        <v>37.37236038097813</v>
+        <v>10</v>
       </c>
       <c r="C96">
-        <v>109.2998116119581</v>
+        <v>129.4894415239125</v>
       </c>
       <c r="D96">
-        <v>11.89861614578764</v>
+        <v>10.28665410746387</v>
       </c>
       <c r="E96">
         <v>359.776964035346</v>
       </c>
       <c r="F96">
-        <v>34.11891562386052</v>
+        <v>9.951746685902327</v>
       </c>
       <c r="G96">
-        <v>106.283041652834</v>
+        <v>129.1077390475375</v>
       </c>
       <c r="H96">
-        <v>10.77351543768408</v>
+        <v>10.28325611597662</v>
       </c>
       <c r="Q96">
-        <v>0.1042785042156354</v>
+        <v>0.09485650470307057</v>
       </c>
       <c r="R96">
-        <v>0.5126628210553491</v>
+        <v>0.07416959734092228</v>
       </c>
       <c r="S96" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T96">
-        <v>0.0002761000000077729</v>
+        <v>0.0004201999999935424</v>
       </c>
     </row>
     <row r="97" spans="1:20">
@@ -4138,37 +4138,37 @@
         <v>0</v>
       </c>
       <c r="B97">
-        <v>15.29615694006055</v>
+        <v>10</v>
       </c>
       <c r="C97">
-        <v>34.32384335235293</v>
+        <v>41.18462776024221</v>
       </c>
       <c r="D97">
-        <v>13.86359670982399</v>
+        <v>5.288256223490196</v>
       </c>
       <c r="E97">
         <v>0.1992866698657448</v>
       </c>
       <c r="F97">
-        <v>14.48996733914404</v>
+        <v>9.865453548155097</v>
       </c>
       <c r="G97">
-        <v>34.03434904933341</v>
+        <v>41.25947941964276</v>
       </c>
       <c r="H97">
-        <v>12.44966372776756</v>
+        <v>4.916253190050593</v>
       </c>
       <c r="Q97">
-        <v>0.09736428638793063</v>
+        <v>0.0951527314529277</v>
       </c>
       <c r="R97">
-        <v>0.3998735579104279</v>
+        <v>0.2499801745924219</v>
       </c>
       <c r="S97" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="T97">
-        <v>0.0002703000000110478</v>
+        <v>0.0002943000000072971</v>
       </c>
     </row>
     <row r="98" spans="1:20">
@@ -4176,37 +4176,37 @@
         <v>0</v>
       </c>
       <c r="B98">
-        <v>14.6609100057572</v>
+        <v>10</v>
       </c>
       <c r="C98">
-        <v>163.7104268414994</v>
+        <v>38.64364002302879</v>
       </c>
       <c r="D98">
-        <v>13.17235373163457</v>
+        <v>13.91402845609996</v>
       </c>
       <c r="E98">
         <v>359.9790456675702</v>
       </c>
       <c r="F98">
-        <v>13.87787993458802</v>
+        <v>9.700950374943879</v>
       </c>
       <c r="G98">
-        <v>164.0512983128454</v>
+        <v>38.34123542884221</v>
       </c>
       <c r="H98">
-        <v>12.29674299183218</v>
+        <v>13.38346599016644</v>
       </c>
       <c r="Q98">
-        <v>0.09673967359367053</v>
+        <v>0.09628092476415454</v>
       </c>
       <c r="R98">
-        <v>0.2689594227181108</v>
+        <v>0.1579689964137586</v>
       </c>
       <c r="S98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T98">
-        <v>0.0002715999999622909</v>
+        <v>0.0003207000000031712</v>
       </c>
     </row>
     <row r="99" spans="1:20">
@@ -4214,37 +4214,37 @@
         <v>0</v>
       </c>
       <c r="B99">
-        <v>42.66248559190357</v>
+        <v>10</v>
       </c>
       <c r="C99">
-        <v>174.6424533492594</v>
+        <v>150.6499423676143</v>
       </c>
       <c r="D99">
-        <v>9.471537852615114</v>
+        <v>14.64283022328396</v>
       </c>
       <c r="E99">
         <v>0.5253563253876018</v>
       </c>
       <c r="F99">
-        <v>41.40323208807772</v>
+        <v>9.48371858254343</v>
       </c>
       <c r="G99">
-        <v>181.8083008940572</v>
+        <v>151.2671269827134</v>
       </c>
       <c r="H99">
-        <v>19.87034690277072</v>
+        <v>13.61008611698536</v>
       </c>
       <c r="Q99">
-        <v>0.2046126837519469</v>
+        <v>0.1509657969637674</v>
       </c>
       <c r="R99">
-        <v>3.104431697749201</v>
+        <v>0.4091380882768153</v>
       </c>
       <c r="S99" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T99">
-        <v>0.0002642000000037115</v>
+        <v>0.000277699999998049</v>
       </c>
     </row>
     <row r="100" spans="1:20">
@@ -4252,37 +4252,37 @@
         <v>0</v>
       </c>
       <c r="B100">
-        <v>37.95202616309834</v>
+        <v>10</v>
       </c>
       <c r="C100">
-        <v>102.0940227811593</v>
+        <v>131.8081046523934</v>
       </c>
       <c r="D100">
-        <v>8.012238900499931</v>
+        <v>9.806268185410616</v>
       </c>
       <c r="E100">
         <v>359.8578848756203</v>
       </c>
       <c r="F100">
-        <v>32.98997273060135</v>
+        <v>9.528863648234671</v>
       </c>
       <c r="G100">
-        <v>100.5839619678744</v>
+        <v>131.5335150159588</v>
       </c>
       <c r="H100">
-        <v>6.714581546343733</v>
+        <v>9.215025883890348</v>
       </c>
       <c r="Q100">
-        <v>0.1192800037946012</v>
+        <v>0.1088549617645836</v>
       </c>
       <c r="R100">
-        <v>0.6960878115218392</v>
+        <v>0.2716469560521683</v>
       </c>
       <c r="S100" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T100">
-        <v>0.0002652000000011867</v>
+        <v>0.0002805999999964115</v>
       </c>
     </row>
     <row r="101" spans="1:20">
@@ -4290,37 +4290,37 @@
         <v>0</v>
       </c>
       <c r="B101">
-        <v>35.25253513838563</v>
+        <v>10</v>
       </c>
       <c r="C101">
-        <v>87.85411186330506</v>
+        <v>121.0101405535425</v>
       </c>
       <c r="D101">
-        <v>13.25495174035896</v>
+        <v>8.856940790887005</v>
       </c>
       <c r="E101">
         <v>0.04270765281058021</v>
       </c>
       <c r="F101">
-        <v>30.1591926934543</v>
+        <v>9.51708145128776</v>
       </c>
       <c r="G101">
-        <v>89.97341886353004</v>
+        <v>120.9967575160913</v>
       </c>
       <c r="H101">
-        <v>10.64669252375405</v>
+        <v>8.229447584874851</v>
       </c>
       <c r="Q101">
-        <v>0.1094148932063077</v>
+        <v>0.0980031812481014</v>
       </c>
       <c r="R101">
-        <v>0.7964027780392415</v>
+        <v>0.2686169725324887</v>
       </c>
       <c r="S101" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T101">
-        <v>0.0002566000000001623</v>
+        <v>0.0003102999999953227</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.3.xlsx
+++ b/tests/tests8/N 0.3.xlsx
@@ -492,7 +492,7 @@
         <v>12</v>
       </c>
       <c r="L2">
-        <v>0.000277399999959016</v>
+        <v>0.0003011000000014974</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -530,7 +530,7 @@
         <v>13</v>
       </c>
       <c r="L3">
-        <v>0.0002893000000767643</v>
+        <v>0.000259700000000862</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -568,7 +568,7 @@
         <v>13</v>
       </c>
       <c r="L4">
-        <v>0.0002807999999276944</v>
+        <v>0.0004538999999965654</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -606,7 +606,7 @@
         <v>12</v>
       </c>
       <c r="L5">
-        <v>0.0002805999999964115</v>
+        <v>0.0002642000000001588</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -644,7 +644,7 @@
         <v>13</v>
       </c>
       <c r="L6">
-        <v>0.0002827000000706903</v>
+        <v>0.0002777000000016017</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -682,7 +682,7 @@
         <v>13</v>
       </c>
       <c r="L7">
-        <v>0.0002744999999322317</v>
+        <v>0.0002680000000019334</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -720,7 +720,7 @@
         <v>12</v>
       </c>
       <c r="L8">
-        <v>0.0003411999999798354</v>
+        <v>0.0002738999999998271</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -758,7 +758,7 @@
         <v>12</v>
       </c>
       <c r="L9">
-        <v>0.0002690000000029613</v>
+        <v>0.0002699000000028207</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -796,7 +796,7 @@
         <v>13</v>
       </c>
       <c r="L10">
-        <v>0.0002590999999938504</v>
+        <v>0.0002713000000014176</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -834,7 +834,7 @@
         <v>13</v>
       </c>
       <c r="L11">
-        <v>0.0003520999999864216</v>
+        <v>0.0002670000000009054</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.3.xlsx
+++ b/tests/tests8/N 0.3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>П0_ист</t>
   </si>
@@ -40,6 +40,12 @@
     <t>V0_расч</t>
   </si>
   <si>
+    <t>Птек_ист</t>
+  </si>
+  <si>
+    <t>Дтек_ист</t>
+  </si>
+  <si>
     <t>Ка</t>
   </si>
   <si>
@@ -52,10 +58,10 @@
     <t>t</t>
   </si>
   <si>
+    <t>[1, 1, 1, 1]</t>
+  </si>
+  <si>
     <t>[0, 1, 1, 1]</t>
-  </si>
-  <si>
-    <t>[1, 1, 1, 1]</t>
   </si>
 </sst>
 </file>
@@ -413,13 +419,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -456,8 +462,14 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2">
         <v>0</v>
       </c>
@@ -471,31 +483,37 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>359.4707842962097</v>
+        <v>-0.09198399821868181</v>
       </c>
       <c r="F2">
-        <v>9.8241416882835</v>
+        <v>9.958406308559352</v>
       </c>
       <c r="G2">
-        <v>97.75016317187904</v>
+        <v>11.68786529978774</v>
       </c>
       <c r="H2">
-        <v>11.65573349906952</v>
+        <v>-1.672658849669419</v>
       </c>
       <c r="I2">
-        <v>0.113218699992072</v>
+        <v>0.3392696413876129</v>
       </c>
       <c r="J2">
-        <v>0.2033766994844113</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
+        <v>15.80711097780685</v>
+      </c>
+      <c r="K2">
+        <v>0.1155126967254446</v>
       </c>
       <c r="L2">
-        <v>0.0003011000000014974</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.09057820841660269</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2">
+        <v>0.0002408000000286847</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3">
         <v>0</v>
       </c>
@@ -509,31 +527,37 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>359.512696390901</v>
+        <v>-0.08235617832069153</v>
       </c>
       <c r="F3">
-        <v>9.956165069699598</v>
+        <v>9.682972934562136</v>
       </c>
       <c r="G3">
-        <v>74.54707283185463</v>
+        <v>11.11094332710442</v>
       </c>
       <c r="H3">
-        <v>11.94138518634005</v>
+        <v>3.155722002668458</v>
       </c>
       <c r="I3">
-        <v>0.1036881903469531</v>
+        <v>0.6427012887259322</v>
       </c>
       <c r="J3">
-        <v>0.205926729074075</v>
-      </c>
-      <c r="K3" t="s">
-        <v>13</v>
+        <v>18.32782196423818</v>
+      </c>
+      <c r="K3">
+        <v>0.1159087369684893</v>
       </c>
       <c r="L3">
-        <v>0.000259700000000862</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.1037085653551123</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3">
+        <v>0.00020449999919947</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4">
         <v>0</v>
       </c>
@@ -547,31 +571,37 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>0.1250273542216417</v>
+        <v>0.02162473891945695</v>
       </c>
       <c r="F4">
-        <v>9.908147279843073</v>
+        <v>9.909865839081908</v>
       </c>
       <c r="G4">
-        <v>79.84802095942418</v>
+        <v>3.08716384207673</v>
       </c>
       <c r="H4">
-        <v>3.14574593125363</v>
+        <v>0.5311877383148973</v>
       </c>
       <c r="I4">
-        <v>0.09047060899527208</v>
+        <v>1.016342879682239</v>
       </c>
       <c r="J4">
-        <v>0.2056479827259988</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
+        <v>9.618122158119826</v>
+      </c>
+      <c r="K4">
+        <v>0.09673704303516158</v>
       </c>
       <c r="L4">
-        <v>0.0004538999999965654</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.2493195196119373</v>
+      </c>
+      <c r="M4" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4">
+        <v>0.000212400000236812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5">
         <v>0</v>
       </c>
@@ -585,31 +615,37 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>359.4634114579709</v>
+        <v>-0.0919607505282673</v>
       </c>
       <c r="F5">
-        <v>9.940623187296273</v>
+        <v>9.819085630301446</v>
       </c>
       <c r="G5">
-        <v>98.5420100291897</v>
+        <v>11.39359668835053</v>
       </c>
       <c r="H5">
-        <v>11.68496129065065</v>
+        <v>-1.661441495030261</v>
       </c>
       <c r="I5">
-        <v>0.1225318323378674</v>
+        <v>0.3375023832549029</v>
       </c>
       <c r="J5">
-        <v>0.1997843777518899</v>
-      </c>
-      <c r="K5" t="s">
-        <v>12</v>
+        <v>15.67687823027242</v>
+      </c>
+      <c r="K5">
+        <v>0.1361733154244344</v>
       </c>
       <c r="L5">
-        <v>0.0002642000000001588</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.05635471056598693</v>
+      </c>
+      <c r="M5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5">
+        <v>0.0002012000004469883</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6">
         <v>0</v>
       </c>
@@ -623,31 +659,37 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>359.9848314878572</v>
+        <v>-0.002627401427696563</v>
       </c>
       <c r="F6">
-        <v>9.888589875878838</v>
+        <v>9.924441366355977</v>
       </c>
       <c r="G6">
-        <v>174.1619199095053</v>
+        <v>0.9691297865297387</v>
       </c>
       <c r="H6">
-        <v>9.426702862651181</v>
+        <v>-9.420580667316003</v>
       </c>
       <c r="I6">
-        <v>0.08462267855341102</v>
+        <v>-1.042039640464102</v>
       </c>
       <c r="J6">
-        <v>0.06138109419471783</v>
-      </c>
-      <c r="K6" t="s">
-        <v>13</v>
+        <v>4.673171010711503</v>
+      </c>
+      <c r="K6">
+        <v>0.086335065458014</v>
       </c>
       <c r="L6">
-        <v>0.0002777000000016017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.05466544625300199</v>
+      </c>
+      <c r="M6" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6">
+        <v>0.00023590000000695</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7">
         <v>0</v>
       </c>
@@ -661,31 +703,37 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>359.8676317539345</v>
+        <v>-0.02253954486554965</v>
       </c>
       <c r="F7">
-        <v>9.609695073223071</v>
+        <v>9.756256003657555</v>
       </c>
       <c r="G7">
-        <v>39.3504530691787</v>
+        <v>8.42728185956509</v>
       </c>
       <c r="H7">
-        <v>13.06811143011775</v>
+        <v>10.16339497408487</v>
       </c>
       <c r="I7">
-        <v>0.09540821684049361</v>
+        <v>1.04226575396884</v>
       </c>
       <c r="J7">
-        <v>0.1841148703636448</v>
-      </c>
-      <c r="K7" t="s">
-        <v>13</v>
+        <v>22.87529985576693</v>
+      </c>
+      <c r="K7">
+        <v>0.09031871352835937</v>
       </c>
       <c r="L7">
-        <v>0.0002680000000019334</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.1063131816650487</v>
+      </c>
+      <c r="M7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7">
+        <v>0.0002438999999867519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8">
         <v>0</v>
       </c>
@@ -699,31 +747,37 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>0.09353510204625504</v>
+        <v>0.01567269483173029</v>
       </c>
       <c r="F8">
-        <v>9.542413354422287</v>
+        <v>9.600443577781601</v>
       </c>
       <c r="G8">
-        <v>161.6458951866583</v>
+        <v>2.073551966390045</v>
       </c>
       <c r="H8">
-        <v>6.509106064835738</v>
+        <v>-6.232610933837529</v>
       </c>
       <c r="I8">
-        <v>0.08606834792307802</v>
+        <v>-0.1329274218000709</v>
       </c>
       <c r="J8">
-        <v>0.2928375969152908</v>
-      </c>
-      <c r="K8" t="s">
-        <v>12</v>
+        <v>3.973338297383755</v>
+      </c>
+      <c r="K8">
+        <v>0.08716964715045647</v>
       </c>
       <c r="L8">
-        <v>0.0002738999999998271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.2964815006213363</v>
+      </c>
+      <c r="M8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8">
+        <v>0.0002173000002585468</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9">
         <v>0</v>
       </c>
@@ -737,31 +791,37 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>359.4928422888599</v>
+        <v>-0.08146510334623507</v>
       </c>
       <c r="F9">
-        <v>9.250291859404404</v>
+        <v>9.203221391183723</v>
       </c>
       <c r="G9">
-        <v>13.20781333238678</v>
+        <v>2.941026660298573</v>
       </c>
       <c r="H9">
-        <v>13.09315121318101</v>
+        <v>12.52324363029096</v>
       </c>
       <c r="I9">
-        <v>0.1064593771691707</v>
+        <v>1.35871477809105</v>
       </c>
       <c r="J9">
-        <v>0.4134326707296498</v>
-      </c>
-      <c r="K9" t="s">
-        <v>12</v>
+        <v>22.28974380606835</v>
+      </c>
+      <c r="K9">
+        <v>0.1134701503460055</v>
       </c>
       <c r="L9">
-        <v>0.0002699000000028207</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.151830026100106</v>
+      </c>
+      <c r="M9" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9">
+        <v>0.0002551999996285303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10">
         <v>0</v>
       </c>
@@ -775,31 +835,37 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>359.9726385850141</v>
+        <v>-0.004648220220347742</v>
       </c>
       <c r="F10">
-        <v>9.825475255125275</v>
+        <v>9.733538297097088</v>
       </c>
       <c r="G10">
-        <v>157.2622809818639</v>
+        <v>5.471197326992657</v>
       </c>
       <c r="H10">
-        <v>14.31715487311048</v>
+        <v>-13.05925506418981</v>
       </c>
       <c r="I10">
-        <v>0.1018867730266889</v>
+        <v>-0.8348238211053474</v>
       </c>
       <c r="J10">
-        <v>0.08925517875306904</v>
-      </c>
-      <c r="K10" t="s">
-        <v>13</v>
+        <v>11.86534188679525</v>
+      </c>
+      <c r="K10">
+        <v>0.102567449294837</v>
       </c>
       <c r="L10">
-        <v>0.0002713000000014176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.1426456820596609</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10">
+        <v>0.000201000000743079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11">
         <v>0</v>
       </c>
@@ -813,28 +879,34 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>359.9996674335863</v>
+        <v>-5.794868460626643E-05</v>
       </c>
       <c r="F11">
-        <v>9.98623137291513</v>
+        <v>9.983615060753284</v>
       </c>
       <c r="G11">
-        <v>1.63812057882759</v>
+        <v>0.2414814718120854</v>
       </c>
       <c r="H11">
-        <v>8.711317147127385</v>
+        <v>8.661930987935555</v>
       </c>
       <c r="I11">
-        <v>0.08956825293840666</v>
+        <v>1.487317718644038</v>
       </c>
       <c r="J11">
-        <v>0.09433140250733733</v>
-      </c>
-      <c r="K11" t="s">
-        <v>13</v>
+        <v>18.26849864379155</v>
+      </c>
+      <c r="K11">
+        <v>0.09584223181472996</v>
       </c>
       <c r="L11">
-        <v>0.0002670000000009054</v>
+        <v>0.1673343741919262</v>
+      </c>
+      <c r="M11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11">
+        <v>0.00023590000000695</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.3.xlsx
+++ b/tests/tests8/N 0.3.xlsx
@@ -483,16 +483,16 @@
         <v>11.58227239646903</v>
       </c>
       <c r="E2">
-        <v>-0.09198399821868181</v>
+        <v>359.4707842962097</v>
       </c>
       <c r="F2">
-        <v>9.958406308559352</v>
+        <v>9.958831119277152</v>
       </c>
       <c r="G2">
-        <v>11.68786529978774</v>
+        <v>98.14434032109089</v>
       </c>
       <c r="H2">
-        <v>-1.672658849669419</v>
+        <v>11.80694638309837</v>
       </c>
       <c r="I2">
         <v>0.3392696413876129</v>
@@ -510,7 +510,7 @@
         <v>14</v>
       </c>
       <c r="N2">
-        <v>0.0002408000000286847</v>
+        <v>0.0002363000000000781</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -527,16 +527,16 @@
         <v>11.6438939213059</v>
       </c>
       <c r="E3">
-        <v>-0.08235617832069153</v>
+        <v>359.512696390901</v>
       </c>
       <c r="F3">
-        <v>9.682972934562136</v>
+        <v>9.683323158480793</v>
       </c>
       <c r="G3">
-        <v>11.11094332710442</v>
+        <v>74.14443193635235</v>
       </c>
       <c r="H3">
-        <v>3.155722002668458</v>
+        <v>11.55039579305627</v>
       </c>
       <c r="I3">
         <v>0.6427012887259322</v>
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="N3">
-        <v>0.00020449999919947</v>
+        <v>0.0002145000000002284</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -571,16 +571,16 @@
         <v>3.311114781934696</v>
       </c>
       <c r="E4">
-        <v>0.02162473891945695</v>
+        <v>0.1250273542216417</v>
       </c>
       <c r="F4">
-        <v>9.909865839081908</v>
+        <v>9.909889433184201</v>
       </c>
       <c r="G4">
-        <v>3.08716384207673</v>
+        <v>80.23709363592033</v>
       </c>
       <c r="H4">
-        <v>0.5311877383148973</v>
+        <v>3.132529489272536</v>
       </c>
       <c r="I4">
         <v>1.016342879682239</v>
@@ -598,7 +598,7 @@
         <v>15</v>
       </c>
       <c r="N4">
-        <v>0.000212400000236812</v>
+        <v>0.000238100000000685</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -615,16 +615,16 @@
         <v>11.49777387141726</v>
       </c>
       <c r="E5">
-        <v>-0.0919607505282673</v>
+        <v>359.4634114579709</v>
       </c>
       <c r="F5">
-        <v>9.819085630301446</v>
+        <v>9.819516250550739</v>
       </c>
       <c r="G5">
-        <v>11.39359668835053</v>
+        <v>98.29653099571021</v>
       </c>
       <c r="H5">
-        <v>-1.661441495030261</v>
+        <v>11.51409715688557</v>
       </c>
       <c r="I5">
         <v>0.3375023832549029</v>
@@ -642,7 +642,7 @@
         <v>14</v>
       </c>
       <c r="N5">
-        <v>0.0002012000004469883</v>
+        <v>0.0006630000000003022</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -659,16 +659,16 @@
         <v>9.566786990108668</v>
       </c>
       <c r="E6">
-        <v>-0.002627401427696563</v>
+        <v>359.9848314878572</v>
       </c>
       <c r="F6">
-        <v>9.924441366355977</v>
+        <v>9.924441714145736</v>
       </c>
       <c r="G6">
-        <v>0.9691297865297387</v>
+        <v>174.1264342183191</v>
       </c>
       <c r="H6">
-        <v>-9.420580667316003</v>
+        <v>9.470298445801335</v>
       </c>
       <c r="I6">
         <v>-1.042039640464102</v>
@@ -686,7 +686,7 @@
         <v>14</v>
       </c>
       <c r="N6">
-        <v>0.00023590000000695</v>
+        <v>0.0002282000000004558</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -703,16 +703,16 @@
         <v>13.44878767412852</v>
       </c>
       <c r="E7">
-        <v>-0.02253954486554965</v>
+        <v>359.8676317539345</v>
       </c>
       <c r="F7">
-        <v>9.756256003657555</v>
+        <v>9.756282039792968</v>
       </c>
       <c r="G7">
-        <v>8.42728185956509</v>
+        <v>39.66483688090088</v>
       </c>
       <c r="H7">
-        <v>10.16339497408487</v>
+        <v>13.20279049821698</v>
       </c>
       <c r="I7">
         <v>1.04226575396884</v>
@@ -730,7 +730,7 @@
         <v>14</v>
       </c>
       <c r="N7">
-        <v>0.0002438999999867519</v>
+        <v>0.0004366999999998455</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -747,16 +747,16 @@
         <v>6.983757663614126</v>
       </c>
       <c r="E8">
-        <v>0.01567269483173029</v>
+        <v>0.09353510204625504</v>
       </c>
       <c r="F8">
-        <v>9.600443577781601</v>
+        <v>9.60045637058631</v>
       </c>
       <c r="G8">
-        <v>2.073551966390045</v>
+        <v>161.598027936326</v>
       </c>
       <c r="H8">
-        <v>-6.232610933837529</v>
+        <v>6.568489690173164</v>
       </c>
       <c r="I8">
         <v>-0.1329274218000709</v>
@@ -774,7 +774,7 @@
         <v>15</v>
       </c>
       <c r="N8">
-        <v>0.0002173000002585468</v>
+        <v>0.000239200000000217</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -791,16 +791,16 @@
         <v>12.35902550688138</v>
       </c>
       <c r="E9">
-        <v>-0.08146510334623507</v>
+        <v>359.4928422888599</v>
       </c>
       <c r="F9">
-        <v>9.203221391183723</v>
+        <v>9.203581940647069</v>
       </c>
       <c r="G9">
-        <v>2.941026660298573</v>
+        <v>13.21615872449635</v>
       </c>
       <c r="H9">
-        <v>12.52324363029096</v>
+        <v>12.86395230246949</v>
       </c>
       <c r="I9">
         <v>1.35871477809105</v>
@@ -818,7 +818,7 @@
         <v>14</v>
       </c>
       <c r="N9">
-        <v>0.0002551999996285303</v>
+        <v>0.0002047000000002797</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -835,16 +835,16 @@
         <v>14.62248795385118</v>
       </c>
       <c r="E10">
-        <v>-0.004648220220347742</v>
+        <v>359.9726385850141</v>
       </c>
       <c r="F10">
-        <v>9.733538297097088</v>
+        <v>9.733539406968408</v>
       </c>
       <c r="G10">
-        <v>5.471197326992657</v>
+        <v>157.268669315807</v>
       </c>
       <c r="H10">
-        <v>-13.05925506418981</v>
+        <v>14.15903044076319</v>
       </c>
       <c r="I10">
         <v>-0.8348238211053474</v>
@@ -862,7 +862,7 @@
         <v>14</v>
       </c>
       <c r="N10">
-        <v>0.000201000000743079</v>
+        <v>0.0002475999999997924</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -879,16 +879,16 @@
         <v>9.022495105784865</v>
       </c>
       <c r="E11">
-        <v>-5.794868460626643E-05</v>
+        <v>359.9996674335863</v>
       </c>
       <c r="F11">
-        <v>9.983615060753284</v>
+        <v>9.983615060921462</v>
       </c>
       <c r="G11">
-        <v>0.2414814718120854</v>
+        <v>1.596905632040517</v>
       </c>
       <c r="H11">
-        <v>8.661930987935555</v>
+        <v>8.665296402373478</v>
       </c>
       <c r="I11">
         <v>1.487317718644038</v>
@@ -906,7 +906,7 @@
         <v>14</v>
       </c>
       <c r="N11">
-        <v>0.00023590000000695</v>
+        <v>0.0002089999999999037</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.3.xlsx
+++ b/tests/tests8/N 0.3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>П0_ист</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>Дтек_ист</t>
+  </si>
+  <si>
+    <t>Птек_расч</t>
+  </si>
+  <si>
+    <t>Дтек_расч</t>
   </si>
   <si>
     <t>Ка</t>
@@ -419,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +474,14 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2">
         <v>0</v>
       </c>
@@ -495,25 +507,31 @@
         <v>11.80694638309837</v>
       </c>
       <c r="I2">
-        <v>0.3392696413876129</v>
+        <v>70.56128143157282</v>
       </c>
       <c r="J2">
         <v>15.80711097780685</v>
       </c>
       <c r="K2">
+        <v>70.54626431444834</v>
+      </c>
+      <c r="L2">
+        <v>16.01838666625049</v>
+      </c>
+      <c r="M2">
         <v>0.1155126967254446</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0.09057820841660269</v>
       </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2">
-        <v>0.0002363000000000781</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2">
+        <v>0.0002557999999908134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>0</v>
       </c>
@@ -539,25 +557,31 @@
         <v>11.55039579305627</v>
       </c>
       <c r="I3">
-        <v>0.6427012887259322</v>
+        <v>53.17592866838513</v>
       </c>
       <c r="J3">
         <v>18.32782196423818</v>
       </c>
       <c r="K3">
+        <v>53.03473099056084</v>
+      </c>
+      <c r="L3">
+        <v>18.04909509937671</v>
+      </c>
+      <c r="M3">
         <v>0.1159087369684893</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>0.1037085653551123</v>
       </c>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3">
-        <v>0.0002145000000002284</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3">
+        <v>0.0002351000000260228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>0</v>
       </c>
@@ -583,25 +607,31 @@
         <v>3.132529489272536</v>
       </c>
       <c r="I4">
-        <v>1.016342879682239</v>
+        <v>31.7678424560353</v>
       </c>
       <c r="J4">
         <v>9.618122158119826</v>
       </c>
       <c r="K4">
+        <v>31.6918105336971</v>
+      </c>
+      <c r="L4">
+        <v>9.320786461152341</v>
+      </c>
+      <c r="M4">
         <v>0.09673704303516158</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>0.2493195196119373</v>
       </c>
-      <c r="M4" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4">
-        <v>0.000238100000000685</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4">
+        <v>0.0002056999999808795</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5">
         <v>0</v>
       </c>
@@ -627,25 +657,31 @@
         <v>11.51409715688557</v>
       </c>
       <c r="I5">
-        <v>0.3375023832549029</v>
+        <v>70.66253786388728</v>
       </c>
       <c r="J5">
         <v>15.67687823027242</v>
       </c>
       <c r="K5">
+        <v>70.55020711527112</v>
+      </c>
+      <c r="L5">
+        <v>15.64352871923518</v>
+      </c>
+      <c r="M5">
         <v>0.1361733154244344</v>
       </c>
-      <c r="L5">
+      <c r="N5">
         <v>0.05635471056598693</v>
       </c>
-      <c r="M5" t="s">
-        <v>14</v>
-      </c>
-      <c r="N5">
-        <v>0.0006630000000003022</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5">
+        <v>0.0002030999999931282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>0</v>
       </c>
@@ -671,25 +707,31 @@
         <v>9.470298445801335</v>
       </c>
       <c r="I6">
-        <v>-1.042039640464102</v>
+        <v>149.7044734839228</v>
       </c>
       <c r="J6">
         <v>4.673171010711503</v>
       </c>
       <c r="K6">
+        <v>149.7497451423231</v>
+      </c>
+      <c r="L6">
+        <v>4.626608023104461</v>
+      </c>
+      <c r="M6">
         <v>0.086335065458014</v>
       </c>
-      <c r="L6">
+      <c r="N6">
         <v>0.05466544625300199</v>
       </c>
-      <c r="M6" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6">
-        <v>0.0002282000000004558</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6">
+        <v>0.0002061000000139757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>0</v>
       </c>
@@ -715,25 +757,31 @@
         <v>13.20279049821698</v>
       </c>
       <c r="I7">
-        <v>1.04226575396884</v>
+        <v>30.28257116656484</v>
       </c>
       <c r="J7">
         <v>22.87529985576693</v>
       </c>
       <c r="K7">
+        <v>30.2151617465879</v>
+      </c>
+      <c r="L7">
+        <v>22.37592325461735</v>
+      </c>
+      <c r="M7">
         <v>0.09031871352835937</v>
       </c>
-      <c r="L7">
+      <c r="N7">
         <v>0.1063131816650487</v>
       </c>
-      <c r="M7" t="s">
-        <v>14</v>
-      </c>
-      <c r="N7">
-        <v>0.0004366999999998455</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7">
+        <v>0.0002188999999930274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>0</v>
       </c>
@@ -759,25 +807,31 @@
         <v>6.568489690173164</v>
       </c>
       <c r="I8">
-        <v>-0.1329274218000709</v>
+        <v>97.61618025069936</v>
       </c>
       <c r="J8">
         <v>3.973338297383755</v>
       </c>
       <c r="K8">
+        <v>97.67327816728717</v>
+      </c>
+      <c r="L8">
+        <v>3.707588514770529</v>
+      </c>
+      <c r="M8">
         <v>0.08716964715045647</v>
       </c>
-      <c r="L8">
+      <c r="N8">
         <v>0.2964815006213363</v>
       </c>
-      <c r="M8" t="s">
-        <v>15</v>
-      </c>
-      <c r="N8">
-        <v>0.000239200000000217</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8">
+        <v>0.0002234000000100878</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>0</v>
       </c>
@@ -803,25 +857,31 @@
         <v>12.86395230246949</v>
       </c>
       <c r="I9">
-        <v>1.35871477809105</v>
+        <v>12.15137765332865</v>
       </c>
       <c r="J9">
         <v>22.28974380606835</v>
       </c>
       <c r="K9">
+        <v>12.06050953046646</v>
+      </c>
+      <c r="L9">
+        <v>22.10261156814871</v>
+      </c>
+      <c r="M9">
         <v>0.1134701503460055</v>
       </c>
-      <c r="L9">
+      <c r="N9">
         <v>0.151830026100106</v>
       </c>
-      <c r="M9" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9">
-        <v>0.0002047000000002797</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9">
+        <v>0.0002205000000117252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10">
         <v>0</v>
       </c>
@@ -847,25 +907,31 @@
         <v>14.15903044076319</v>
       </c>
       <c r="I10">
-        <v>-0.8348238211053474</v>
+        <v>137.8318815863209</v>
       </c>
       <c r="J10">
         <v>11.86534188679525</v>
       </c>
       <c r="K10">
+        <v>137.8919856443846</v>
+      </c>
+      <c r="L10">
+        <v>11.53004063350569</v>
+      </c>
+      <c r="M10">
         <v>0.102567449294837</v>
       </c>
-      <c r="L10">
+      <c r="N10">
         <v>0.1426456820596609</v>
       </c>
-      <c r="M10" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10">
-        <v>0.0002475999999997924</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10">
+        <v>0.0002878999999893495</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>0</v>
       </c>
@@ -891,22 +957,28 @@
         <v>8.665296402373478</v>
       </c>
       <c r="I11">
-        <v>1.487317718644038</v>
+        <v>4.782971926670573</v>
       </c>
       <c r="J11">
         <v>18.26849864379155</v>
       </c>
       <c r="K11">
+        <v>4.699702416165636</v>
+      </c>
+      <c r="L11">
+        <v>17.82148895878314</v>
+      </c>
+      <c r="M11">
         <v>0.09584223181472996</v>
       </c>
-      <c r="L11">
+      <c r="N11">
         <v>0.1673343741919262</v>
       </c>
-      <c r="M11" t="s">
-        <v>14</v>
-      </c>
-      <c r="N11">
-        <v>0.0002089999999999037</v>
+      <c r="O11" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11">
+        <v>0.0002363000000116244</v>
       </c>
     </row>
   </sheetData>

--- a/tests/tests8/N 0.3.xlsx
+++ b/tests/tests8/N 0.3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="20">
   <si>
     <t>П0_ист</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>[0, 1, 1, 1]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 0]</t>
+  </si>
+  <si>
+    <t>[0, 0, 0, 1]</t>
   </si>
 </sst>
 </file>
@@ -425,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +534,7 @@
         <v>16</v>
       </c>
       <c r="P2">
-        <v>0.0002557999999908134</v>
+        <v>0.0002409000000227479</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -578,7 +584,7 @@
         <v>16</v>
       </c>
       <c r="P3">
-        <v>0.0002351000000260228</v>
+        <v>0.0001924000000030901</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -628,7 +634,7 @@
         <v>17</v>
       </c>
       <c r="P4">
-        <v>0.0002056999999808795</v>
+        <v>0.000231000000013637</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -678,7 +684,7 @@
         <v>16</v>
       </c>
       <c r="P5">
-        <v>0.0002030999999931282</v>
+        <v>0.0001881999999966411</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -728,7 +734,7 @@
         <v>16</v>
       </c>
       <c r="P6">
-        <v>0.0002061000000139757</v>
+        <v>0.000269399999979214</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -778,7 +784,7 @@
         <v>16</v>
       </c>
       <c r="P7">
-        <v>0.0002188999999930274</v>
+        <v>0.000217800000001489</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -828,7 +834,7 @@
         <v>17</v>
       </c>
       <c r="P8">
-        <v>0.0002234000000100878</v>
+        <v>0.0002128000000141128</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -878,7 +884,7 @@
         <v>16</v>
       </c>
       <c r="P9">
-        <v>0.0002205000000117252</v>
+        <v>0.0002001000000007025</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -928,7 +934,7 @@
         <v>16</v>
       </c>
       <c r="P10">
-        <v>0.0002878999999893495</v>
+        <v>0.0001916999999878044</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -978,7 +984,4507 @@
         <v>16</v>
       </c>
       <c r="P11">
-        <v>0.0002363000000116244</v>
+        <v>0.0002328000000204611</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>138.8377157880143</v>
+      </c>
+      <c r="D12">
+        <v>3.249023392312818</v>
+      </c>
+      <c r="E12">
+        <v>359.6005240487611</v>
+      </c>
+      <c r="F12">
+        <v>10.04555333664332</v>
+      </c>
+      <c r="G12">
+        <v>133.9110782487157</v>
+      </c>
+      <c r="H12">
+        <v>3.298758979325596</v>
+      </c>
+      <c r="I12">
+        <v>40.03006317522596</v>
+      </c>
+      <c r="J12">
+        <v>5.809547132347129</v>
+      </c>
+      <c r="K12">
+        <v>40.1591656374272</v>
+      </c>
+      <c r="L12">
+        <v>6.128257506813215</v>
+      </c>
+      <c r="M12">
+        <v>0.09679584645655376</v>
+      </c>
+      <c r="N12">
+        <v>0.2851441347976916</v>
+      </c>
+      <c r="O12" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12">
+        <v>0.0002002999999888289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>32.44854399781845</v>
+      </c>
+      <c r="D13">
+        <v>3.233702897851495</v>
+      </c>
+      <c r="E13">
+        <v>359.4751635776084</v>
+      </c>
+      <c r="F13">
+        <v>9.528001276136916</v>
+      </c>
+      <c r="G13">
+        <v>28.96486723579747</v>
+      </c>
+      <c r="H13">
+        <v>3.916566341202542</v>
+      </c>
+      <c r="I13">
+        <v>16.97012183948808</v>
+      </c>
+      <c r="J13">
+        <v>11.14346017967418</v>
+      </c>
+      <c r="K13">
+        <v>16.94798343995204</v>
+      </c>
+      <c r="L13">
+        <v>11.52372032653014</v>
+      </c>
+      <c r="M13">
+        <v>0.1193791343101174</v>
+      </c>
+      <c r="N13">
+        <v>0.6774268160332473</v>
+      </c>
+      <c r="O13" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13">
+        <v>0.0001943999999980406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>27.74931162834103</v>
+      </c>
+      <c r="D14">
+        <v>11.88059635818486</v>
+      </c>
+      <c r="E14">
+        <v>359.858104250553</v>
+      </c>
+      <c r="F14">
+        <v>9.783205112225842</v>
+      </c>
+      <c r="G14">
+        <v>27.42381121103463</v>
+      </c>
+      <c r="H14">
+        <v>11.93215346623313</v>
+      </c>
+      <c r="I14">
+        <v>21.32604566380087</v>
+      </c>
+      <c r="J14">
+        <v>21.47093508922593</v>
+      </c>
+      <c r="K14">
+        <v>21.27862575144312</v>
+      </c>
+      <c r="L14">
+        <v>21.33050378090281</v>
+      </c>
+      <c r="M14">
+        <v>0.0958500997565748</v>
+      </c>
+      <c r="N14">
+        <v>0.04174238805366282</v>
+      </c>
+      <c r="O14" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14">
+        <v>0.0001979000000176256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>139.9864339032876</v>
+      </c>
+      <c r="D15">
+        <v>5.850494640418948</v>
+      </c>
+      <c r="E15">
+        <v>0.213717198615172</v>
+      </c>
+      <c r="F15">
+        <v>9.627654149244211</v>
+      </c>
+      <c r="G15">
+        <v>141.3211094772348</v>
+      </c>
+      <c r="H15">
+        <v>5.469085648892835</v>
+      </c>
+      <c r="I15">
+        <v>70.55697937574554</v>
+      </c>
+      <c r="J15">
+        <v>6.028251123835125</v>
+      </c>
+      <c r="K15">
+        <v>70.42135242098325</v>
+      </c>
+      <c r="L15">
+        <v>5.633606951814346</v>
+      </c>
+      <c r="M15">
+        <v>0.08514668786593904</v>
+      </c>
+      <c r="N15">
+        <v>0.3393647789808018</v>
+      </c>
+      <c r="O15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15">
+        <v>0.0002254999999991014</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>92.50980187908425</v>
+      </c>
+      <c r="D16">
+        <v>12.27798062495156</v>
+      </c>
+      <c r="E16">
+        <v>359.5345982666241</v>
+      </c>
+      <c r="F16">
+        <v>9.67412687863772</v>
+      </c>
+      <c r="G16">
+        <v>91.59534032842188</v>
+      </c>
+      <c r="H16">
+        <v>12.08928974677792</v>
+      </c>
+      <c r="I16">
+        <v>67.01959217131787</v>
+      </c>
+      <c r="J16">
+        <v>17.25965100693092</v>
+      </c>
+      <c r="K16">
+        <v>66.89249849709981</v>
+      </c>
+      <c r="L16">
+        <v>16.95358241173</v>
+      </c>
+      <c r="M16">
+        <v>0.1276379050267729</v>
+      </c>
+      <c r="N16">
+        <v>0.1226108514753945</v>
+      </c>
+      <c r="O16" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16">
+        <v>0.0002574000000095111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>152.7871855083442</v>
+      </c>
+      <c r="D17">
+        <v>5.146751099051982</v>
+      </c>
+      <c r="E17">
+        <v>0.09369854446306079</v>
+      </c>
+      <c r="F17">
+        <v>9.781323848831638</v>
+      </c>
+      <c r="G17">
+        <v>153.738778371027</v>
+      </c>
+      <c r="H17">
+        <v>4.964488501886605</v>
+      </c>
+      <c r="I17">
+        <v>64.66687573308144</v>
+      </c>
+      <c r="J17">
+        <v>4.419793767587765</v>
+      </c>
+      <c r="K17">
+        <v>64.50897657927112</v>
+      </c>
+      <c r="L17">
+        <v>4.234608584470118</v>
+      </c>
+      <c r="M17">
+        <v>0.09294689812856544</v>
+      </c>
+      <c r="N17">
+        <v>0.2216292089759072</v>
+      </c>
+      <c r="O17" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17">
+        <v>0.0002188999999930274</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>40.19239424763699</v>
+      </c>
+      <c r="D18">
+        <v>9.277960096808114</v>
+      </c>
+      <c r="E18">
+        <v>359.9616153836598</v>
+      </c>
+      <c r="F18">
+        <v>9.71402808214207</v>
+      </c>
+      <c r="G18">
+        <v>39.77480601839574</v>
+      </c>
+      <c r="H18">
+        <v>8.957200568983247</v>
+      </c>
+      <c r="I18">
+        <v>27.73953336539376</v>
+      </c>
+      <c r="J18">
+        <v>17.9514684390679</v>
+      </c>
+      <c r="K18">
+        <v>27.63307825678686</v>
+      </c>
+      <c r="L18">
+        <v>17.33611938479476</v>
+      </c>
+      <c r="M18">
+        <v>0.07851828998901568</v>
+      </c>
+      <c r="N18">
+        <v>0.180614792744225</v>
+      </c>
+      <c r="O18" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18">
+        <v>0.0001943000000039774</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>53.03970048367974</v>
+      </c>
+      <c r="D19">
+        <v>9.367041067263528</v>
+      </c>
+      <c r="E19">
+        <v>359.9171202329936</v>
+      </c>
+      <c r="F19">
+        <v>9.741649704716439</v>
+      </c>
+      <c r="G19">
+        <v>52.48195171673433</v>
+      </c>
+      <c r="H19">
+        <v>9.164514415364298</v>
+      </c>
+      <c r="I19">
+        <v>35.67338189562808</v>
+      </c>
+      <c r="J19">
+        <v>17.4087621630154</v>
+      </c>
+      <c r="K19">
+        <v>35.55316057442862</v>
+      </c>
+      <c r="L19">
+        <v>16.99020389568179</v>
+      </c>
+      <c r="M19">
+        <v>0.09516787021832633</v>
+      </c>
+      <c r="N19">
+        <v>0.1381236541848851</v>
+      </c>
+      <c r="O19" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19">
+        <v>0.0001939999999933661</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>117.0673635131265</v>
+      </c>
+      <c r="D20">
+        <v>9.065440484818115</v>
+      </c>
+      <c r="E20">
+        <v>359.9761714668581</v>
+      </c>
+      <c r="F20">
+        <v>9.60384794577101</v>
+      </c>
+      <c r="G20">
+        <v>116.9206317790277</v>
+      </c>
+      <c r="H20">
+        <v>8.568517781916448</v>
+      </c>
+      <c r="I20">
+        <v>77.36702495454749</v>
+      </c>
+      <c r="J20">
+        <v>11.12685015605182</v>
+      </c>
+      <c r="K20">
+        <v>77.28321395370928</v>
+      </c>
+      <c r="L20">
+        <v>10.59432160122173</v>
+      </c>
+      <c r="M20">
+        <v>0.09655079906407821</v>
+      </c>
+      <c r="N20">
+        <v>0.2414249974119547</v>
+      </c>
+      <c r="O20" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20">
+        <v>0.0001958000000001903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+      <c r="C21">
+        <v>17.55604831490129</v>
+      </c>
+      <c r="D21">
+        <v>12.13499660009828</v>
+      </c>
+      <c r="E21">
+        <v>359.9336990211954</v>
+      </c>
+      <c r="F21">
+        <v>9.685940121481261</v>
+      </c>
+      <c r="G21">
+        <v>17.19808491664798</v>
+      </c>
+      <c r="H21">
+        <v>11.89305607510235</v>
+      </c>
+      <c r="I21">
+        <v>14.65846372863805</v>
+      </c>
+      <c r="J21">
+        <v>21.98288036784542</v>
+      </c>
+      <c r="K21">
+        <v>14.56442747276464</v>
+      </c>
+      <c r="L21">
+        <v>21.39050056559948</v>
+      </c>
+      <c r="M21">
+        <v>0.09063768847649439</v>
+      </c>
+      <c r="N21">
+        <v>0.1272139060051833</v>
+      </c>
+      <c r="O21" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21">
+        <v>0.0002619000000265714</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>10</v>
+      </c>
+      <c r="C22">
+        <v>105.8635441939094</v>
+      </c>
+      <c r="D22">
+        <v>13.77256473491301</v>
+      </c>
+      <c r="E22">
+        <v>359.7348320662148</v>
+      </c>
+      <c r="F22">
+        <v>9.312852716621618</v>
+      </c>
+      <c r="G22">
+        <v>105.1654385647326</v>
+      </c>
+      <c r="H22">
+        <v>12.70796104313611</v>
+      </c>
+      <c r="I22">
+        <v>80.46804950751098</v>
+      </c>
+      <c r="J22">
+        <v>17.3070565800005</v>
+      </c>
+      <c r="K22">
+        <v>80.30554260756051</v>
+      </c>
+      <c r="L22">
+        <v>16.07539389969464</v>
+      </c>
+      <c r="M22">
+        <v>0.1091673808832887</v>
+      </c>
+      <c r="N22">
+        <v>0.3699354518719562</v>
+      </c>
+      <c r="O22" t="s">
+        <v>17</v>
+      </c>
+      <c r="P22">
+        <v>0.0002467999999851145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>8.770478545642913</v>
+      </c>
+      <c r="D23">
+        <v>6.469315917477802</v>
+      </c>
+      <c r="E23">
+        <v>0.01558927485166555</v>
+      </c>
+      <c r="F23">
+        <v>10.03835742659414</v>
+      </c>
+      <c r="G23">
+        <v>8.794665152232364</v>
+      </c>
+      <c r="H23">
+        <v>6.328657346813756</v>
+      </c>
+      <c r="I23">
+        <v>8.886792062587165</v>
+      </c>
+      <c r="J23">
+        <v>15.23897862130467</v>
+      </c>
+      <c r="K23">
+        <v>8.888011296042167</v>
+      </c>
+      <c r="L23">
+        <v>15.10851305209706</v>
+      </c>
+      <c r="M23">
+        <v>0.09264556932493145</v>
+      </c>
+      <c r="N23">
+        <v>0.06953436289421178</v>
+      </c>
+      <c r="O23" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23">
+        <v>0.0002446999999961008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>37.52289672459167</v>
+      </c>
+      <c r="D24">
+        <v>8.78017274116039</v>
+      </c>
+      <c r="E24">
+        <v>0.02758497595955204</v>
+      </c>
+      <c r="F24">
+        <v>9.914039512755538</v>
+      </c>
+      <c r="G24">
+        <v>37.60427825173344</v>
+      </c>
+      <c r="H24">
+        <v>8.488738795283847</v>
+      </c>
+      <c r="I24">
+        <v>25.73745290239647</v>
+      </c>
+      <c r="J24">
+        <v>17.47349577797121</v>
+      </c>
+      <c r="K24">
+        <v>25.68490486206283</v>
+      </c>
+      <c r="L24">
+        <v>17.05282836914148</v>
+      </c>
+      <c r="M24">
+        <v>0.1012752695366778</v>
+      </c>
+      <c r="N24">
+        <v>0.1382765786266086</v>
+      </c>
+      <c r="O24" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24">
+        <v>0.0002346999999929267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="C25">
+        <v>93.11361909238606</v>
+      </c>
+      <c r="D25">
+        <v>14.36355124577777</v>
+      </c>
+      <c r="E25">
+        <v>359.799903583094</v>
+      </c>
+      <c r="F25">
+        <v>9.373471528261737</v>
+      </c>
+      <c r="G25">
+        <v>92.50372287550493</v>
+      </c>
+      <c r="H25">
+        <v>13.36726794813466</v>
+      </c>
+      <c r="I25">
+        <v>70.67112797219256</v>
+      </c>
+      <c r="J25">
+        <v>19.47923218856673</v>
+      </c>
+      <c r="K25">
+        <v>70.56367683775532</v>
+      </c>
+      <c r="L25">
+        <v>18.20033006848862</v>
+      </c>
+      <c r="M25">
+        <v>0.09646513353712452</v>
+      </c>
+      <c r="N25">
+        <v>0.3249393673867471</v>
+      </c>
+      <c r="O25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25">
+        <v>0.00021950000001425</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>172.8031146004653</v>
+      </c>
+      <c r="D26">
+        <v>11.39414459939491</v>
+      </c>
+      <c r="E26">
+        <v>359.6012363482052</v>
+      </c>
+      <c r="F26">
+        <v>9.834919719172149</v>
+      </c>
+      <c r="G26">
+        <v>172.4336309301041</v>
+      </c>
+      <c r="H26">
+        <v>11.20098543517618</v>
+      </c>
+      <c r="I26">
+        <v>154.9934456744326</v>
+      </c>
+      <c r="J26">
+        <v>6.82101990562933</v>
+      </c>
+      <c r="K26">
+        <v>154.8101271128349</v>
+      </c>
+      <c r="L26">
+        <v>6.747503157610297</v>
+      </c>
+      <c r="M26">
+        <v>0.1627732939228064</v>
+      </c>
+      <c r="N26">
+        <v>0.1154112496977972</v>
+      </c>
+      <c r="O26" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26">
+        <v>0.0002393999999981133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <v>156.6223445928981</v>
+      </c>
+      <c r="D27">
+        <v>9.987323144070718</v>
+      </c>
+      <c r="E27">
+        <v>359.9315180731002</v>
+      </c>
+      <c r="F27">
+        <v>9.7297264320946</v>
+      </c>
+      <c r="G27">
+        <v>156.6653407420778</v>
+      </c>
+      <c r="H27">
+        <v>9.638208053851974</v>
+      </c>
+      <c r="I27">
+        <v>121.4009088187373</v>
+      </c>
+      <c r="J27">
+        <v>6.942709063967283</v>
+      </c>
+      <c r="K27">
+        <v>121.4198703282965</v>
+      </c>
+      <c r="L27">
+        <v>6.726354629775163</v>
+      </c>
+      <c r="M27">
+        <v>0.1025640705715388</v>
+      </c>
+      <c r="N27">
+        <v>0.1451428794063082</v>
+      </c>
+      <c r="O27" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27">
+        <v>0.0002010999999981777</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>55.42829147249475</v>
+      </c>
+      <c r="D28">
+        <v>9.232697751663608</v>
+      </c>
+      <c r="E28">
+        <v>359.941202036502</v>
+      </c>
+      <c r="F28">
+        <v>9.797295610518155</v>
+      </c>
+      <c r="G28">
+        <v>55.15938696635364</v>
+      </c>
+      <c r="H28">
+        <v>9.0127317994958</v>
+      </c>
+      <c r="I28">
+        <v>36.9783150738388</v>
+      </c>
+      <c r="J28">
+        <v>17.11232764246076</v>
+      </c>
+      <c r="K28">
+        <v>36.91719942641713</v>
+      </c>
+      <c r="L28">
+        <v>16.70991150017832</v>
+      </c>
+      <c r="M28">
+        <v>0.08989878736141813</v>
+      </c>
+      <c r="N28">
+        <v>0.1207567837341792</v>
+      </c>
+      <c r="O28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28">
+        <v>0.0002683999999817388</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>76.62985389340125</v>
+      </c>
+      <c r="D29">
+        <v>12.77500488593463</v>
+      </c>
+      <c r="E29">
+        <v>359.6143183754303</v>
+      </c>
+      <c r="F29">
+        <v>9.642552790854833</v>
+      </c>
+      <c r="G29">
+        <v>75.94536427461887</v>
+      </c>
+      <c r="H29">
+        <v>12.4887955456409</v>
+      </c>
+      <c r="I29">
+        <v>55.80674075854401</v>
+      </c>
+      <c r="J29">
+        <v>19.44632462639266</v>
+      </c>
+      <c r="K29">
+        <v>55.7146030165249</v>
+      </c>
+      <c r="L29">
+        <v>18.93328432873003</v>
+      </c>
+      <c r="M29">
+        <v>0.1097599077915088</v>
+      </c>
+      <c r="N29">
+        <v>0.1401269411011277</v>
+      </c>
+      <c r="O29" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29">
+        <v>0.000217800000001489</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>10</v>
+      </c>
+      <c r="C30">
+        <v>131.2224736120414</v>
+      </c>
+      <c r="D30">
+        <v>9.734875227931694</v>
+      </c>
+      <c r="E30">
+        <v>359.866100286639</v>
+      </c>
+      <c r="F30">
+        <v>9.750126489977863</v>
+      </c>
+      <c r="G30">
+        <v>130.9506602020761</v>
+      </c>
+      <c r="H30">
+        <v>9.444884218293801</v>
+      </c>
+      <c r="I30">
+        <v>91.80924814573706</v>
+      </c>
+      <c r="J30">
+        <v>9.961999912823932</v>
+      </c>
+      <c r="K30">
+        <v>91.7380555789662</v>
+      </c>
+      <c r="L30">
+        <v>9.712310042028784</v>
+      </c>
+      <c r="M30">
+        <v>0.09297398265026828</v>
+      </c>
+      <c r="N30">
+        <v>0.140839390679944</v>
+      </c>
+      <c r="O30" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30">
+        <v>0.0002205999999773667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>155.4767974026149</v>
+      </c>
+      <c r="D31">
+        <v>6.418871582731521</v>
+      </c>
+      <c r="E31">
+        <v>0.1252446378913628</v>
+      </c>
+      <c r="F31">
+        <v>9.616721619405046</v>
+      </c>
+      <c r="G31">
+        <v>156.4719108605302</v>
+      </c>
+      <c r="H31">
+        <v>6.035990449157844</v>
+      </c>
+      <c r="I31">
+        <v>85.08185965409687</v>
+      </c>
+      <c r="J31">
+        <v>4.383667298314077</v>
+      </c>
+      <c r="K31">
+        <v>84.97072309542779</v>
+      </c>
+      <c r="L31">
+        <v>4.098726375973786</v>
+      </c>
+      <c r="M31">
+        <v>0.09569099305451942</v>
+      </c>
+      <c r="N31">
+        <v>0.3101195035907615</v>
+      </c>
+      <c r="O31" t="s">
+        <v>17</v>
+      </c>
+      <c r="P31">
+        <v>0.0002254999999991014</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>115.9458364923003</v>
+      </c>
+      <c r="D32">
+        <v>7.568981875621398</v>
+      </c>
+      <c r="E32">
+        <v>0.3792157994329175</v>
+      </c>
+      <c r="F32">
+        <v>9.276844179566234</v>
+      </c>
+      <c r="G32">
+        <v>116.7094378040665</v>
+      </c>
+      <c r="H32">
+        <v>6.628081169411712</v>
+      </c>
+      <c r="I32">
+        <v>69.94009040741105</v>
+      </c>
+      <c r="J32">
+        <v>9.94082687493656</v>
+      </c>
+      <c r="K32">
+        <v>69.69118088513854</v>
+      </c>
+      <c r="L32">
+        <v>8.889479900313166</v>
+      </c>
+      <c r="M32">
+        <v>0.1023359093451228</v>
+      </c>
+      <c r="N32">
+        <v>0.5683601271888221</v>
+      </c>
+      <c r="O32" t="s">
+        <v>19</v>
+      </c>
+      <c r="P32">
+        <v>0.0001977999999951408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>10</v>
+      </c>
+      <c r="C33">
+        <v>51.48968789889281</v>
+      </c>
+      <c r="D33">
+        <v>14.497266798228</v>
+      </c>
+      <c r="E33">
+        <v>0.124427164275475</v>
+      </c>
+      <c r="F33">
+        <v>9.513128863091957</v>
+      </c>
+      <c r="G33">
+        <v>50.89874843935547</v>
+      </c>
+      <c r="H33">
+        <v>13.59186629480727</v>
+      </c>
+      <c r="I33">
+        <v>39.0616009844012</v>
+      </c>
+      <c r="J33">
+        <v>23.45979414801152</v>
+      </c>
+      <c r="K33">
+        <v>38.8657730797263</v>
+      </c>
+      <c r="L33">
+        <v>22.06921867420332</v>
+      </c>
+      <c r="M33">
+        <v>0.09715216405327758</v>
+      </c>
+      <c r="N33">
+        <v>0.3186548232482113</v>
+      </c>
+      <c r="O33" t="s">
+        <v>17</v>
+      </c>
+      <c r="P33">
+        <v>0.00021359999999504</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>154.6000681127472</v>
+      </c>
+      <c r="D34">
+        <v>7.472533859703359</v>
+      </c>
+      <c r="E34">
+        <v>0.1046683352968264</v>
+      </c>
+      <c r="F34">
+        <v>9.411996150194003</v>
+      </c>
+      <c r="G34">
+        <v>155.5051624726623</v>
+      </c>
+      <c r="H34">
+        <v>6.820764664865967</v>
+      </c>
+      <c r="I34">
+        <v>98.12939238316436</v>
+      </c>
+      <c r="J34">
+        <v>5.067646835573846</v>
+      </c>
+      <c r="K34">
+        <v>98.10788865482461</v>
+      </c>
+      <c r="L34">
+        <v>4.627461938368168</v>
+      </c>
+      <c r="M34">
+        <v>0.09570102744263585</v>
+      </c>
+      <c r="N34">
+        <v>0.3908278969657261</v>
+      </c>
+      <c r="O34" t="s">
+        <v>17</v>
+      </c>
+      <c r="P34">
+        <v>0.000194800000002715</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35">
+        <v>44.73182293879139</v>
+      </c>
+      <c r="D35">
+        <v>8.399705052609546</v>
+      </c>
+      <c r="E35">
+        <v>0.09565605153243364</v>
+      </c>
+      <c r="F35">
+        <v>9.794577458955354</v>
+      </c>
+      <c r="G35">
+        <v>44.62502037759087</v>
+      </c>
+      <c r="H35">
+        <v>7.988553739588522</v>
+      </c>
+      <c r="I35">
+        <v>29.60621371940404</v>
+      </c>
+      <c r="J35">
+        <v>16.7283342947574</v>
+      </c>
+      <c r="K35">
+        <v>29.49834283885297</v>
+      </c>
+      <c r="L35">
+        <v>16.0861844058013</v>
+      </c>
+      <c r="M35">
+        <v>0.08883362933671071</v>
+      </c>
+      <c r="N35">
+        <v>0.2159868087767113</v>
+      </c>
+      <c r="O35" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35">
+        <v>0.0002552999999920758</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>6.941102558653737</v>
+      </c>
+      <c r="D36">
+        <v>12.3612055262961</v>
+      </c>
+      <c r="E36">
+        <v>359.9268494698117</v>
+      </c>
+      <c r="F36">
+        <v>9.842476075742182</v>
+      </c>
+      <c r="G36">
+        <v>6.858630845674907</v>
+      </c>
+      <c r="H36">
+        <v>12.08715200082161</v>
+      </c>
+      <c r="I36">
+        <v>7.633544320503938</v>
+      </c>
+      <c r="J36">
+        <v>22.30604591386155</v>
+      </c>
+      <c r="K36">
+        <v>7.611406195532191</v>
+      </c>
+      <c r="L36">
+        <v>21.81913486964029</v>
+      </c>
+      <c r="M36">
+        <v>0.08829257219271097</v>
+      </c>
+      <c r="N36">
+        <v>0.09940355284724478</v>
+      </c>
+      <c r="O36" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36">
+        <v>0.0002147999999806416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>82.4498906803363</v>
+      </c>
+      <c r="D37">
+        <v>6.70019528357894</v>
+      </c>
+      <c r="E37">
+        <v>0.5669210130263596</v>
+      </c>
+      <c r="F37">
+        <v>9.563858218639739</v>
+      </c>
+      <c r="G37">
+        <v>84.03663053852486</v>
+      </c>
+      <c r="H37">
+        <v>5.866864539562849</v>
+      </c>
+      <c r="I37">
+        <v>47.28302978168723</v>
+      </c>
+      <c r="J37">
+        <v>12.44155687331505</v>
+      </c>
+      <c r="K37">
+        <v>47.11458678724438</v>
+      </c>
+      <c r="L37">
+        <v>11.28298121546554</v>
+      </c>
+      <c r="M37">
+        <v>0.1232930839712367</v>
+      </c>
+      <c r="N37">
+        <v>0.5479168852064636</v>
+      </c>
+      <c r="O37" t="s">
+        <v>19</v>
+      </c>
+      <c r="P37">
+        <v>0.0002500999999881515</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>131.1312944872306</v>
+      </c>
+      <c r="D38">
+        <v>10.21937054844256</v>
+      </c>
+      <c r="E38">
+        <v>359.7970760202737</v>
+      </c>
+      <c r="F38">
+        <v>9.58361974283749</v>
+      </c>
+      <c r="G38">
+        <v>130.749273102311</v>
+      </c>
+      <c r="H38">
+        <v>9.706155503392036</v>
+      </c>
+      <c r="I38">
+        <v>93.75460165970797</v>
+      </c>
+      <c r="J38">
+        <v>10.42956719317792</v>
+      </c>
+      <c r="K38">
+        <v>93.65150533056594</v>
+      </c>
+      <c r="L38">
+        <v>9.98052236527586</v>
+      </c>
+      <c r="M38">
+        <v>0.1150811140039931</v>
+      </c>
+      <c r="N38">
+        <v>0.2326324936485236</v>
+      </c>
+      <c r="O38" t="s">
+        <v>17</v>
+      </c>
+      <c r="P38">
+        <v>0.000216899999998077</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>170.0093885143152</v>
+      </c>
+      <c r="D39">
+        <v>8.569178091652891</v>
+      </c>
+      <c r="E39">
+        <v>0.01633908370124642</v>
+      </c>
+      <c r="F39">
+        <v>9.736392714585097</v>
+      </c>
+      <c r="G39">
+        <v>170.3438469106704</v>
+      </c>
+      <c r="H39">
+        <v>8.260634629649902</v>
+      </c>
+      <c r="I39">
+        <v>132.8794796020886</v>
+      </c>
+      <c r="J39">
+        <v>4.031761962137695</v>
+      </c>
+      <c r="K39">
+        <v>133.0833642771433</v>
+      </c>
+      <c r="L39">
+        <v>3.882941667457339</v>
+      </c>
+      <c r="M39">
+        <v>0.0896633559794577</v>
+      </c>
+      <c r="N39">
+        <v>0.2108680633348219</v>
+      </c>
+      <c r="O39" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39">
+        <v>0.0002027000000168755</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>10</v>
+      </c>
+      <c r="C40">
+        <v>69.25916151301388</v>
+      </c>
+      <c r="D40">
+        <v>13.31649415908743</v>
+      </c>
+      <c r="E40">
+        <v>359.697388305565</v>
+      </c>
+      <c r="F40">
+        <v>9.711798423433011</v>
+      </c>
+      <c r="G40">
+        <v>68.7820867958478</v>
+      </c>
+      <c r="H40">
+        <v>13.05796314952717</v>
+      </c>
+      <c r="I40">
+        <v>51.01422188754402</v>
+      </c>
+      <c r="J40">
+        <v>20.73148308181667</v>
+      </c>
+      <c r="K40">
+        <v>50.93118465535362</v>
+      </c>
+      <c r="L40">
+        <v>20.25592472527261</v>
+      </c>
+      <c r="M40">
+        <v>0.1058898772971739</v>
+      </c>
+      <c r="N40">
+        <v>0.1194536135686556</v>
+      </c>
+      <c r="O40" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40">
+        <v>0.0002257000000156495</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>98.44004810616384</v>
+      </c>
+      <c r="D41">
+        <v>12.57478825539126</v>
+      </c>
+      <c r="E41">
+        <v>359.5785481301934</v>
+      </c>
+      <c r="F41">
+        <v>9.58892330081164</v>
+      </c>
+      <c r="G41">
+        <v>97.63028648379687</v>
+      </c>
+      <c r="H41">
+        <v>12.15295111525617</v>
+      </c>
+      <c r="I41">
+        <v>72.19761816275663</v>
+      </c>
+      <c r="J41">
+        <v>16.90630795593209</v>
+      </c>
+      <c r="K41">
+        <v>72.06004345913097</v>
+      </c>
+      <c r="L41">
+        <v>16.34923516607252</v>
+      </c>
+      <c r="M41">
+        <v>0.1229584424444146</v>
+      </c>
+      <c r="N41">
+        <v>0.1934210180565141</v>
+      </c>
+      <c r="O41" t="s">
+        <v>16</v>
+      </c>
+      <c r="P41">
+        <v>0.0002139999999997144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42">
+        <v>73.3836650544515</v>
+      </c>
+      <c r="D42">
+        <v>3.664392481342321</v>
+      </c>
+      <c r="E42">
+        <v>0.1822643091633721</v>
+      </c>
+      <c r="F42">
+        <v>9.897344794021503</v>
+      </c>
+      <c r="G42">
+        <v>74.45114958843635</v>
+      </c>
+      <c r="H42">
+        <v>3.454810377617403</v>
+      </c>
+      <c r="I42">
+        <v>31.92625942098924</v>
+      </c>
+      <c r="J42">
+        <v>10.18120494273455</v>
+      </c>
+      <c r="K42">
+        <v>31.76335147689169</v>
+      </c>
+      <c r="L42">
+        <v>9.870566334893457</v>
+      </c>
+      <c r="M42">
+        <v>0.09193123705455715</v>
+      </c>
+      <c r="N42">
+        <v>0.2612513169331682</v>
+      </c>
+      <c r="O42" t="s">
+        <v>17</v>
+      </c>
+      <c r="P42">
+        <v>0.0002216999999973268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>10</v>
+      </c>
+      <c r="C43">
+        <v>45.16625227408922</v>
+      </c>
+      <c r="D43">
+        <v>3.553149848071341</v>
+      </c>
+      <c r="E43">
+        <v>0.08121369692019792</v>
+      </c>
+      <c r="F43">
+        <v>9.889987632814512</v>
+      </c>
+      <c r="G43">
+        <v>45.50350566517014</v>
+      </c>
+      <c r="H43">
+        <v>3.344593737753049</v>
+      </c>
+      <c r="I43">
+        <v>21.98281729864149</v>
+      </c>
+      <c r="J43">
+        <v>11.20442922515501</v>
+      </c>
+      <c r="K43">
+        <v>21.86340257487623</v>
+      </c>
+      <c r="L43">
+        <v>10.86825489090648</v>
+      </c>
+      <c r="M43">
+        <v>0.09122825973962934</v>
+      </c>
+      <c r="N43">
+        <v>0.2350314828716729</v>
+      </c>
+      <c r="O43" t="s">
+        <v>17</v>
+      </c>
+      <c r="P43">
+        <v>0.0002086000000076638</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>67.41722139252525</v>
+      </c>
+      <c r="D44">
+        <v>14.40857167691899</v>
+      </c>
+      <c r="E44">
+        <v>359.8509857540967</v>
+      </c>
+      <c r="F44">
+        <v>9.613586046510679</v>
+      </c>
+      <c r="G44">
+        <v>67.00839533223119</v>
+      </c>
+      <c r="H44">
+        <v>13.81903643758325</v>
+      </c>
+      <c r="I44">
+        <v>50.70287428680181</v>
+      </c>
+      <c r="J44">
+        <v>22.14193003827787</v>
+      </c>
+      <c r="K44">
+        <v>50.6119902076062</v>
+      </c>
+      <c r="L44">
+        <v>21.23392730588121</v>
+      </c>
+      <c r="M44">
+        <v>0.09521331772070837</v>
+      </c>
+      <c r="N44">
+        <v>0.2035778045138986</v>
+      </c>
+      <c r="O44" t="s">
+        <v>16</v>
+      </c>
+      <c r="P44">
+        <v>0.0002288000000021384</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>20.70982195016021</v>
+      </c>
+      <c r="D45">
+        <v>10.30879847135378</v>
+      </c>
+      <c r="E45">
+        <v>359.9227800223966</v>
+      </c>
+      <c r="F45">
+        <v>9.716929845007586</v>
+      </c>
+      <c r="G45">
+        <v>20.25159902087643</v>
+      </c>
+      <c r="H45">
+        <v>10.18595883515967</v>
+      </c>
+      <c r="I45">
+        <v>16.3064939917049</v>
+      </c>
+      <c r="J45">
+        <v>19.74929820405307</v>
+      </c>
+      <c r="K45">
+        <v>16.18232503230304</v>
+      </c>
+      <c r="L45">
+        <v>19.33411791832567</v>
+      </c>
+      <c r="M45">
+        <v>0.09056565966668094</v>
+      </c>
+      <c r="N45">
+        <v>0.1073253675881632</v>
+      </c>
+      <c r="O45" t="s">
+        <v>16</v>
+      </c>
+      <c r="P45">
+        <v>0.0002167000000099506</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>150.2715867598169</v>
+      </c>
+      <c r="D46">
+        <v>4.257553252438437</v>
+      </c>
+      <c r="E46">
+        <v>0.2251844151767598</v>
+      </c>
+      <c r="F46">
+        <v>9.818895372383754</v>
+      </c>
+      <c r="G46">
+        <v>152.6348136845646</v>
+      </c>
+      <c r="H46">
+        <v>4.133731033792258</v>
+      </c>
+      <c r="I46">
+        <v>51.49320715697708</v>
+      </c>
+      <c r="J46">
+        <v>4.733318900759217</v>
+      </c>
+      <c r="K46">
+        <v>51.28276513064768</v>
+      </c>
+      <c r="L46">
+        <v>4.471916748405987</v>
+      </c>
+      <c r="M46">
+        <v>0.09843571589682705</v>
+      </c>
+      <c r="N46">
+        <v>0.2764418527836812</v>
+      </c>
+      <c r="O46" t="s">
+        <v>17</v>
+      </c>
+      <c r="P46">
+        <v>0.0001909000000068772</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>178.022072425608</v>
+      </c>
+      <c r="D47">
+        <v>9.594536722136706</v>
+      </c>
+      <c r="E47">
+        <v>359.9920875681452</v>
+      </c>
+      <c r="F47">
+        <v>9.933683611863835</v>
+      </c>
+      <c r="G47">
+        <v>178.092451464555</v>
+      </c>
+      <c r="H47">
+        <v>9.514167746087239</v>
+      </c>
+      <c r="I47">
+        <v>159.1796698056864</v>
+      </c>
+      <c r="J47">
+        <v>4.410985878453859</v>
+      </c>
+      <c r="K47">
+        <v>159.2709889047272</v>
+      </c>
+      <c r="L47">
+        <v>4.376677941159154</v>
+      </c>
+      <c r="M47">
+        <v>0.08572316305232248</v>
+      </c>
+      <c r="N47">
+        <v>0.05849365385242109</v>
+      </c>
+      <c r="O47" t="s">
+        <v>16</v>
+      </c>
+      <c r="P47">
+        <v>0.0001959999999883166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>141.0898231450351</v>
+      </c>
+      <c r="D48">
+        <v>10.61800447263276</v>
+      </c>
+      <c r="E48">
+        <v>359.8245372480388</v>
+      </c>
+      <c r="F48">
+        <v>9.663963190665793</v>
+      </c>
+      <c r="G48">
+        <v>140.8749454234865</v>
+      </c>
+      <c r="H48">
+        <v>10.1835860156597</v>
+      </c>
+      <c r="I48">
+        <v>105.4244541290951</v>
+      </c>
+      <c r="J48">
+        <v>9.516228537064677</v>
+      </c>
+      <c r="K48">
+        <v>105.3659052164911</v>
+      </c>
+      <c r="L48">
+        <v>9.1802180152395</v>
+      </c>
+      <c r="M48">
+        <v>0.105930911550231</v>
+      </c>
+      <c r="N48">
+        <v>0.181141307485588</v>
+      </c>
+      <c r="O48" t="s">
+        <v>16</v>
+      </c>
+      <c r="P48">
+        <v>0.0001880000000085147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>10</v>
+      </c>
+      <c r="C49">
+        <v>20.42792494085692</v>
+      </c>
+      <c r="D49">
+        <v>14.69379713323748</v>
+      </c>
+      <c r="E49">
+        <v>0.2544028427298431</v>
+      </c>
+      <c r="F49">
+        <v>9.920593543172455</v>
+      </c>
+      <c r="G49">
+        <v>20.2668225841321</v>
+      </c>
+      <c r="H49">
+        <v>13.67876382117704</v>
+      </c>
+      <c r="I49">
+        <v>17.03401812828383</v>
+      </c>
+      <c r="J49">
+        <v>25.00422823336124</v>
+      </c>
+      <c r="K49">
+        <v>16.90657429569512</v>
+      </c>
+      <c r="L49">
+        <v>23.72793797626927</v>
+      </c>
+      <c r="M49">
+        <v>0.09465110026137107</v>
+      </c>
+      <c r="N49">
+        <v>0.2936577311485587</v>
+      </c>
+      <c r="O49" t="s">
+        <v>17</v>
+      </c>
+      <c r="P49">
+        <v>0.0001932999999780805</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>10</v>
+      </c>
+      <c r="C50">
+        <v>3.148248767607473</v>
+      </c>
+      <c r="D50">
+        <v>13.6988792061631</v>
+      </c>
+      <c r="E50">
+        <v>0.2980893959785312</v>
+      </c>
+      <c r="F50">
+        <v>10.2788678373728</v>
+      </c>
+      <c r="G50">
+        <v>2.518825880601402</v>
+      </c>
+      <c r="H50">
+        <v>12.26352018661686</v>
+      </c>
+      <c r="I50">
+        <v>4.979091423193565</v>
+      </c>
+      <c r="J50">
+        <v>23.88762442334499</v>
+      </c>
+      <c r="K50">
+        <v>4.781392262394874</v>
+      </c>
+      <c r="L50">
+        <v>22.44247237720457</v>
+      </c>
+      <c r="M50">
+        <v>0.1006140728245527</v>
+      </c>
+      <c r="N50">
+        <v>0.4279385190833682</v>
+      </c>
+      <c r="O50" t="s">
+        <v>19</v>
+      </c>
+      <c r="P50">
+        <v>0.0004925000000071122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>54.17360205406462</v>
+      </c>
+      <c r="D51">
+        <v>5.964741983541773</v>
+      </c>
+      <c r="E51">
+        <v>0.312947723461975</v>
+      </c>
+      <c r="F51">
+        <v>9.791233434936101</v>
+      </c>
+      <c r="G51">
+        <v>54.6233627152979</v>
+      </c>
+      <c r="H51">
+        <v>5.444346574237427</v>
+      </c>
+      <c r="I51">
+        <v>31.07252442683621</v>
+      </c>
+      <c r="J51">
+        <v>13.5120365339658</v>
+      </c>
+      <c r="K51">
+        <v>30.87373398336984</v>
+      </c>
+      <c r="L51">
+        <v>12.76607136447076</v>
+      </c>
+      <c r="M51">
+        <v>0.09159320090336087</v>
+      </c>
+      <c r="N51">
+        <v>0.3710671815147721</v>
+      </c>
+      <c r="O51" t="s">
+        <v>17</v>
+      </c>
+      <c r="P51">
+        <v>0.0002451999999948384</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>10</v>
+      </c>
+      <c r="C52">
+        <v>89.02829619684385</v>
+      </c>
+      <c r="D52">
+        <v>5.736997253392035</v>
+      </c>
+      <c r="E52">
+        <v>0.4681056326050967</v>
+      </c>
+      <c r="F52">
+        <v>9.605603302980237</v>
+      </c>
+      <c r="G52">
+        <v>90.65220546669042</v>
+      </c>
+      <c r="H52">
+        <v>5.104776808531214</v>
+      </c>
+      <c r="I52">
+        <v>47.03792036458195</v>
+      </c>
+      <c r="J52">
+        <v>11.00547523311644</v>
+      </c>
+      <c r="K52">
+        <v>46.82356452761444</v>
+      </c>
+      <c r="L52">
+        <v>10.11212225267816</v>
+      </c>
+      <c r="M52">
+        <v>0.1094910312906604</v>
+      </c>
+      <c r="N52">
+        <v>0.5049773219474621</v>
+      </c>
+      <c r="O52" t="s">
+        <v>19</v>
+      </c>
+      <c r="P52">
+        <v>0.0002258000000097127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>10</v>
+      </c>
+      <c r="C53">
+        <v>121.6316547906394</v>
+      </c>
+      <c r="D53">
+        <v>3.536546186435352</v>
+      </c>
+      <c r="E53">
+        <v>0.08715095200459153</v>
+      </c>
+      <c r="F53">
+        <v>9.844047515832861</v>
+      </c>
+      <c r="G53">
+        <v>122.253964960892</v>
+      </c>
+      <c r="H53">
+        <v>3.410381739946817</v>
+      </c>
+      <c r="I53">
+        <v>42.84508415968962</v>
+      </c>
+      <c r="J53">
+        <v>7.034854823508725</v>
+      </c>
+      <c r="K53">
+        <v>42.65238844144344</v>
+      </c>
+      <c r="L53">
+        <v>6.85763536240957</v>
+      </c>
+      <c r="M53">
+        <v>0.08963342540766889</v>
+      </c>
+      <c r="N53">
+        <v>0.1949039343275328</v>
+      </c>
+      <c r="O53" t="s">
+        <v>16</v>
+      </c>
+      <c r="P53">
+        <v>0.0002294999999890024</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>10</v>
+      </c>
+      <c r="C54">
+        <v>148.1598613277625</v>
+      </c>
+      <c r="D54">
+        <v>3.313415778838408</v>
+      </c>
+      <c r="E54">
+        <v>359.8441572478157</v>
+      </c>
+      <c r="F54">
+        <v>10.03699885928985</v>
+      </c>
+      <c r="G54">
+        <v>146.2562422830702</v>
+      </c>
+      <c r="H54">
+        <v>3.320645827224541</v>
+      </c>
+      <c r="I54">
+        <v>39.20823517402567</v>
+      </c>
+      <c r="J54">
+        <v>5.169813417634993</v>
+      </c>
+      <c r="K54">
+        <v>39.25788077760094</v>
+      </c>
+      <c r="L54">
+        <v>5.304286453574939</v>
+      </c>
+      <c r="M54">
+        <v>0.08492713055795748</v>
+      </c>
+      <c r="N54">
+        <v>0.1088090043877463</v>
+      </c>
+      <c r="O54" t="s">
+        <v>16</v>
+      </c>
+      <c r="P54">
+        <v>0.0002459999999757656</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>152.3992332978241</v>
+      </c>
+      <c r="D55">
+        <v>9.733986483180409</v>
+      </c>
+      <c r="E55">
+        <v>359.9382405399448</v>
+      </c>
+      <c r="F55">
+        <v>9.539874018919221</v>
+      </c>
+      <c r="G55">
+        <v>152.51999851545</v>
+      </c>
+      <c r="H55">
+        <v>9.142947060601735</v>
+      </c>
+      <c r="I55">
+        <v>114.2699214848488</v>
+      </c>
+      <c r="J55">
+        <v>7.220398177179498</v>
+      </c>
+      <c r="K55">
+        <v>114.3030727837671</v>
+      </c>
+      <c r="L55">
+        <v>6.827950440582812</v>
+      </c>
+      <c r="M55">
+        <v>0.1068602907328699</v>
+      </c>
+      <c r="N55">
+        <v>0.253692580865505</v>
+      </c>
+      <c r="O55" t="s">
+        <v>17</v>
+      </c>
+      <c r="P55">
+        <v>0.0002048999999999523</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>75.6329340853393</v>
+      </c>
+      <c r="D56">
+        <v>7.358873963581027</v>
+      </c>
+      <c r="E56">
+        <v>0.5556632233838706</v>
+      </c>
+      <c r="F56">
+        <v>9.532027947845505</v>
+      </c>
+      <c r="G56">
+        <v>76.49947101168381</v>
+      </c>
+      <c r="H56">
+        <v>6.449331242765003</v>
+      </c>
+      <c r="I56">
+        <v>45.4456541921149</v>
+      </c>
+      <c r="J56">
+        <v>13.64739445873363</v>
+      </c>
+      <c r="K56">
+        <v>45.21686132619855</v>
+      </c>
+      <c r="L56">
+        <v>12.3816757916461</v>
+      </c>
+      <c r="M56">
+        <v>0.1078698727424869</v>
+      </c>
+      <c r="N56">
+        <v>0.5424307583298739</v>
+      </c>
+      <c r="O56" t="s">
+        <v>19</v>
+      </c>
+      <c r="P56">
+        <v>0.0002093000000229495</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>10</v>
+      </c>
+      <c r="C57">
+        <v>16.75949160093444</v>
+      </c>
+      <c r="D57">
+        <v>14.65987103987745</v>
+      </c>
+      <c r="E57">
+        <v>0.4871193343902016</v>
+      </c>
+      <c r="F57">
+        <v>10.13956467911687</v>
+      </c>
+      <c r="G57">
+        <v>16.67528670610409</v>
+      </c>
+      <c r="H57">
+        <v>13.17217238031967</v>
+      </c>
+      <c r="I57">
+        <v>14.44966940927695</v>
+      </c>
+      <c r="J57">
+        <v>25.01968713371055</v>
+      </c>
+      <c r="K57">
+        <v>14.33597580176066</v>
+      </c>
+      <c r="L57">
+        <v>23.39316990591421</v>
+      </c>
+      <c r="M57">
+        <v>0.1053156223498116</v>
+      </c>
+      <c r="N57">
+        <v>0.3925802315961993</v>
+      </c>
+      <c r="O57" t="s">
+        <v>19</v>
+      </c>
+      <c r="P57">
+        <v>0.0001977999999951408</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>177.1545330976638</v>
+      </c>
+      <c r="D58">
+        <v>7.00094719217584</v>
+      </c>
+      <c r="E58">
+        <v>0.3112929526507688</v>
+      </c>
+      <c r="F58">
+        <v>9.21032284312739</v>
+      </c>
+      <c r="G58">
+        <v>179.6794154318082</v>
+      </c>
+      <c r="H58">
+        <v>6.227345879437812</v>
+      </c>
+      <c r="I58">
+        <v>122.3917356254008</v>
+      </c>
+      <c r="J58">
+        <v>1.88002910171164</v>
+      </c>
+      <c r="K58">
+        <v>124.8473437143332</v>
+      </c>
+      <c r="L58">
+        <v>1.538127621892079</v>
+      </c>
+      <c r="M58">
+        <v>0.2268738761015888</v>
+      </c>
+      <c r="N58">
+        <v>1.256372340514347</v>
+      </c>
+      <c r="O58" t="s">
+        <v>18</v>
+      </c>
+      <c r="P58">
+        <v>0.0001972999999964031</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>15.72293572239151</v>
+      </c>
+      <c r="D59">
+        <v>5.765725194620736</v>
+      </c>
+      <c r="E59">
+        <v>0.03931564720407376</v>
+      </c>
+      <c r="F59">
+        <v>9.828581911720072</v>
+      </c>
+      <c r="G59">
+        <v>15.16918602139839</v>
+      </c>
+      <c r="H59">
+        <v>5.683621387099683</v>
+      </c>
+      <c r="I59">
+        <v>12.23519148406908</v>
+      </c>
+      <c r="J59">
+        <v>14.37002887945796</v>
+      </c>
+      <c r="K59">
+        <v>12.11788306651994</v>
+      </c>
+      <c r="L59">
+        <v>14.10931095391512</v>
+      </c>
+      <c r="M59">
+        <v>0.09989958710111943</v>
+      </c>
+      <c r="N59">
+        <v>0.1090094175179814</v>
+      </c>
+      <c r="O59" t="s">
+        <v>16</v>
+      </c>
+      <c r="P59">
+        <v>0.0002245000000016262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>10</v>
+      </c>
+      <c r="C60">
+        <v>65.7190049440849</v>
+      </c>
+      <c r="D60">
+        <v>8.414470990720055</v>
+      </c>
+      <c r="E60">
+        <v>0.228055843852356</v>
+      </c>
+      <c r="F60">
+        <v>9.589634670420347</v>
+      </c>
+      <c r="G60">
+        <v>65.34024307923976</v>
+      </c>
+      <c r="H60">
+        <v>7.793504452716982</v>
+      </c>
+      <c r="I60">
+        <v>41.96631688030001</v>
+      </c>
+      <c r="J60">
+        <v>15.51473424919647</v>
+      </c>
+      <c r="K60">
+        <v>41.75419046392284</v>
+      </c>
+      <c r="L60">
+        <v>14.57785490945301</v>
+      </c>
+      <c r="M60">
+        <v>0.08945066323006916</v>
+      </c>
+      <c r="N60">
+        <v>0.3476383284029886</v>
+      </c>
+      <c r="O60" t="s">
+        <v>17</v>
+      </c>
+      <c r="P60">
+        <v>0.0002173000000027514</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
+      <c r="A61">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>166.3263208033966</v>
+      </c>
+      <c r="D61">
+        <v>4.894446966417504</v>
+      </c>
+      <c r="E61">
+        <v>0.5007850564184159</v>
+      </c>
+      <c r="F61">
+        <v>9.441978683149827</v>
+      </c>
+      <c r="G61">
+        <v>171.1020594520938</v>
+      </c>
+      <c r="H61">
+        <v>4.563113427672152</v>
+      </c>
+      <c r="I61">
+        <v>56.76408976169788</v>
+      </c>
+      <c r="J61">
+        <v>3.059300117780022</v>
+      </c>
+      <c r="K61">
+        <v>56.01891693147778</v>
+      </c>
+      <c r="L61">
+        <v>2.532419184518248</v>
+      </c>
+      <c r="M61">
+        <v>0.1385956320270744</v>
+      </c>
+      <c r="N61">
+        <v>0.7619640291311094</v>
+      </c>
+      <c r="O61" t="s">
+        <v>18</v>
+      </c>
+      <c r="P61">
+        <v>0.0002338999999835778</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>54.15719940839138</v>
+      </c>
+      <c r="D62">
+        <v>5.243349796102536</v>
+      </c>
+      <c r="E62">
+        <v>0.2765312979639231</v>
+      </c>
+      <c r="F62">
+        <v>9.921005937427926</v>
+      </c>
+      <c r="G62">
+        <v>55.34268563669482</v>
+      </c>
+      <c r="H62">
+        <v>4.824552669318862</v>
+      </c>
+      <c r="I62">
+        <v>29.53509225686502</v>
+      </c>
+      <c r="J62">
+        <v>12.72106643331113</v>
+      </c>
+      <c r="K62">
+        <v>29.4392641898636</v>
+      </c>
+      <c r="L62">
+        <v>12.16796564569772</v>
+      </c>
+      <c r="M62">
+        <v>0.1060890463951862</v>
+      </c>
+      <c r="N62">
+        <v>0.3257395134055851</v>
+      </c>
+      <c r="O62" t="s">
+        <v>17</v>
+      </c>
+      <c r="P62">
+        <v>0.0002024000000062642</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>10</v>
+      </c>
+      <c r="C63">
+        <v>148.4045056643907</v>
+      </c>
+      <c r="D63">
+        <v>5.176196789966397</v>
+      </c>
+      <c r="E63">
+        <v>0.129448665467937</v>
+      </c>
+      <c r="F63">
+        <v>9.780385273473147</v>
+      </c>
+      <c r="G63">
+        <v>149.4782587691447</v>
+      </c>
+      <c r="H63">
+        <v>4.984589013121038</v>
+      </c>
+      <c r="I63">
+        <v>64.68552660313826</v>
+      </c>
+      <c r="J63">
+        <v>4.894765047516295</v>
+      </c>
+      <c r="K63">
+        <v>64.57136738482305</v>
+      </c>
+      <c r="L63">
+        <v>4.684146912243404</v>
+      </c>
+      <c r="M63">
+        <v>0.09676378829960797</v>
+      </c>
+      <c r="N63">
+        <v>0.2196418130781948</v>
+      </c>
+      <c r="O63" t="s">
+        <v>16</v>
+      </c>
+      <c r="P63">
+        <v>0.0001986000000044896</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>10</v>
+      </c>
+      <c r="C64">
+        <v>6.075847876177498</v>
+      </c>
+      <c r="D64">
+        <v>8.869290095587015</v>
+      </c>
+      <c r="E64">
+        <v>0.003697627891110895</v>
+      </c>
+      <c r="F64">
+        <v>9.99255398137784</v>
+      </c>
+      <c r="G64">
+        <v>5.94696747863879</v>
+      </c>
+      <c r="H64">
+        <v>8.634000511692596</v>
+      </c>
+      <c r="I64">
+        <v>7.285415246674767</v>
+      </c>
+      <c r="J64">
+        <v>18.11323190547886</v>
+      </c>
+      <c r="K64">
+        <v>7.234765954638839</v>
+      </c>
+      <c r="L64">
+        <v>17.82313196750839</v>
+      </c>
+      <c r="M64">
+        <v>0.08163385155979733</v>
+      </c>
+      <c r="N64">
+        <v>0.1088989457195535</v>
+      </c>
+      <c r="O64" t="s">
+        <v>16</v>
+      </c>
+      <c r="P64">
+        <v>0.0002353999999797907</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
+      <c r="A65">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="C65">
+        <v>99.70938405010556</v>
+      </c>
+      <c r="D65">
+        <v>7.7549747244644</v>
+      </c>
+      <c r="E65">
+        <v>0.6416935960554256</v>
+      </c>
+      <c r="F65">
+        <v>9.256721987304047</v>
+      </c>
+      <c r="G65">
+        <v>100.9036296108425</v>
+      </c>
+      <c r="H65">
+        <v>6.590470368343167</v>
+      </c>
+      <c r="I65">
+        <v>60.6583617383578</v>
+      </c>
+      <c r="J65">
+        <v>11.86528034063046</v>
+      </c>
+      <c r="K65">
+        <v>60.35963106127687</v>
+      </c>
+      <c r="L65">
+        <v>10.40090611671565</v>
+      </c>
+      <c r="M65">
+        <v>0.1225250042282168</v>
+      </c>
+      <c r="N65">
+        <v>0.6856389693361193</v>
+      </c>
+      <c r="O65" t="s">
+        <v>18</v>
+      </c>
+      <c r="P65">
+        <v>0.0001967000000036023</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
+      <c r="A66">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>68.23773457807862</v>
+      </c>
+      <c r="D66">
+        <v>9.805178006155369</v>
+      </c>
+      <c r="E66">
+        <v>359.6699031182305</v>
+      </c>
+      <c r="F66">
+        <v>9.792335281109054</v>
+      </c>
+      <c r="G66">
+        <v>67.45661736498928</v>
+      </c>
+      <c r="H66">
+        <v>9.843420404399353</v>
+      </c>
+      <c r="I66">
+        <v>45.8459076388655</v>
+      </c>
+      <c r="J66">
+        <v>16.86218162216168</v>
+      </c>
+      <c r="K66">
+        <v>45.7707373622011</v>
+      </c>
+      <c r="L66">
+        <v>16.77970724473257</v>
+      </c>
+      <c r="M66">
+        <v>0.1159271728818972</v>
+      </c>
+      <c r="N66">
+        <v>0.05622287114667683</v>
+      </c>
+      <c r="O66" t="s">
+        <v>16</v>
+      </c>
+      <c r="P66">
+        <v>0.0001923000000090269</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
+      <c r="A67">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>10</v>
+      </c>
+      <c r="C67">
+        <v>39.35610902649709</v>
+      </c>
+      <c r="D67">
+        <v>3.376832634030967</v>
+      </c>
+      <c r="E67">
+        <v>0.2500994469398075</v>
+      </c>
+      <c r="F67">
+        <v>9.963442624195247</v>
+      </c>
+      <c r="G67">
+        <v>40.36507803872092</v>
+      </c>
+      <c r="H67">
+        <v>3.015926793801485</v>
+      </c>
+      <c r="I67">
+        <v>19.57687427078943</v>
+      </c>
+      <c r="J67">
+        <v>11.16212898988536</v>
+      </c>
+      <c r="K67">
+        <v>19.3976025291358</v>
+      </c>
+      <c r="L67">
+        <v>10.71259044843928</v>
+      </c>
+      <c r="M67">
+        <v>0.094767740079244</v>
+      </c>
+      <c r="N67">
+        <v>0.4043573144319267</v>
+      </c>
+      <c r="O67" t="s">
+        <v>19</v>
+      </c>
+      <c r="P67">
+        <v>0.0001963999999929911</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
+      <c r="A68">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>10</v>
+      </c>
+      <c r="C68">
+        <v>27.77176406362965</v>
+      </c>
+      <c r="D68">
+        <v>4.604394728400791</v>
+      </c>
+      <c r="E68">
+        <v>359.5753156907807</v>
+      </c>
+      <c r="F68">
+        <v>9.643376220876078</v>
+      </c>
+      <c r="G68">
+        <v>26.38035570473246</v>
+      </c>
+      <c r="H68">
+        <v>5.069871802477842</v>
+      </c>
+      <c r="I68">
+        <v>16.96964631110587</v>
+      </c>
+      <c r="J68">
+        <v>12.83113260813786</v>
+      </c>
+      <c r="K68">
+        <v>16.94784264641572</v>
+      </c>
+      <c r="L68">
+        <v>13.04352203888732</v>
+      </c>
+      <c r="M68">
+        <v>0.1059189491773683</v>
+      </c>
+      <c r="N68">
+        <v>0.3205591125935552</v>
+      </c>
+      <c r="O68" t="s">
+        <v>19</v>
+      </c>
+      <c r="P68">
+        <v>0.0002040999999906035</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
+      <c r="A69">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>98.25325738829615</v>
+      </c>
+      <c r="D69">
+        <v>13.30627932709631</v>
+      </c>
+      <c r="E69">
+        <v>359.6614433543339</v>
+      </c>
+      <c r="F69">
+        <v>9.513495542509997</v>
+      </c>
+      <c r="G69">
+        <v>97.45263647676504</v>
+      </c>
+      <c r="H69">
+        <v>12.69670460792738</v>
+      </c>
+      <c r="I69">
+        <v>73.30159050095429</v>
+      </c>
+      <c r="J69">
+        <v>17.71985515776622</v>
+      </c>
+      <c r="K69">
+        <v>73.12503250497677</v>
+      </c>
+      <c r="L69">
+        <v>16.95150091771451</v>
+      </c>
+      <c r="M69">
+        <v>0.1149384008070407</v>
+      </c>
+      <c r="N69">
+        <v>0.2509513359816637</v>
+      </c>
+      <c r="O69" t="s">
+        <v>16</v>
+      </c>
+      <c r="P69">
+        <v>0.0002177000000074258</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
+      <c r="A70">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>10</v>
+      </c>
+      <c r="C70">
+        <v>46.68686459071981</v>
+      </c>
+      <c r="D70">
+        <v>3.520332613942803</v>
+      </c>
+      <c r="E70">
+        <v>0.2833429093115037</v>
+      </c>
+      <c r="F70">
+        <v>9.941031375533534</v>
+      </c>
+      <c r="G70">
+        <v>48.91820563354756</v>
+      </c>
+      <c r="H70">
+        <v>3.044990938609521</v>
+      </c>
+      <c r="I70">
+        <v>22.43075918953557</v>
+      </c>
+      <c r="J70">
+        <v>11.12306944814092</v>
+      </c>
+      <c r="K70">
+        <v>22.22474158519661</v>
+      </c>
+      <c r="L70">
+        <v>10.50625169772841</v>
+      </c>
+      <c r="M70">
+        <v>0.1010662517108924</v>
+      </c>
+      <c r="N70">
+        <v>0.5372798431661465</v>
+      </c>
+      <c r="O70" t="s">
+        <v>19</v>
+      </c>
+      <c r="P70">
+        <v>0.0001948999999967782</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
+      <c r="A71">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>53.32484910103803</v>
+      </c>
+      <c r="D71">
+        <v>12.70881258807992</v>
+      </c>
+      <c r="E71">
+        <v>359.7253478704356</v>
+      </c>
+      <c r="F71">
+        <v>9.558739214898628</v>
+      </c>
+      <c r="G71">
+        <v>52.539380770272</v>
+      </c>
+      <c r="H71">
+        <v>12.39190374874219</v>
+      </c>
+      <c r="I71">
+        <v>39.09766949772915</v>
+      </c>
+      <c r="J71">
+        <v>21.2511977384674</v>
+      </c>
+      <c r="K71">
+        <v>38.96218601607629</v>
+      </c>
+      <c r="L71">
+        <v>20.55994206675828</v>
+      </c>
+      <c r="M71">
+        <v>0.1063947146119436</v>
+      </c>
+      <c r="N71">
+        <v>0.1700610256441763</v>
+      </c>
+      <c r="O71" t="s">
+        <v>16</v>
+      </c>
+      <c r="P71">
+        <v>0.0001953999999955158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
+      <c r="A72">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>166.9464969514126</v>
+      </c>
+      <c r="D72">
+        <v>13.46911553291059</v>
+      </c>
+      <c r="E72">
+        <v>359.7447007775094</v>
+      </c>
+      <c r="F72">
+        <v>9.87422050909816</v>
+      </c>
+      <c r="G72">
+        <v>166.7332000626881</v>
+      </c>
+      <c r="H72">
+        <v>13.29982975147408</v>
+      </c>
+      <c r="I72">
+        <v>150.0337683635548</v>
+      </c>
+      <c r="J72">
+        <v>9.651912212970135</v>
+      </c>
+      <c r="K72">
+        <v>149.9439867022852</v>
+      </c>
+      <c r="L72">
+        <v>9.561819629446772</v>
+      </c>
+      <c r="M72">
+        <v>0.1203647801609007</v>
+      </c>
+      <c r="N72">
+        <v>0.07475588856035109</v>
+      </c>
+      <c r="O72" t="s">
+        <v>16</v>
+      </c>
+      <c r="P72">
+        <v>0.0001883999999847674</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
+      <c r="A73">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>10</v>
+      </c>
+      <c r="C73">
+        <v>33.40354946733707</v>
+      </c>
+      <c r="D73">
+        <v>7.63919163650484</v>
+      </c>
+      <c r="E73">
+        <v>0.1291809449189355</v>
+      </c>
+      <c r="F73">
+        <v>9.90960027304075</v>
+      </c>
+      <c r="G73">
+        <v>33.48605547471693</v>
+      </c>
+      <c r="H73">
+        <v>7.214093012635334</v>
+      </c>
+      <c r="I73">
+        <v>22.46395608561936</v>
+      </c>
+      <c r="J73">
+        <v>16.27104575612665</v>
+      </c>
+      <c r="K73">
+        <v>22.35672099073397</v>
+      </c>
+      <c r="L73">
+        <v>15.6928239690229</v>
+      </c>
+      <c r="M73">
+        <v>0.09063237460948838</v>
+      </c>
+      <c r="N73">
+        <v>0.2272171873176875</v>
+      </c>
+      <c r="O73" t="s">
+        <v>17</v>
+      </c>
+      <c r="P73">
+        <v>0.0001952000000073895</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>10</v>
+      </c>
+      <c r="C74">
+        <v>19.21287640595593</v>
+      </c>
+      <c r="D74">
+        <v>11.21211159934425</v>
+      </c>
+      <c r="E74">
+        <v>359.9044363502803</v>
+      </c>
+      <c r="F74">
+        <v>9.755673334918747</v>
+      </c>
+      <c r="G74">
+        <v>18.91322173479992</v>
+      </c>
+      <c r="H74">
+        <v>11.13562003274072</v>
+      </c>
+      <c r="I74">
+        <v>15.57133329969279</v>
+      </c>
+      <c r="J74">
+        <v>20.85419847183129</v>
+      </c>
+      <c r="K74">
+        <v>15.49968020052118</v>
+      </c>
+      <c r="L74">
+        <v>20.52712626237489</v>
+      </c>
+      <c r="M74">
+        <v>0.0933197134613989</v>
+      </c>
+      <c r="N74">
+        <v>0.06859980546073909</v>
+      </c>
+      <c r="O74" t="s">
+        <v>16</v>
+      </c>
+      <c r="P74">
+        <v>0.000217800000001489</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>115.6841848414942</v>
+      </c>
+      <c r="D75">
+        <v>9.463451171627362</v>
+      </c>
+      <c r="E75">
+        <v>359.826956084607</v>
+      </c>
+      <c r="F75">
+        <v>9.908342157110173</v>
+      </c>
+      <c r="G75">
+        <v>115.3389750383945</v>
+      </c>
+      <c r="H75">
+        <v>9.414888961410893</v>
+      </c>
+      <c r="I75">
+        <v>77.81913838663891</v>
+      </c>
+      <c r="J75">
+        <v>11.66724248977646</v>
+      </c>
+      <c r="K75">
+        <v>77.78801468896444</v>
+      </c>
+      <c r="L75">
+        <v>11.61425790681511</v>
+      </c>
+      <c r="M75">
+        <v>0.08842842446073568</v>
+      </c>
+      <c r="N75">
+        <v>0.03680890693181987</v>
+      </c>
+      <c r="O75" t="s">
+        <v>16</v>
+      </c>
+      <c r="P75">
+        <v>0.0001887999999894419</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>36.39641281744344</v>
+      </c>
+      <c r="D76">
+        <v>12.41457124932673</v>
+      </c>
+      <c r="E76">
+        <v>359.8174963518577</v>
+      </c>
+      <c r="F76">
+        <v>9.705341748666138</v>
+      </c>
+      <c r="G76">
+        <v>35.99794543116133</v>
+      </c>
+      <c r="H76">
+        <v>12.18347049957628</v>
+      </c>
+      <c r="I76">
+        <v>27.32317301036183</v>
+      </c>
+      <c r="J76">
+        <v>21.80818795837916</v>
+      </c>
+      <c r="K76">
+        <v>27.2251822616746</v>
+      </c>
+      <c r="L76">
+        <v>21.27403561278108</v>
+      </c>
+      <c r="M76">
+        <v>0.08735091575892616</v>
+      </c>
+      <c r="N76">
+        <v>0.1218195806166947</v>
+      </c>
+      <c r="O76" t="s">
+        <v>16</v>
+      </c>
+      <c r="P76">
+        <v>0.000193200000012439</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
+      <c r="A77">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>10</v>
+      </c>
+      <c r="C77">
+        <v>102.4092396214642</v>
+      </c>
+      <c r="D77">
+        <v>3.791570731073309</v>
+      </c>
+      <c r="E77">
+        <v>0.2128506401928187</v>
+      </c>
+      <c r="F77">
+        <v>9.865492288031513</v>
+      </c>
+      <c r="G77">
+        <v>104.9044239285487</v>
+      </c>
+      <c r="H77">
+        <v>3.583755602234833</v>
+      </c>
+      <c r="I77">
+        <v>41.23088095385175</v>
+      </c>
+      <c r="J77">
+        <v>8.517806771190989</v>
+      </c>
+      <c r="K77">
+        <v>41.12169532509454</v>
+      </c>
+      <c r="L77">
+        <v>8.154549260892505</v>
+      </c>
+      <c r="M77">
+        <v>0.09482850453743888</v>
+      </c>
+      <c r="N77">
+        <v>0.297778506247648</v>
+      </c>
+      <c r="O77" t="s">
+        <v>17</v>
+      </c>
+      <c r="P77">
+        <v>0.0002130999999963024</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
+      <c r="A78">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>10</v>
+      </c>
+      <c r="C78">
+        <v>55.94936395614395</v>
+      </c>
+      <c r="D78">
+        <v>12.8278466486262</v>
+      </c>
+      <c r="E78">
+        <v>359.7179096067844</v>
+      </c>
+      <c r="F78">
+        <v>9.667077248418366</v>
+      </c>
+      <c r="G78">
+        <v>55.44576090008371</v>
+      </c>
+      <c r="H78">
+        <v>12.5828364545219</v>
+      </c>
+      <c r="I78">
+        <v>41.02759868558736</v>
+      </c>
+      <c r="J78">
+        <v>21.21280471567252</v>
+      </c>
+      <c r="K78">
+        <v>40.9683403436916</v>
+      </c>
+      <c r="L78">
+        <v>20.67984322168474</v>
+      </c>
+      <c r="M78">
+        <v>0.09650892728316612</v>
+      </c>
+      <c r="N78">
+        <v>0.117028531742748</v>
+      </c>
+      <c r="O78" t="s">
+        <v>16</v>
+      </c>
+      <c r="P78">
+        <v>0.0001942000000099142</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
+      <c r="A79">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>10</v>
+      </c>
+      <c r="C79">
+        <v>165.4396257238527</v>
+      </c>
+      <c r="D79">
+        <v>10.70634719908626</v>
+      </c>
+      <c r="E79">
+        <v>359.9326665443774</v>
+      </c>
+      <c r="F79">
+        <v>9.827919122284523</v>
+      </c>
+      <c r="G79">
+        <v>165.4470545053653</v>
+      </c>
+      <c r="H79">
+        <v>10.48007151409083</v>
+      </c>
+      <c r="I79">
+        <v>138.9401716507728</v>
+      </c>
+      <c r="J79">
+        <v>6.69919649565565</v>
+      </c>
+      <c r="K79">
+        <v>138.9580200953371</v>
+      </c>
+      <c r="L79">
+        <v>6.577637640434719</v>
+      </c>
+      <c r="M79">
+        <v>0.09280609127563387</v>
+      </c>
+      <c r="N79">
+        <v>0.087726786805952</v>
+      </c>
+      <c r="O79" t="s">
+        <v>16</v>
+      </c>
+      <c r="P79">
+        <v>0.0002289999999902648</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
+      <c r="A80">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>8.672620950042782</v>
+      </c>
+      <c r="D80">
+        <v>11.17155616641261</v>
+      </c>
+      <c r="E80">
+        <v>359.9633861588326</v>
+      </c>
+      <c r="F80">
+        <v>9.956569276992544</v>
+      </c>
+      <c r="G80">
+        <v>8.612970502726768</v>
+      </c>
+      <c r="H80">
+        <v>10.73302643079558</v>
+      </c>
+      <c r="I80">
+        <v>8.792537788842502</v>
+      </c>
+      <c r="J80">
+        <v>20.88161751407274</v>
+      </c>
+      <c r="K80">
+        <v>8.75881072376227</v>
+      </c>
+      <c r="L80">
+        <v>20.31145654798309</v>
+      </c>
+      <c r="M80">
+        <v>0.09312634649935292</v>
+      </c>
+      <c r="N80">
+        <v>0.1535657638508026</v>
+      </c>
+      <c r="O80" t="s">
+        <v>16</v>
+      </c>
+      <c r="P80">
+        <v>0.0002068999999949028</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
+      <c r="A81">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>10</v>
+      </c>
+      <c r="C81">
+        <v>90.1202627412686</v>
+      </c>
+      <c r="D81">
+        <v>8.616809111377382</v>
+      </c>
+      <c r="E81">
+        <v>0.9949076462310189</v>
+      </c>
+      <c r="F81">
+        <v>8.975217742853136</v>
+      </c>
+      <c r="G81">
+        <v>91.09021084783832</v>
+      </c>
+      <c r="H81">
+        <v>6.843560181234772</v>
+      </c>
+      <c r="I81">
+        <v>57.39789300421757</v>
+      </c>
+      <c r="J81">
+        <v>13.66352932901044</v>
+      </c>
+      <c r="K81">
+        <v>56.96706366962597</v>
+      </c>
+      <c r="L81">
+        <v>11.37591433149436</v>
+      </c>
+      <c r="M81">
+        <v>0.1740160892976729</v>
+      </c>
+      <c r="N81">
+        <v>0.9254713087117326</v>
+      </c>
+      <c r="O81" t="s">
+        <v>18</v>
+      </c>
+      <c r="P81">
+        <v>0.0001913999999771931</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
+      <c r="A82">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>10</v>
+      </c>
+      <c r="C82">
+        <v>93.94482897004586</v>
+      </c>
+      <c r="D82">
+        <v>11.39287640417597</v>
+      </c>
+      <c r="E82">
+        <v>359.4300441191555</v>
+      </c>
+      <c r="F82">
+        <v>9.963781204289935</v>
+      </c>
+      <c r="G82">
+        <v>93.32575413324662</v>
+      </c>
+      <c r="H82">
+        <v>11.63617995638412</v>
+      </c>
+      <c r="I82">
+        <v>66.48783954982605</v>
+      </c>
+      <c r="J82">
+        <v>16.15039452812126</v>
+      </c>
+      <c r="K82">
+        <v>66.46856042651362</v>
+      </c>
+      <c r="L82">
+        <v>16.37278129258682</v>
+      </c>
+      <c r="M82">
+        <v>0.1192499017050682</v>
+      </c>
+      <c r="N82">
+        <v>0.09663562555740311</v>
+      </c>
+      <c r="O82" t="s">
+        <v>16</v>
+      </c>
+      <c r="P82">
+        <v>0.0002161000000171498</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
+      <c r="A83">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>63.97544120494257</v>
+      </c>
+      <c r="D83">
+        <v>7.09018652027162</v>
+      </c>
+      <c r="E83">
+        <v>0.4079701026656091</v>
+      </c>
+      <c r="F83">
+        <v>9.832065310961724</v>
+      </c>
+      <c r="G83">
+        <v>65.00583867785024</v>
+      </c>
+      <c r="H83">
+        <v>6.497918212957108</v>
+      </c>
+      <c r="I83">
+        <v>38.4159118793041</v>
+      </c>
+      <c r="J83">
+        <v>14.1881020213233</v>
+      </c>
+      <c r="K83">
+        <v>38.32469402787594</v>
+      </c>
+      <c r="L83">
+        <v>13.39703906651506</v>
+      </c>
+      <c r="M83">
+        <v>0.1010780321407535</v>
+      </c>
+      <c r="N83">
+        <v>0.3503238500113174</v>
+      </c>
+      <c r="O83" t="s">
+        <v>17</v>
+      </c>
+      <c r="P83">
+        <v>0.000202999999999065</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
+      <c r="A84">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>10</v>
+      </c>
+      <c r="C84">
+        <v>49.54062056424078</v>
+      </c>
+      <c r="D84">
+        <v>10.67076913110323</v>
+      </c>
+      <c r="E84">
+        <v>359.7478048791732</v>
+      </c>
+      <c r="F84">
+        <v>9.702256130285829</v>
+      </c>
+      <c r="G84">
+        <v>48.84108815600841</v>
+      </c>
+      <c r="H84">
+        <v>10.60954643871845</v>
+      </c>
+      <c r="I84">
+        <v>34.81590641774923</v>
+      </c>
+      <c r="J84">
+        <v>19.11454519061216</v>
+      </c>
+      <c r="K84">
+        <v>34.71156974209952</v>
+      </c>
+      <c r="L84">
+        <v>18.81320772227785</v>
+      </c>
+      <c r="M84">
+        <v>0.1042223189822451</v>
+      </c>
+      <c r="N84">
+        <v>0.08419074009930132</v>
+      </c>
+      <c r="O84" t="s">
+        <v>16</v>
+      </c>
+      <c r="P84">
+        <v>0.0002393000000040502</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
+      <c r="A85">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>10</v>
+      </c>
+      <c r="C85">
+        <v>46.26763687892519</v>
+      </c>
+      <c r="D85">
+        <v>11.20545099685287</v>
+      </c>
+      <c r="E85">
+        <v>359.7452061341889</v>
+      </c>
+      <c r="F85">
+        <v>9.646169954195408</v>
+      </c>
+      <c r="G85">
+        <v>45.59878687593203</v>
+      </c>
+      <c r="H85">
+        <v>11.03380932832156</v>
+      </c>
+      <c r="I85">
+        <v>33.13287081288786</v>
+      </c>
+      <c r="J85">
+        <v>19.91760304290331</v>
+      </c>
+      <c r="K85">
+        <v>33.01492438304469</v>
+      </c>
+      <c r="L85">
+        <v>19.4314818394626</v>
+      </c>
+      <c r="M85">
+        <v>0.09845088266710489</v>
+      </c>
+      <c r="N85">
+        <v>0.1251797784839118</v>
+      </c>
+      <c r="O85" t="s">
+        <v>16</v>
+      </c>
+      <c r="P85">
+        <v>0.0001954000000239375</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
+      <c r="A86">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>10</v>
+      </c>
+      <c r="C86">
+        <v>8.287378853667391</v>
+      </c>
+      <c r="D86">
+        <v>7.442907793387191</v>
+      </c>
+      <c r="E86">
+        <v>0.0394836605926723</v>
+      </c>
+      <c r="F86">
+        <v>9.861765140365693</v>
+      </c>
+      <c r="G86">
+        <v>7.894673967583737</v>
+      </c>
+      <c r="H86">
+        <v>7.393561541677075</v>
+      </c>
+      <c r="I86">
+        <v>8.615529210004841</v>
+      </c>
+      <c r="J86">
+        <v>16.40699998673912</v>
+      </c>
+      <c r="K86">
+        <v>8.498753956127063</v>
+      </c>
+      <c r="L86">
+        <v>16.21160320475834</v>
+      </c>
+      <c r="M86">
+        <v>0.1024175363550343</v>
+      </c>
+      <c r="N86">
+        <v>0.07543528384478812</v>
+      </c>
+      <c r="O86" t="s">
+        <v>16</v>
+      </c>
+      <c r="P86">
+        <v>0.0002072999999995773</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
+      <c r="A87">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>10</v>
+      </c>
+      <c r="C87">
+        <v>111.6672866195861</v>
+      </c>
+      <c r="D87">
+        <v>9.107436823744884</v>
+      </c>
+      <c r="E87">
+        <v>359.9469447836763</v>
+      </c>
+      <c r="F87">
+        <v>9.704849644225188</v>
+      </c>
+      <c r="G87">
+        <v>111.3157904332032</v>
+      </c>
+      <c r="H87">
+        <v>8.764564108150356</v>
+      </c>
+      <c r="I87">
+        <v>73.53144854422638</v>
+      </c>
+      <c r="J87">
+        <v>11.81175051977503</v>
+      </c>
+      <c r="K87">
+        <v>73.40892779192032</v>
+      </c>
+      <c r="L87">
+        <v>11.43555067895746</v>
+      </c>
+      <c r="M87">
+        <v>0.09676253633802616</v>
+      </c>
+      <c r="N87">
+        <v>0.1866191872449661</v>
+      </c>
+      <c r="O87" t="s">
+        <v>16</v>
+      </c>
+      <c r="P87">
+        <v>0.0001891999999941163</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
+      <c r="A88">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>36.46925165320029</v>
+      </c>
+      <c r="D88">
+        <v>5.485117248731678</v>
+      </c>
+      <c r="E88">
+        <v>0.1788857156901902</v>
+      </c>
+      <c r="F88">
+        <v>9.928627833103912</v>
+      </c>
+      <c r="G88">
+        <v>36.98197379226018</v>
+      </c>
+      <c r="H88">
+        <v>5.049959628148378</v>
+      </c>
+      <c r="I88">
+        <v>21.84848718910419</v>
+      </c>
+      <c r="J88">
+        <v>13.65786460130007</v>
+      </c>
+      <c r="K88">
+        <v>21.74317428339588</v>
+      </c>
+      <c r="L88">
+        <v>13.08392994244014</v>
+      </c>
+      <c r="M88">
+        <v>0.09528407918194606</v>
+      </c>
+      <c r="N88">
+        <v>0.3075190247672153</v>
+      </c>
+      <c r="O88" t="s">
+        <v>17</v>
+      </c>
+      <c r="P88">
+        <v>0.0001971000000082768</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
+      <c r="A89">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>10</v>
+      </c>
+      <c r="C89">
+        <v>118.1275533419322</v>
+      </c>
+      <c r="D89">
+        <v>14.45881652295873</v>
+      </c>
+      <c r="E89">
+        <v>359.888287343744</v>
+      </c>
+      <c r="F89">
+        <v>8.687606261605076</v>
+      </c>
+      <c r="G89">
+        <v>117.466264490191</v>
+      </c>
+      <c r="H89">
+        <v>12.13032187778999</v>
+      </c>
+      <c r="I89">
+        <v>92.7668218217183</v>
+      </c>
+      <c r="J89">
+        <v>16.49115940110462</v>
+      </c>
+      <c r="K89">
+        <v>92.61497322868803</v>
+      </c>
+      <c r="L89">
+        <v>14.08380880374898</v>
+      </c>
+      <c r="M89">
+        <v>0.1191514382547246</v>
+      </c>
+      <c r="N89">
+        <v>0.700399551178958</v>
+      </c>
+      <c r="O89" t="s">
+        <v>18</v>
+      </c>
+      <c r="P89">
+        <v>0.0002139000000056512</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
+      <c r="A90">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>116.5591888835442</v>
+      </c>
+      <c r="D90">
+        <v>9.085796258556961</v>
+      </c>
+      <c r="E90">
+        <v>359.9679347087545</v>
+      </c>
+      <c r="F90">
+        <v>9.753745150510817</v>
+      </c>
+      <c r="G90">
+        <v>116.3637486914254</v>
+      </c>
+      <c r="H90">
+        <v>8.782547909708468</v>
+      </c>
+      <c r="I90">
+        <v>77.06502614626034</v>
+      </c>
+      <c r="J90">
+        <v>11.20723949811577</v>
+      </c>
+      <c r="K90">
+        <v>76.957503900839</v>
+      </c>
+      <c r="L90">
+        <v>10.8888155548248</v>
+      </c>
+      <c r="M90">
+        <v>0.09407959368935463</v>
+      </c>
+      <c r="N90">
+        <v>0.1625606964123835</v>
+      </c>
+      <c r="O90" t="s">
+        <v>16</v>
+      </c>
+      <c r="P90">
+        <v>0.0001883999999847674</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
+      <c r="A91">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>10</v>
+      </c>
+      <c r="C91">
+        <v>89.94497768439012</v>
+      </c>
+      <c r="D91">
+        <v>6.071245611740043</v>
+      </c>
+      <c r="E91">
+        <v>0.5081190079641331</v>
+      </c>
+      <c r="F91">
+        <v>9.584550580284636</v>
+      </c>
+      <c r="G91">
+        <v>91.60766648465743</v>
+      </c>
+      <c r="H91">
+        <v>5.370375005282683</v>
+      </c>
+      <c r="I91">
+        <v>48.84601329812367</v>
+      </c>
+      <c r="J91">
+        <v>11.23051578470421</v>
+      </c>
+      <c r="K91">
+        <v>48.59636009448828</v>
+      </c>
+      <c r="L91">
+        <v>10.26220906762598</v>
+      </c>
+      <c r="M91">
+        <v>0.1119002525928234</v>
+      </c>
+      <c r="N91">
+        <v>0.5362847252916373</v>
+      </c>
+      <c r="O91" t="s">
+        <v>19</v>
+      </c>
+      <c r="P91">
+        <v>0.0001910000000009404</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>10</v>
+      </c>
+      <c r="C92">
+        <v>27.54975577790644</v>
+      </c>
+      <c r="D92">
+        <v>4.892227932112887</v>
+      </c>
+      <c r="E92">
+        <v>0.06734600045980398</v>
+      </c>
+      <c r="F92">
+        <v>9.84430789830267</v>
+      </c>
+      <c r="G92">
+        <v>27.05015276704124</v>
+      </c>
+      <c r="H92">
+        <v>4.684699972837175</v>
+      </c>
+      <c r="I92">
+        <v>17.15395993153109</v>
+      </c>
+      <c r="J92">
+        <v>13.17470023696191</v>
+      </c>
+      <c r="K92">
+        <v>16.99178090677077</v>
+      </c>
+      <c r="L92">
+        <v>12.79308096416673</v>
+      </c>
+      <c r="M92">
+        <v>0.09860598272978406</v>
+      </c>
+      <c r="N92">
+        <v>0.2073614340549846</v>
+      </c>
+      <c r="O92" t="s">
+        <v>16</v>
+      </c>
+      <c r="P92">
+        <v>0.0002007999999875665</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>10</v>
+      </c>
+      <c r="C93">
+        <v>36.1806473012353</v>
+      </c>
+      <c r="D93">
+        <v>6.948245597906183</v>
+      </c>
+      <c r="E93">
+        <v>0.1818363053204348</v>
+      </c>
+      <c r="F93">
+        <v>9.857121587205315</v>
+      </c>
+      <c r="G93">
+        <v>36.28248612366009</v>
+      </c>
+      <c r="H93">
+        <v>6.459705315670352</v>
+      </c>
+      <c r="I93">
+        <v>23.34892049549794</v>
+      </c>
+      <c r="J93">
+        <v>15.37253312835461</v>
+      </c>
+      <c r="K93">
+        <v>23.22635849272379</v>
+      </c>
+      <c r="L93">
+        <v>14.67906208332171</v>
+      </c>
+      <c r="M93">
+        <v>0.08970992560391471</v>
+      </c>
+      <c r="N93">
+        <v>0.28414983401099</v>
+      </c>
+      <c r="O93" t="s">
+        <v>17</v>
+      </c>
+      <c r="P93">
+        <v>0.000194800000002715</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>10</v>
+      </c>
+      <c r="C94">
+        <v>159.4584898987726</v>
+      </c>
+      <c r="D94">
+        <v>12.4629788016447</v>
+      </c>
+      <c r="E94">
+        <v>359.9309102274653</v>
+      </c>
+      <c r="F94">
+        <v>9.90425195166649</v>
+      </c>
+      <c r="G94">
+        <v>159.4443157374165</v>
+      </c>
+      <c r="H94">
+        <v>12.32286741814816</v>
+      </c>
+      <c r="I94">
+        <v>135.8914103371119</v>
+      </c>
+      <c r="J94">
+        <v>9.221215218233809</v>
+      </c>
+      <c r="K94">
+        <v>135.9205700764011</v>
+      </c>
+      <c r="L94">
+        <v>9.129010360671444</v>
+      </c>
+      <c r="M94">
+        <v>0.0842448458851211</v>
+      </c>
+      <c r="N94">
+        <v>0.05241515376605225</v>
+      </c>
+      <c r="O94" t="s">
+        <v>16</v>
+      </c>
+      <c r="P94">
+        <v>0.0002297999999996136</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>10</v>
+      </c>
+      <c r="C95">
+        <v>109.1437807997656</v>
+      </c>
+      <c r="D95">
+        <v>10.89013882341379</v>
+      </c>
+      <c r="E95">
+        <v>359.5109405758969</v>
+      </c>
+      <c r="F95">
+        <v>9.94050196896702</v>
+      </c>
+      <c r="G95">
+        <v>108.3887609781714</v>
+      </c>
+      <c r="H95">
+        <v>11.03220828447684</v>
+      </c>
+      <c r="I95">
+        <v>77.08991880558148</v>
+      </c>
+      <c r="J95">
+        <v>13.86645042167153</v>
+      </c>
+      <c r="K95">
+        <v>77.01385196493153</v>
+      </c>
+      <c r="L95">
+        <v>14.00648689920104</v>
+      </c>
+      <c r="M95">
+        <v>0.1084819351773141</v>
+      </c>
+      <c r="N95">
+        <v>0.08733802030247556</v>
+      </c>
+      <c r="O95" t="s">
+        <v>16</v>
+      </c>
+      <c r="P95">
+        <v>0.0002293999999949392</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>10</v>
+      </c>
+      <c r="C96">
+        <v>129.4894415239125</v>
+      </c>
+      <c r="D96">
+        <v>10.28665410746387</v>
+      </c>
+      <c r="E96">
+        <v>359.776964035346</v>
+      </c>
+      <c r="F96">
+        <v>9.731874009765095</v>
+      </c>
+      <c r="G96">
+        <v>129.0153129073156</v>
+      </c>
+      <c r="H96">
+        <v>9.98965059813761</v>
+      </c>
+      <c r="I96">
+        <v>92.4963307677606</v>
+      </c>
+      <c r="J96">
+        <v>10.70698393477249</v>
+      </c>
+      <c r="K96">
+        <v>92.36296729852295</v>
+      </c>
+      <c r="L96">
+        <v>10.45554474150765</v>
+      </c>
+      <c r="M96">
+        <v>0.1028122155698264</v>
+      </c>
+      <c r="N96">
+        <v>0.1565152772262068</v>
+      </c>
+      <c r="O96" t="s">
+        <v>16</v>
+      </c>
+      <c r="P96">
+        <v>0.0001938000000052398</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
+      <c r="A97">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>41.18462776024221</v>
+      </c>
+      <c r="D97">
+        <v>5.288256223490196</v>
+      </c>
+      <c r="E97">
+        <v>0.1992866698657448</v>
+      </c>
+      <c r="F97">
+        <v>9.924384318026144</v>
+      </c>
+      <c r="G97">
+        <v>41.58565016286611</v>
+      </c>
+      <c r="H97">
+        <v>4.925265762201712</v>
+      </c>
+      <c r="I97">
+        <v>23.74542453059524</v>
+      </c>
+      <c r="J97">
+        <v>13.28409758323217</v>
+      </c>
+      <c r="K97">
+        <v>23.61538934022734</v>
+      </c>
+      <c r="L97">
+        <v>12.80065869775642</v>
+      </c>
+      <c r="M97">
+        <v>0.08971458505502072</v>
+      </c>
+      <c r="N97">
+        <v>0.2747903465600112</v>
+      </c>
+      <c r="O97" t="s">
+        <v>17</v>
+      </c>
+      <c r="P97">
+        <v>0.0001963999999929911</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
+      <c r="A98">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>10</v>
+      </c>
+      <c r="C98">
+        <v>38.64364002302879</v>
+      </c>
+      <c r="D98">
+        <v>13.91402845609996</v>
+      </c>
+      <c r="E98">
+        <v>359.9790456675702</v>
+      </c>
+      <c r="F98">
+        <v>9.67354111277559</v>
+      </c>
+      <c r="G98">
+        <v>38.30362372216103</v>
+      </c>
+      <c r="H98">
+        <v>13.34472302280251</v>
+      </c>
+      <c r="I98">
+        <v>29.58813609103335</v>
+      </c>
+      <c r="J98">
+        <v>23.48744640074011</v>
+      </c>
+      <c r="K98">
+        <v>29.47808192496433</v>
+      </c>
+      <c r="L98">
+        <v>22.54187966834449</v>
+      </c>
+      <c r="M98">
+        <v>0.09193425199379865</v>
+      </c>
+      <c r="N98">
+        <v>0.2054010909272168</v>
+      </c>
+      <c r="O98" t="s">
+        <v>16</v>
+      </c>
+      <c r="P98">
+        <v>0.0002025000000003274</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
+      <c r="A99">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>10</v>
+      </c>
+      <c r="C99">
+        <v>150.6499423676143</v>
+      </c>
+      <c r="D99">
+        <v>14.64283022328396</v>
+      </c>
+      <c r="E99">
+        <v>0.5253563253876018</v>
+      </c>
+      <c r="F99">
+        <v>9.556763689109461</v>
+      </c>
+      <c r="G99">
+        <v>151.2263646672122</v>
+      </c>
+      <c r="H99">
+        <v>13.74693122973652</v>
+      </c>
+      <c r="I99">
+        <v>129.036147186146</v>
+      </c>
+      <c r="J99">
+        <v>12.59476915243944</v>
+      </c>
+      <c r="K99">
+        <v>129.2646620716916</v>
+      </c>
+      <c r="L99">
+        <v>11.8809413542821</v>
+      </c>
+      <c r="M99">
+        <v>0.1612548397791184</v>
+      </c>
+      <c r="N99">
+        <v>0.3189588063687604</v>
+      </c>
+      <c r="O99" t="s">
+        <v>17</v>
+      </c>
+      <c r="P99">
+        <v>0.0002269000000012511</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
+      <c r="A100">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>10</v>
+      </c>
+      <c r="C100">
+        <v>131.8081046523934</v>
+      </c>
+      <c r="D100">
+        <v>9.806268185410616</v>
+      </c>
+      <c r="E100">
+        <v>359.8578848756203</v>
+      </c>
+      <c r="F100">
+        <v>9.61281211060914</v>
+      </c>
+      <c r="G100">
+        <v>131.5094083780115</v>
+      </c>
+      <c r="H100">
+        <v>9.329712539894217</v>
+      </c>
+      <c r="I100">
+        <v>92.65513206400841</v>
+      </c>
+      <c r="J100">
+        <v>9.952434050938109</v>
+      </c>
+      <c r="K100">
+        <v>92.5438863266765</v>
+      </c>
+      <c r="L100">
+        <v>9.539843751246856</v>
+      </c>
+      <c r="M100">
+        <v>0.1114871349551052</v>
+      </c>
+      <c r="N100">
+        <v>0.2258651516396097</v>
+      </c>
+      <c r="O100" t="s">
+        <v>16</v>
+      </c>
+      <c r="P100">
+        <v>0.0002120999999988271</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
+      <c r="A101">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="C101">
+        <v>121.0101405535425</v>
+      </c>
+      <c r="D101">
+        <v>8.856940790887005</v>
+      </c>
+      <c r="E101">
+        <v>0.04270765281058021</v>
+      </c>
+      <c r="F101">
+        <v>9.549462223723918</v>
+      </c>
+      <c r="G101">
+        <v>121.001729485007</v>
+      </c>
+      <c r="H101">
+        <v>8.273564506359051</v>
+      </c>
+      <c r="I101">
+        <v>79.48494662297404</v>
+      </c>
+      <c r="J101">
+        <v>10.4553174329922</v>
+      </c>
+      <c r="K101">
+        <v>79.36336543215961</v>
+      </c>
+      <c r="L101">
+        <v>9.85697986818198</v>
+      </c>
+      <c r="M101">
+        <v>0.09166551333077648</v>
+      </c>
+      <c r="N101">
+        <v>0.2906520970720883</v>
+      </c>
+      <c r="O101" t="s">
+        <v>17</v>
+      </c>
+      <c r="P101">
+        <v>0.0001927000000137014</v>
       </c>
     </row>
   </sheetData>
